--- a/data/nzd0331/nzd0331.xlsx
+++ b/data/nzd0331/nzd0331.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T404"/>
+  <dimension ref="A1:T410"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23013,7 +23013,9 @@
       <c r="F404" t="n">
         <v>387.7330769230769</v>
       </c>
-      <c r="G404" t="inlineStr"/>
+      <c r="G404" t="n">
+        <v>386.3530769230769</v>
+      </c>
       <c r="H404" t="n">
         <v>380.32</v>
       </c>
@@ -23053,6 +23055,402 @@
       <c r="T404" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:19:21+00:00</t>
+        </is>
+      </c>
+      <c r="B405" t="n">
+        <v>385.8546153846154</v>
+      </c>
+      <c r="C405" t="n">
+        <v>380.06</v>
+      </c>
+      <c r="D405" t="n">
+        <v>373.1571428571429</v>
+      </c>
+      <c r="E405" t="n">
+        <v>369.73</v>
+      </c>
+      <c r="F405" t="n">
+        <v>371.0746153846154</v>
+      </c>
+      <c r="G405" t="n">
+        <v>368.0546153846154</v>
+      </c>
+      <c r="H405" t="n">
+        <v>373.65</v>
+      </c>
+      <c r="I405" t="n">
+        <v>369.99</v>
+      </c>
+      <c r="J405" t="n">
+        <v>372.17</v>
+      </c>
+      <c r="K405" t="n">
+        <v>371.4500000000001</v>
+      </c>
+      <c r="L405" t="n">
+        <v>366.6642857142857</v>
+      </c>
+      <c r="M405" t="n">
+        <v>365.76</v>
+      </c>
+      <c r="N405" t="n">
+        <v>370.2142857142857</v>
+      </c>
+      <c r="O405" t="n">
+        <v>365.94</v>
+      </c>
+      <c r="P405" t="n">
+        <v>368.84</v>
+      </c>
+      <c r="Q405" t="n">
+        <v>379.8966666666667</v>
+      </c>
+      <c r="R405" t="n">
+        <v>392.6666666666667</v>
+      </c>
+      <c r="S405" t="n">
+        <v>375.4371428571428</v>
+      </c>
+      <c r="T405" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:13:06+00:00</t>
+        </is>
+      </c>
+      <c r="B406" t="n">
+        <v>371.93</v>
+      </c>
+      <c r="C406" t="n">
+        <v>366.87</v>
+      </c>
+      <c r="D406" t="n">
+        <v>370.5328571428572</v>
+      </c>
+      <c r="E406" t="n">
+        <v>360.9666666666667</v>
+      </c>
+      <c r="F406" t="n">
+        <v>374.48</v>
+      </c>
+      <c r="G406" t="n">
+        <v>361.07</v>
+      </c>
+      <c r="H406" t="n">
+        <v>348.74</v>
+      </c>
+      <c r="I406" t="n">
+        <v>348.31</v>
+      </c>
+      <c r="J406" t="n">
+        <v>356.06</v>
+      </c>
+      <c r="K406" t="n">
+        <v>354.5</v>
+      </c>
+      <c r="L406" t="n">
+        <v>348.0857142857143</v>
+      </c>
+      <c r="M406" t="n">
+        <v>357.41</v>
+      </c>
+      <c r="N406" t="n">
+        <v>359.3157142857143</v>
+      </c>
+      <c r="O406" t="n">
+        <v>365.89</v>
+      </c>
+      <c r="P406" t="n">
+        <v>368.13</v>
+      </c>
+      <c r="Q406" t="n">
+        <v>360.5788888888889</v>
+      </c>
+      <c r="R406" t="n">
+        <v>393.9088888888889</v>
+      </c>
+      <c r="S406" t="n">
+        <v>389.5828571428572</v>
+      </c>
+      <c r="T406" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:19:21+00:00</t>
+        </is>
+      </c>
+      <c r="B407" t="n">
+        <v>386.1146153846154</v>
+      </c>
+      <c r="C407" t="n">
+        <v>384.8</v>
+      </c>
+      <c r="D407" t="n">
+        <v>386.12</v>
+      </c>
+      <c r="E407" t="n">
+        <v>380.45</v>
+      </c>
+      <c r="F407" t="n">
+        <v>385.5346153846153</v>
+      </c>
+      <c r="G407" t="n">
+        <v>377.4246153846154</v>
+      </c>
+      <c r="H407" t="n">
+        <v>384.45</v>
+      </c>
+      <c r="I407" t="n">
+        <v>384.09</v>
+      </c>
+      <c r="J407" t="n">
+        <v>375.41</v>
+      </c>
+      <c r="K407" t="n">
+        <v>381.36</v>
+      </c>
+      <c r="L407" t="n">
+        <v>388.44</v>
+      </c>
+      <c r="M407" t="n">
+        <v>381.84</v>
+      </c>
+      <c r="N407" t="n">
+        <v>387.51</v>
+      </c>
+      <c r="O407" t="n">
+        <v>385.46</v>
+      </c>
+      <c r="P407" t="n">
+        <v>378.9</v>
+      </c>
+      <c r="Q407" t="n">
+        <v>389.45</v>
+      </c>
+      <c r="R407" t="n">
+        <v>393.78</v>
+      </c>
+      <c r="S407" t="n">
+        <v>388.85</v>
+      </c>
+      <c r="T407" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-20 22:19:13+00:00</t>
+        </is>
+      </c>
+      <c r="B408" t="n">
+        <v>381.9015384615385</v>
+      </c>
+      <c r="C408" t="n">
+        <v>375.375</v>
+      </c>
+      <c r="D408" t="n">
+        <v>383.1057142857143</v>
+      </c>
+      <c r="E408" t="n">
+        <v>371.96</v>
+      </c>
+      <c r="F408" t="n">
+        <v>368.8415384615385</v>
+      </c>
+      <c r="G408" t="n">
+        <v>369.9515384615385</v>
+      </c>
+      <c r="H408" t="n">
+        <v>363.55</v>
+      </c>
+      <c r="I408" t="n">
+        <v>368.25</v>
+      </c>
+      <c r="J408" t="n">
+        <v>360.72</v>
+      </c>
+      <c r="K408" t="n">
+        <v>359.4</v>
+      </c>
+      <c r="L408" t="n">
+        <v>356.2914285714286</v>
+      </c>
+      <c r="M408" t="n">
+        <v>365.41</v>
+      </c>
+      <c r="N408" t="n">
+        <v>360.6014285714285</v>
+      </c>
+      <c r="O408" t="n">
+        <v>356.74</v>
+      </c>
+      <c r="P408" t="n">
+        <v>372.05</v>
+      </c>
+      <c r="Q408" t="n">
+        <v>367.5733333333333</v>
+      </c>
+      <c r="R408" t="n">
+        <v>384.2133333333333</v>
+      </c>
+      <c r="S408" t="n">
+        <v>378.4957142857143</v>
+      </c>
+      <c r="T408" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:13:37+00:00</t>
+        </is>
+      </c>
+      <c r="B409" t="n">
+        <v>382.0176923076923</v>
+      </c>
+      <c r="C409" t="n">
+        <v>388.66</v>
+      </c>
+      <c r="D409" t="n">
+        <v>386.1028571428572</v>
+      </c>
+      <c r="E409" t="n">
+        <v>373.9433333333333</v>
+      </c>
+      <c r="F409" t="n">
+        <v>382.7276923076923</v>
+      </c>
+      <c r="G409" t="n">
+        <v>373.2176923076924</v>
+      </c>
+      <c r="H409" t="n">
+        <v>378.65</v>
+      </c>
+      <c r="I409" t="n">
+        <v>373.07</v>
+      </c>
+      <c r="J409" t="n">
+        <v>370.03</v>
+      </c>
+      <c r="K409" t="n">
+        <v>368.84</v>
+      </c>
+      <c r="L409" t="n">
+        <v>364.7157142857143</v>
+      </c>
+      <c r="M409" t="n">
+        <v>371.82</v>
+      </c>
+      <c r="N409" t="n">
+        <v>359.2857142857143</v>
+      </c>
+      <c r="O409" t="n">
+        <v>360.68</v>
+      </c>
+      <c r="P409" t="n">
+        <v>370.07</v>
+      </c>
+      <c r="Q409" t="n">
+        <v>369.9611111111111</v>
+      </c>
+      <c r="R409" t="n">
+        <v>400.7911111111111</v>
+      </c>
+      <c r="S409" t="n">
+        <v>378.1128571428572</v>
+      </c>
+      <c r="T409" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:19:15+00:00</t>
+        </is>
+      </c>
+      <c r="B410" t="n">
+        <v>381.7646153846154</v>
+      </c>
+      <c r="C410" t="n">
+        <v>378.72</v>
+      </c>
+      <c r="D410" t="n">
+        <v>382.09</v>
+      </c>
+      <c r="E410" t="n">
+        <v>382.16</v>
+      </c>
+      <c r="F410" t="n">
+        <v>385.9946153846154</v>
+      </c>
+      <c r="G410" t="n">
+        <v>384.4646153846153</v>
+      </c>
+      <c r="H410" t="n">
+        <v>378.64</v>
+      </c>
+      <c r="I410" t="n">
+        <v>386.15</v>
+      </c>
+      <c r="J410" t="n">
+        <v>375.7</v>
+      </c>
+      <c r="K410" t="n">
+        <v>386.37</v>
+      </c>
+      <c r="L410" t="n">
+        <v>391.98</v>
+      </c>
+      <c r="M410" t="n">
+        <v>391.96</v>
+      </c>
+      <c r="N410" t="n">
+        <v>395.52</v>
+      </c>
+      <c r="O410" t="n">
+        <v>389.69</v>
+      </c>
+      <c r="P410" t="n">
+        <v>374.97</v>
+      </c>
+      <c r="Q410" t="n">
+        <v>403.97</v>
+      </c>
+      <c r="R410" t="n">
+        <v>399.21</v>
+      </c>
+      <c r="S410" t="n">
+        <v>392.58</v>
+      </c>
+      <c r="T410" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -23067,7 +23465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B479"/>
+  <dimension ref="A1:B485"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27865,6 +28263,66 @@
       </c>
       <c r="B479" t="n">
         <v>1.1</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B480" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B481" t="n">
+        <v>-1.04</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B482" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>2025-01-20 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B483" t="n">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B484" t="n">
+        <v>-0.76</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B485" t="n">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>
@@ -28033,28 +28491,28 @@
         <v>0.0762</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.718411474527238</v>
+        <v>-1.672756426860268</v>
       </c>
       <c r="J2" t="n">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="K2" t="n">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3751308533445082</v>
+        <v>0.370257531770261</v>
       </c>
       <c r="M2" t="n">
-        <v>13.29076972242047</v>
+        <v>13.28799334853766</v>
       </c>
       <c r="N2" t="n">
-        <v>290.4822799130933</v>
+        <v>287.7480588198339</v>
       </c>
       <c r="O2" t="n">
-        <v>17.04354070940347</v>
+        <v>16.96313823618242</v>
       </c>
       <c r="P2" t="n">
-        <v>413.2719151905351</v>
+        <v>412.868311260579</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -28110,28 +28568,28 @@
         <v>0.0939</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.506951884332668</v>
+        <v>-1.466035712751866</v>
       </c>
       <c r="J3" t="n">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="K3" t="n">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3553806977383772</v>
+        <v>0.3507224442635758</v>
       </c>
       <c r="M3" t="n">
-        <v>11.76262948032959</v>
+        <v>11.75315414848424</v>
       </c>
       <c r="N3" t="n">
-        <v>236.6889721104696</v>
+        <v>234.7125176783773</v>
       </c>
       <c r="O3" t="n">
-        <v>15.38469928566917</v>
+        <v>15.32033020787663</v>
       </c>
       <c r="P3" t="n">
-        <v>407.2944904428534</v>
+        <v>406.9291802794325</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -28187,28 +28645,28 @@
         <v>0.0772</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.362677016097837</v>
+        <v>-1.317255200313121</v>
       </c>
       <c r="J4" t="n">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="K4" t="n">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3670616526355096</v>
+        <v>0.3575790962121836</v>
       </c>
       <c r="M4" t="n">
-        <v>10.583252663578</v>
+        <v>10.58252484962798</v>
       </c>
       <c r="N4" t="n">
-        <v>186.8170719007448</v>
+        <v>186.4880848274484</v>
       </c>
       <c r="O4" t="n">
-        <v>13.66810418092958</v>
+        <v>13.65606403131768</v>
       </c>
       <c r="P4" t="n">
-        <v>402.9382106761216</v>
+        <v>402.5384487681091</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -28264,28 +28722,28 @@
         <v>0.06510000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.385225137448582</v>
+        <v>-1.356570893422213</v>
       </c>
       <c r="J5" t="n">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="K5" t="n">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3365752425861908</v>
+        <v>0.3352136843923712</v>
       </c>
       <c r="M5" t="n">
-        <v>11.35036888205239</v>
+        <v>11.29778691999984</v>
       </c>
       <c r="N5" t="n">
-        <v>222.0516119283884</v>
+        <v>219.5794333950577</v>
       </c>
       <c r="O5" t="n">
-        <v>14.90139630801048</v>
+        <v>14.81821289478113</v>
       </c>
       <c r="P5" t="n">
-        <v>400.9991445857742</v>
+        <v>400.7459353069734</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -28341,28 +28799,28 @@
         <v>0.0707</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.540811639877036</v>
+        <v>-1.472353238849435</v>
       </c>
       <c r="J6" t="n">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="K6" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="L6" t="n">
-        <v>0.410484815826169</v>
+        <v>0.3906020470338589</v>
       </c>
       <c r="M6" t="n">
-        <v>11.13935397210775</v>
+        <v>11.24278090406323</v>
       </c>
       <c r="N6" t="n">
-        <v>203.1593743446562</v>
+        <v>206.285461366028</v>
       </c>
       <c r="O6" t="n">
-        <v>14.25339869450989</v>
+        <v>14.36264116957699</v>
       </c>
       <c r="P6" t="n">
-        <v>399.2079103378781</v>
+        <v>398.6060129419857</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -28418,28 +28876,28 @@
         <v>0.0784</v>
       </c>
       <c r="I7" t="n">
-        <v>-1.614095636024734</v>
+        <v>-1.541423332664097</v>
       </c>
       <c r="J7" t="n">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="K7" t="n">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="L7" t="n">
-        <v>0.431472312630294</v>
+        <v>0.4120047023523961</v>
       </c>
       <c r="M7" t="n">
-        <v>10.82769247994715</v>
+        <v>10.91380021314014</v>
       </c>
       <c r="N7" t="n">
-        <v>198.2014208399039</v>
+        <v>201.1725845108382</v>
       </c>
       <c r="O7" t="n">
-        <v>14.07840263808021</v>
+        <v>14.18353215919216</v>
       </c>
       <c r="P7" t="n">
-        <v>398.819634058412</v>
+        <v>398.167128647443</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -28495,28 +28953,28 @@
         <v>0.0551</v>
       </c>
       <c r="I8" t="n">
-        <v>-1.427335535189787</v>
+        <v>-1.39119566905336</v>
       </c>
       <c r="J8" t="n">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="K8" t="n">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3465128117005291</v>
+        <v>0.3395645184056078</v>
       </c>
       <c r="M8" t="n">
-        <v>12.0841186060717</v>
+        <v>12.12461418552682</v>
       </c>
       <c r="N8" t="n">
-        <v>229.6429489830354</v>
+        <v>229.8612656407444</v>
       </c>
       <c r="O8" t="n">
-        <v>15.15397469256945</v>
+        <v>15.16117626177944</v>
       </c>
       <c r="P8" t="n">
-        <v>397.3827414125556</v>
+        <v>397.0640001663509</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -28572,28 +29030,28 @@
         <v>0.0561</v>
       </c>
       <c r="I9" t="n">
-        <v>-1.409009400732858</v>
+        <v>-1.372691906126717</v>
       </c>
       <c r="J9" t="n">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="K9" t="n">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3414753048454822</v>
+        <v>0.3341293261969553</v>
       </c>
       <c r="M9" t="n">
-        <v>11.50771967401745</v>
+        <v>11.56607274526846</v>
       </c>
       <c r="N9" t="n">
-        <v>224.3465368682534</v>
+        <v>224.9386598322015</v>
       </c>
       <c r="O9" t="n">
-        <v>14.97820205726486</v>
+        <v>14.9979551883649</v>
       </c>
       <c r="P9" t="n">
-        <v>397.1363354348017</v>
+        <v>396.8137109328574</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -28649,28 +29107,28 @@
         <v>0.0534</v>
       </c>
       <c r="I10" t="n">
-        <v>-1.524869556626004</v>
+        <v>-1.486604984303961</v>
       </c>
       <c r="J10" t="n">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="K10" t="n">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3822502966448954</v>
+        <v>0.3763091800896822</v>
       </c>
       <c r="M10" t="n">
-        <v>11.63333325674837</v>
+        <v>11.63131664657864</v>
       </c>
       <c r="N10" t="n">
-        <v>220.0057092484929</v>
+        <v>218.9780949042583</v>
       </c>
       <c r="O10" t="n">
-        <v>14.83258943167015</v>
+        <v>14.79790846384239</v>
       </c>
       <c r="P10" t="n">
-        <v>396.273138689755</v>
+        <v>395.9285639250116</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -28726,28 +29184,28 @@
         <v>0.0596</v>
       </c>
       <c r="I11" t="n">
-        <v>-1.380224410039641</v>
+        <v>-1.335896596326648</v>
       </c>
       <c r="J11" t="n">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="K11" t="n">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="L11" t="n">
-        <v>0.337720834798062</v>
+        <v>0.3266794306191492</v>
       </c>
       <c r="M11" t="n">
-        <v>11.62811435437636</v>
+        <v>11.68190157173298</v>
       </c>
       <c r="N11" t="n">
-        <v>216.0139317313035</v>
+        <v>217.1079849186228</v>
       </c>
       <c r="O11" t="n">
-        <v>14.69741241618073</v>
+        <v>14.73458465375332</v>
       </c>
       <c r="P11" t="n">
-        <v>392.9500860106436</v>
+        <v>392.5445165251476</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -28803,28 +29261,28 @@
         <v>0.0425</v>
       </c>
       <c r="I12" t="n">
-        <v>-1.20993624619242</v>
+        <v>-1.168405709456112</v>
       </c>
       <c r="J12" t="n">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="K12" t="n">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1951715735071317</v>
+        <v>0.1878321912410718</v>
       </c>
       <c r="M12" t="n">
-        <v>14.55692707022709</v>
+        <v>14.53466447641495</v>
       </c>
       <c r="N12" t="n">
-        <v>324.2693094314218</v>
+        <v>324.8255965105436</v>
       </c>
       <c r="O12" t="n">
-        <v>18.00747926366769</v>
+        <v>18.02291864572838</v>
       </c>
       <c r="P12" t="n">
-        <v>390.0714387864085</v>
+        <v>389.6708846232455</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -28880,28 +29338,28 @@
         <v>0.0428</v>
       </c>
       <c r="I13" t="n">
-        <v>-1.354165120336291</v>
+        <v>-1.298350643491289</v>
       </c>
       <c r="J13" t="n">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="K13" t="n">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2588041966724457</v>
+        <v>0.2473905368404521</v>
       </c>
       <c r="M13" t="n">
-        <v>13.52331022041884</v>
+        <v>13.4875569249759</v>
       </c>
       <c r="N13" t="n">
-        <v>300.1520076958257</v>
+        <v>300.4419618118608</v>
       </c>
       <c r="O13" t="n">
-        <v>17.3248956041826</v>
+        <v>17.33326171878394</v>
       </c>
       <c r="P13" t="n">
-        <v>392.8851868911964</v>
+        <v>392.3777116984465</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -28957,28 +29415,28 @@
         <v>0.0403</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.9680114791141011</v>
+        <v>-0.9311020460416891</v>
       </c>
       <c r="J14" t="n">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="K14" t="n">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1332155120173657</v>
+        <v>0.12770354803192</v>
       </c>
       <c r="M14" t="n">
-        <v>15.07319924631921</v>
+        <v>14.98995438730923</v>
       </c>
       <c r="N14" t="n">
-        <v>356.495093628842</v>
+        <v>354.8676282615037</v>
       </c>
       <c r="O14" t="n">
-        <v>18.88107766068563</v>
+        <v>18.8379305726904</v>
       </c>
       <c r="P14" t="n">
-        <v>387.7381716612029</v>
+        <v>387.4055419544413</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -29034,28 +29492,28 @@
         <v>0.0453</v>
       </c>
       <c r="I15" t="n">
-        <v>-1.166724895618852</v>
+        <v>-1.128001519138839</v>
       </c>
       <c r="J15" t="n">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="K15" t="n">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1982273340791749</v>
+        <v>0.1932130243537385</v>
       </c>
       <c r="M15" t="n">
-        <v>14.34116728309732</v>
+        <v>14.25211940964043</v>
       </c>
       <c r="N15" t="n">
-        <v>330.5000871344622</v>
+        <v>328.1389145569271</v>
       </c>
       <c r="O15" t="n">
-        <v>18.17966135918</v>
+        <v>18.11460500692541</v>
       </c>
       <c r="P15" t="n">
-        <v>391.4378857176115</v>
+        <v>391.1053714459547</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -29111,28 +29569,28 @@
         <v>0.0613</v>
       </c>
       <c r="I16" t="n">
-        <v>-1.089949473407342</v>
+        <v>-1.051983797637581</v>
       </c>
       <c r="J16" t="n">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="K16" t="n">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1938788169302238</v>
+        <v>0.1881264005359986</v>
       </c>
       <c r="M16" t="n">
-        <v>12.66067804178713</v>
+        <v>12.59049842487261</v>
       </c>
       <c r="N16" t="n">
-        <v>294.5249968521973</v>
+        <v>290.6989908409184</v>
       </c>
       <c r="O16" t="n">
-        <v>17.16173059024635</v>
+        <v>17.04989709179848</v>
       </c>
       <c r="P16" t="n">
-        <v>389.6676884837179</v>
+        <v>389.3258852043242</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -29188,28 +29646,28 @@
         <v>0.0503</v>
       </c>
       <c r="I17" t="n">
-        <v>-1.172868162186472</v>
+        <v>-1.14296044952622</v>
       </c>
       <c r="J17" t="n">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="K17" t="n">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1416986242183977</v>
+        <v>0.1389677267345526</v>
       </c>
       <c r="M17" t="n">
-        <v>14.21320747129165</v>
+        <v>14.21225631127229</v>
       </c>
       <c r="N17" t="n">
-        <v>499.9563566346108</v>
+        <v>495.7297388996464</v>
       </c>
       <c r="O17" t="n">
-        <v>22.35970385838352</v>
+        <v>22.26498908375314</v>
       </c>
       <c r="P17" t="n">
-        <v>399.910733172894</v>
+        <v>399.6451760806752</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -29265,28 +29723,28 @@
         <v>0.0535</v>
       </c>
       <c r="I18" t="n">
-        <v>-1.129309788559322</v>
+        <v>-1.079226928976091</v>
       </c>
       <c r="J18" t="n">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="K18" t="n">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2360575104101764</v>
+        <v>0.2236300431840537</v>
       </c>
       <c r="M18" t="n">
-        <v>12.65356968118258</v>
+        <v>12.68431663510072</v>
       </c>
       <c r="N18" t="n">
-        <v>255.0012049775727</v>
+        <v>254.6598299266404</v>
       </c>
       <c r="O18" t="n">
-        <v>15.96875715193805</v>
+        <v>15.95806472999281</v>
       </c>
       <c r="P18" t="n">
-        <v>407.9438799149449</v>
+        <v>407.5085151227248</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -29342,28 +29800,28 @@
         <v>0.07820000000000001</v>
       </c>
       <c r="I19" t="n">
-        <v>-1.149104170375461</v>
+        <v>-1.123001120309479</v>
       </c>
       <c r="J19" t="n">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="K19" t="n">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="L19" t="n">
-        <v>0.2114409107780874</v>
+        <v>0.2089818582252337</v>
       </c>
       <c r="M19" t="n">
-        <v>12.80744103437715</v>
+        <v>12.72259479284067</v>
       </c>
       <c r="N19" t="n">
-        <v>300.750918541602</v>
+        <v>297.0050636186295</v>
       </c>
       <c r="O19" t="n">
-        <v>17.34217167893347</v>
+        <v>17.23383484946486</v>
       </c>
       <c r="P19" t="n">
-        <v>405.2250927492214</v>
+        <v>404.994897910543</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -29400,7 +29858,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T404"/>
+  <dimension ref="A1:T410"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62389,7 +62847,11 @@
           <t>-40.97254389191217,172.1027365712708</t>
         </is>
       </c>
-      <c r="G404" t="inlineStr"/>
+      <c r="G404" t="inlineStr">
+        <is>
+          <t>-40.971875670459994,172.10258237131447</t>
+        </is>
+      </c>
       <c r="H404" t="inlineStr">
         <is>
           <t>-40.97119978551229,172.1024825394258</t>
@@ -62453,6 +62915,618 @@
       <c r="T404" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:19:21+00:00</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>-40.97520453593986,172.10343981958889</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>-40.97452907670004,172.10333720470402</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>-40.973851787110426,172.1032475381037</t>
+        </is>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>-40.973180210463134,172.10311725709454</t>
+        </is>
+      </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>-40.972516479423746,172.10293121911934</t>
+        </is>
+      </c>
+      <c r="G405" t="inlineStr">
+        <is>
+          <t>-40.97184555939608,172.10279617981405</t>
+        </is>
+      </c>
+      <c r="H405" t="inlineStr">
+        <is>
+          <t>-40.97118880975016,172.10256047431722</t>
+        </is>
+      </c>
+      <c r="I405" t="inlineStr">
+        <is>
+          <t>-40.97051682317895,172.10243291255054</t>
+        </is>
+      </c>
+      <c r="J405" t="inlineStr">
+        <is>
+          <t>-40.969854439841214,172.10223711445718</t>
+        </is>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>-40.96918727773645,172.10207520058938</t>
+        </is>
+      </c>
+      <c r="L405" t="inlineStr">
+        <is>
+          <t>-40.968512463806505,172.10196060401302</t>
+        </is>
+      </c>
+      <c r="M405" t="inlineStr">
+        <is>
+          <t>-40.967842415480085,172.1018128082816</t>
+        </is>
+      </c>
+      <c r="N405" t="inlineStr">
+        <is>
+          <t>-40.967181425083965,172.10160273491692</t>
+        </is>
+      </c>
+      <c r="O405" t="inlineStr">
+        <is>
+          <t>-40.966507176233016,172.10149490393775</t>
+        </is>
+      </c>
+      <c r="P405" t="inlineStr">
+        <is>
+          <t>-40.96584383144967,172.1013030408147</t>
+        </is>
+      </c>
+      <c r="Q405" t="inlineStr">
+        <is>
+          <t>-40.96519288444756,172.1010156416687</t>
+        </is>
+      </c>
+      <c r="R405" t="inlineStr">
+        <is>
+          <t>-40.96454453590754,172.10070817743213</t>
+        </is>
+      </c>
+      <c r="S405" t="inlineStr">
+        <is>
+          <t>-40.963850558195965,172.10075208513334</t>
+        </is>
+      </c>
+      <c r="T405" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:13:06+00:00</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>-40.975181621571146,172.10360252988986</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>-40.974507371267194,172.10349132940226</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>-40.97384746861424,172.10327820248753</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>-40.973165789639715,172.10321965428463</t>
+        </is>
+      </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>-40.97252208321338,172.10289142849544</t>
+        </is>
+      </c>
+      <c r="G406" t="inlineStr">
+        <is>
+          <t>-40.97183406574544,172.10287779155104</t>
+        </is>
+      </c>
+      <c r="H406" t="inlineStr">
+        <is>
+          <t>-40.971147818841736,172.10285153228946</t>
+        </is>
+      </c>
+      <c r="I406" t="inlineStr">
+        <is>
+          <t>-40.9704811476027,172.10268622744368</t>
+        </is>
+      </c>
+      <c r="J406" t="inlineStr">
+        <is>
+          <t>-40.969827930254304,172.10242534617555</t>
+        </is>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>-40.96915938605209,172.10227324503302</t>
+        </is>
+      </c>
+      <c r="L406" t="inlineStr">
+        <is>
+          <t>-40.968483020804975,172.10217794590255</t>
+        </is>
+      </c>
+      <c r="M406" t="inlineStr">
+        <is>
+          <t>-40.967829703431484,172.10191061031946</t>
+        </is>
+      </c>
+      <c r="N406" t="inlineStr">
+        <is>
+          <t>-40.96716485015324,172.10173039048783</t>
+        </is>
+      </c>
+      <c r="O406" t="inlineStr">
+        <is>
+          <t>-40.96650710019182,172.10149548958472</t>
+        </is>
+      </c>
+      <c r="P406" t="inlineStr">
+        <is>
+          <t>-40.96584275167342,172.10131135692043</t>
+        </is>
+      </c>
+      <c r="Q406" t="inlineStr">
+        <is>
+          <t>-40.96516350597237,172.10124190519133</t>
+        </is>
+      </c>
+      <c r="R406" t="inlineStr">
+        <is>
+          <t>-40.9645464250329,172.1006936277734</t>
+        </is>
+      </c>
+      <c r="S406" t="inlineStr">
+        <is>
+          <t>-40.96387207051921,172.1005864036859</t>
+        </is>
+      </c>
+      <c r="T406" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:19:21+00:00</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>-40.975204963794056,172.103436781466</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>-40.974536876782224,172.1032818179426</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>-40.97387311852764,172.1030960690111</t>
+        </is>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>-40.97319785102652,172.1029919967228</t>
+        </is>
+      </c>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>-40.972540274231996,172.10276225947473</t>
+        </is>
+      </c>
+      <c r="G407" t="inlineStr">
+        <is>
+          <t>-40.971860978265035,172.1026866960081</t>
+        </is>
+      </c>
+      <c r="H407" t="inlineStr">
+        <is>
+          <t>-40.971206581572346,172.10243428287637</t>
+        </is>
+      </c>
+      <c r="I407" t="inlineStr">
+        <is>
+          <t>-40.97054002516757,172.10226816425455</t>
+        </is>
+      </c>
+      <c r="J407" t="inlineStr">
+        <is>
+          <t>-40.96985977134092,172.1021992577812</t>
+        </is>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>-40.96920358475155,172.10195941169854</t>
+        </is>
+      </c>
+      <c r="L407" t="inlineStr">
+        <is>
+          <t>-40.968546973060846,172.10170586002974</t>
+        </is>
+      </c>
+      <c r="M407" t="inlineStr">
+        <is>
+          <t>-40.96786689545372,172.10162446605196</t>
+        </is>
+      </c>
+      <c r="N407" t="inlineStr">
+        <is>
+          <t>-40.967207728722904,172.10140014913134</t>
+        </is>
+      </c>
+      <c r="O407" t="inlineStr">
+        <is>
+          <t>-40.96653686249355,172.10126626725403</t>
+        </is>
+      </c>
+      <c r="P407" t="inlineStr">
+        <is>
+          <t>-40.96585913074949,172.10118520976772</t>
+        </is>
+      </c>
+      <c r="Q407" t="inlineStr">
+        <is>
+          <t>-40.96520741299133,172.1009037461777</t>
+        </is>
+      </c>
+      <c r="R407" t="inlineStr">
+        <is>
+          <t>-40.964546229023554,172.10069513739813</t>
+        </is>
+      </c>
+      <c r="S407" t="inlineStr">
+        <is>
+          <t>-40.963870956020756,172.10059498726577</t>
+        </is>
+      </c>
+      <c r="T407" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-20 22:19:13+00:00</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>-40.97519803077379,172.103486011636</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>-40.97452136709884,172.10339194877972</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>-40.973868158297506,172.10313129050783</t>
+        </is>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>-40.97318388010653,172.10309120013818</t>
+        </is>
+      </c>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t>-40.97251280473785,172.10295731177027</t>
+        </is>
+      </c>
+      <c r="G408" t="inlineStr">
+        <is>
+          <t>-40.97184868089954,172.10277401521205</t>
+        </is>
+      </c>
+      <c r="H408" t="inlineStr">
+        <is>
+          <t>-40.97117218967964,172.10267848662403</t>
+        </is>
+      </c>
+      <c r="I408" t="inlineStr">
+        <is>
+          <t>-40.97051395993843,172.10245324318356</t>
+        </is>
+      </c>
+      <c r="J408" t="inlineStr">
+        <is>
+          <t>-40.9698355984844,172.1023708980336</t>
+        </is>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>-40.969167449170044,172.10221599326348</t>
+        </is>
+      </c>
+      <c r="L408" t="inlineStr">
+        <is>
+          <t>-40.9684960251311,172.1020819511686</t>
+        </is>
+      </c>
+      <c r="M408" t="inlineStr">
+        <is>
+          <t>-40.9678418826414,172.10181690776898</t>
+        </is>
+      </c>
+      <c r="N408" t="inlineStr">
+        <is>
+          <t>-40.96716680552013,172.10171533084838</t>
+        </is>
+      </c>
+      <c r="O408" t="inlineStr">
+        <is>
+          <t>-40.966493184599756,172.10160266296216</t>
+        </is>
+      </c>
+      <c r="P408" t="inlineStr">
+        <is>
+          <t>-40.96584871324734,172.10126544264335</t>
+        </is>
+      </c>
+      <c r="Q408" t="inlineStr">
+        <is>
+          <t>-40.96517414317457,172.10115998131653</t>
+        </is>
+      </c>
+      <c r="R408" t="inlineStr">
+        <is>
+          <t>-40.96453168034361,172.10080718796866</t>
+        </is>
+      </c>
+      <c r="S408" t="inlineStr">
+        <is>
+          <t>-40.9638552095881,172.10071626167425</t>
+        </is>
+      </c>
+      <c r="T408" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:13:37+00:00</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>-40.975198221916315,172.10348465436832</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>-40.97454322872812,172.10323671394613</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>-40.97387309031783,172.10309626932292</t>
+        </is>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>-40.97318714383522,172.10306802541382</t>
+        </is>
+      </c>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t>-40.972535655289064,172.10279505732106</t>
+        </is>
+      </c>
+      <c r="G409" t="inlineStr">
+        <is>
+          <t>-40.97185405554631,172.10273585182526</t>
+        </is>
+      </c>
+      <c r="H409" t="inlineStr">
+        <is>
+          <t>-40.97119703746287,172.10250205236198</t>
+        </is>
+      </c>
+      <c r="I409" t="inlineStr">
+        <is>
+          <t>-40.970521891434984,172.102396924989</t>
+        </is>
+      </c>
+      <c r="J409" t="inlineStr">
+        <is>
+          <t>-40.969850918411716,172.10226211855476</t>
+        </is>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>-40.969182982933,172.10210569593897</t>
+        </is>
+      </c>
+      <c r="L409" t="inlineStr">
+        <is>
+          <t>-40.96850937576323,172.1019833994341</t>
+        </is>
+      </c>
+      <c r="M409" t="inlineStr">
+        <is>
+          <t>-40.9678516411781,172.10174182857645</t>
+        </is>
+      </c>
+      <c r="N409" t="inlineStr">
+        <is>
+          <t>-40.96716480452798,172.1017307418794</t>
+        </is>
+      </c>
+      <c r="O409" t="inlineStr">
+        <is>
+          <t>-40.96649917668117,172.101556513994</t>
+        </is>
+      </c>
+      <c r="P409" t="inlineStr">
+        <is>
+          <t>-40.9658457020465,172.1012886340394</t>
+        </is>
+      </c>
+      <c r="Q409" t="inlineStr">
+        <is>
+          <t>-40.96517777451106,172.10113201397044</t>
+        </is>
+      </c>
+      <c r="R409" t="inlineStr">
+        <is>
+          <t>-40.96455689122703,172.10061301900575</t>
+        </is>
+      </c>
+      <c r="S409" t="inlineStr">
+        <is>
+          <t>-40.96385462734999,172.10072074588143</t>
+        </is>
+      </c>
+      <c r="T409" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:19:15+00:00</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>-40.97519780545345,172.10348761159386</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>-40.974526871608646,172.1033528625626</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>-40.973866486862065,172.10314315898262</t>
+        </is>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>-40.973200664947015,172.102972015818</t>
+        </is>
+      </c>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>-40.97254103118585,172.10275688454635</t>
+        </is>
+      </c>
+      <c r="G410" t="inlineStr">
+        <is>
+          <t>-40.971872562917405,172.10260443706497</t>
+        </is>
+      </c>
+      <c r="H410" t="inlineStr">
+        <is>
+          <t>-40.971197021007484,172.1025021692059</t>
+        </is>
+      </c>
+      <c r="I410" t="inlineStr">
+        <is>
+          <t>-40.97054341494184,172.10224409463603</t>
+        </is>
+      </c>
+      <c r="J410" t="inlineStr">
+        <is>
+          <t>-40.969860248542446,172.1021958693747</t>
+        </is>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>-40.969211828717704,172.10190087460967</t>
+        </is>
+      </c>
+      <c r="L410" t="inlineStr">
+        <is>
+          <t>-40.96855258305344,172.10166444718723</t>
+        </is>
+      </c>
+      <c r="M410" t="inlineStr">
+        <is>
+          <t>-40.96788230184573,172.10150593219205</t>
+        </is>
+      </c>
+      <c r="N410" t="inlineStr">
+        <is>
+          <t>-40.96721991035632,172.10130632744685</t>
+        </is>
+      </c>
+      <c r="O410" t="inlineStr">
+        <is>
+          <t>-40.96654329547046,172.1012167214713</t>
+        </is>
+      </c>
+      <c r="P410" t="inlineStr">
+        <is>
+          <t>-40.96585315399965,172.10123124118695</t>
+        </is>
+      </c>
+      <c r="Q410" t="inlineStr">
+        <is>
+          <t>-40.96522949454666,172.10073367743453</t>
+        </is>
+      </c>
+      <c r="R410" t="inlineStr">
+        <is>
+          <t>-40.964554486744746,172.10063153794178</t>
+        </is>
+      </c>
+      <c r="S410" t="inlineStr">
+        <is>
+          <t>-40.96387662844184,172.1005512996859</t>
+        </is>
+      </c>
+      <c r="T410" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>

--- a/data/nzd0331/nzd0331.xlsx
+++ b/data/nzd0331/nzd0331.xlsx
@@ -28336,7 +28336,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W19"/>
+  <dimension ref="A1:X19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28427,35 +28427,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -28514,27 +28519,28 @@
       <c r="P2" t="n">
         <v>412.868311260579</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (172.1079485229909 -40.97456948752808, 172.0974052372034 -40.9760542077106)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>172.1079485229909</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-40.97456948752808</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>172.0974052372034</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-40.9760542077106</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>172.1026768800971</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-40.97531184761934</v>
       </c>
     </row>
@@ -28591,27 +28597,28 @@
       <c r="P3" t="n">
         <v>406.9291802794325</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (172.1077781537255 -40.97390356783511, 172.09723493635826 -40.97538828366089)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>172.1077781537255</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-40.97390356783511</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>172.0972349363583</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-40.97538828366089</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>172.1025065450419</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-40.974645925748</v>
       </c>
     </row>
@@ -28668,27 +28675,28 @@
       <c r="P4" t="n">
         <v>402.5384487681091</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (172.10760778446055 -40.9732376414201, 172.09706463551214 -40.97472235288938)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>172.1076077844606</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-40.9732376414201</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>172.0970646355121</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-40.97472235288938</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>172.1023362099863</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-40.97397999715474</v>
       </c>
     </row>
@@ -28745,27 +28753,28 @@
       <c r="P5" t="n">
         <v>400.7459353069734</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (172.10743741519613 -40.972571708283006, 172.09689433466502 -40.97405641539603)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>172.1074374151961</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-40.97257170828301</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>172.096894334665</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-40.97405641539603</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>172.1021658749306</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-40.97331406183952</v>
       </c>
     </row>
@@ -28822,27 +28831,28 @@
       <c r="P6" t="n">
         <v>398.6060129419857</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (172.1072670459322 -40.97190576842389, 172.09672403381697 -40.97339047118092)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>172.1072670459322</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-40.97190576842389</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>172.096724033817</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-40.97339047118092</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>172.1019955398746</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-40.9726481198024</v>
       </c>
     </row>
@@ -28899,27 +28909,28 @@
       <c r="P7" t="n">
         <v>398.167128647443</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (172.10709667666873 -40.971239821842715, 172.09655373296786 -40.97272452024406)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>172.1070966766687</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-40.97123982184272</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>172.0965537329679</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-40.97272452024406</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>172.1018252048183</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-40.97198217104339</v>
       </c>
     </row>
@@ -28976,27 +28987,28 @@
       <c r="P8" t="n">
         <v>397.0640001663509</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (172.10692630740581 -40.97057386853958, 172.09638343211776 -40.97205856258546)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>172.1069263074058</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-40.97057386853958</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>172.0963834321178</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-40.97205856258546</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>172.1016548697618</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-40.97131621556252</v>
       </c>
     </row>
@@ -29053,27 +29065,28 @@
       <c r="P9" t="n">
         <v>396.8137109328574</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (172.10675593814332 -40.96990790851444, 172.09621313126672 -40.97139259820514)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>172.1067559381433</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-40.96990790851444</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>172.0962131312667</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-40.97139259820514</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>172.101484534705</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-40.97065025335979</v>
       </c>
     </row>
@@ -29130,27 +29143,28 @@
       <c r="P10" t="n">
         <v>395.9285639250116</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (172.10658556888134 -40.96924194176735, 172.0960428304147 -40.97072662710313)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>172.1065855688813</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-40.96924194176735</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>172.0960428304147</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-40.97072662710313</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>172.101314199648</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-40.96998428443524</v>
       </c>
     </row>
@@ -29207,27 +29221,28 @@
       <c r="P11" t="n">
         <v>392.5445165251476</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (172.10641519961987 -40.96857596829839, 172.09587252956163 -40.97006064927938)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>172.1064151996199</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-40.96857596829839</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>172.0958725295616</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-40.97006064927938</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>172.1011438645908</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-40.96931830878889</v>
       </c>
     </row>
@@ -29284,27 +29299,28 @@
       <c r="P12" t="n">
         <v>389.6708846232455</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (172.10625000105856 -40.967931304374375, 172.09569418879227 -40.969361178310535)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>172.1062500010586</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-40.96793130437437</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>172.0956941887923</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-40.96936117831054</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>172.1009720949254</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-40.96864624134246</v>
       </c>
     </row>
@@ -29361,27 +29377,28 @@
       <c r="P13" t="n">
         <v>392.3777116984465</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (172.1060968550854 -40.96728550390151, 172.09552808054536 -40.968659102973696)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>172.1060968550854</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-40.96728550390151</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>172.0955280805454</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-40.9686591029737</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>172.1008124678154</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-40.96797230343761</v>
       </c>
     </row>
@@ -29438,27 +29455,28 @@
       <c r="P14" t="n">
         <v>387.4055419544413</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (172.1059390409576 -40.966618310623446, 172.09537001800527 -40.9679905049584)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>172.1059390409576</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-40.96661831062345</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>172.0953700180053</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-40.9679905049584</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>172.1006545294814</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-40.96730440779092</v>
       </c>
     </row>
@@ -29515,27 +29533,28 @@
       <c r="P15" t="n">
         <v>391.1053714459547</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (172.10578110251006 -40.96595056574092, 172.0952121486538 -40.967322756087796)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>172.1057811025101</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-40.96595056574092</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>172.0952121486538</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-40.9673227560878</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>172.1004966255819</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-40.96663666091436</v>
       </c>
     </row>
@@ -29592,27 +29611,28 @@
       <c r="P16" t="n">
         <v>389.3258852043242</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
         <is>
           <t>LINESTRING (172.10562316406302 -40.96528281410133, 172.0950542793013 -40.966655000460364)</t>
         </is>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>172.105623164063</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>-40.96528281410133</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>172.0950542793013</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>-40.96665500046036</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>172.1003387216822</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>-40.96596890728085</v>
       </c>
     </row>
@@ -29669,27 +29689,28 @@
       <c r="P17" t="n">
         <v>399.6451760806752</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
         <is>
           <t>LINESTRING (172.10546522561654 -40.964615055704684, 172.0948964099478 -40.965987238076146)</t>
         </is>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>172.1054652256165</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>-40.96461505570468</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>172.0948964099478</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>-40.96598723807615</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>172.1001808177822</v>
       </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
         <v>-40.96530114689041</v>
       </c>
     </row>
@@ -29746,27 +29767,28 @@
       <c r="P18" t="n">
         <v>407.5085151227248</v>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
         <is>
           <t>LINESTRING (172.1053072871705 -40.96394729055102, 172.0947385405933 -40.965319468935114)</t>
         </is>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>172.1053072871705</v>
       </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
         <v>-40.96394729055102</v>
       </c>
-      <c r="T18" t="n">
+      <c r="U18" t="n">
         <v>172.0947385405933</v>
       </c>
-      <c r="U18" t="n">
+      <c r="V18" t="n">
         <v>-40.96531946893511</v>
       </c>
-      <c r="V18" t="n">
+      <c r="W18" t="n">
         <v>172.1000229138819</v>
       </c>
-      <c r="W18" t="n">
+      <c r="X18" t="n">
         <v>-40.96463337974306</v>
       </c>
     </row>
@@ -29823,27 +29845,28 @@
       <c r="P19" t="n">
         <v>404.994897910543</v>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
         <is>
           <t>LINESTRING (172.105149348725 -40.96327951864033, 172.09458067123776 -40.96465169303735)</t>
         </is>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>172.105149348725</v>
       </c>
-      <c r="S19" t="n">
+      <c r="T19" t="n">
         <v>-40.96327951864033</v>
       </c>
-      <c r="T19" t="n">
+      <c r="U19" t="n">
         <v>172.0945806712378</v>
       </c>
-      <c r="U19" t="n">
+      <c r="V19" t="n">
         <v>-40.96465169303735</v>
       </c>
-      <c r="V19" t="n">
+      <c r="W19" t="n">
         <v>172.0998650099814</v>
       </c>
-      <c r="W19" t="n">
+      <c r="X19" t="n">
         <v>-40.96396560583884</v>
       </c>
     </row>

--- a/data/nzd0331/nzd0331.xlsx
+++ b/data/nzd0331/nzd0331.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T410"/>
+  <dimension ref="A1:T415"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23454,6 +23454,324 @@
         </is>
       </c>
     </row>
+    <row r="411">
+      <c r="A411" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:12:42+00:00</t>
+        </is>
+      </c>
+      <c r="B411" t="n">
+        <v>351.9953846153846</v>
+      </c>
+      <c r="C411" t="n">
+        <v>360.01</v>
+      </c>
+      <c r="D411" t="n">
+        <v>359.6314285714286</v>
+      </c>
+      <c r="E411" t="n">
+        <v>361.3166666666667</v>
+      </c>
+      <c r="F411" t="n">
+        <v>358.5053846153846</v>
+      </c>
+      <c r="G411" t="n">
+        <v>359.9453846153846</v>
+      </c>
+      <c r="H411" t="n">
+        <v>367.26</v>
+      </c>
+      <c r="I411" t="n">
+        <v>365.17</v>
+      </c>
+      <c r="J411" t="n">
+        <v>362.34</v>
+      </c>
+      <c r="K411" t="n">
+        <v>362.33</v>
+      </c>
+      <c r="L411" t="n">
+        <v>370.9528571428572</v>
+      </c>
+      <c r="M411" t="n">
+        <v>360.97</v>
+      </c>
+      <c r="N411" t="n">
+        <v>367.9428571428572</v>
+      </c>
+      <c r="O411" t="n">
+        <v>357.41</v>
+      </c>
+      <c r="P411" t="n">
+        <v>364.03</v>
+      </c>
+      <c r="Q411" t="n">
+        <v>375.3088888888889</v>
+      </c>
+      <c r="R411" t="n">
+        <v>384.8688888888889</v>
+      </c>
+      <c r="S411" t="n">
+        <v>382.3214285714286</v>
+      </c>
+      <c r="T411" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:18:51+00:00</t>
+        </is>
+      </c>
+      <c r="B412" t="n">
+        <v>368.4053846153847</v>
+      </c>
+      <c r="C412" t="n">
+        <v>367.95</v>
+      </c>
+      <c r="D412" t="n">
+        <v>369.7657142857143</v>
+      </c>
+      <c r="E412" t="n">
+        <v>370.6</v>
+      </c>
+      <c r="F412" t="n">
+        <v>371.1553846153847</v>
+      </c>
+      <c r="G412" t="n">
+        <v>364.3753846153846</v>
+      </c>
+      <c r="H412" t="n">
+        <v>378.52</v>
+      </c>
+      <c r="I412" t="n">
+        <v>377.42</v>
+      </c>
+      <c r="J412" t="n">
+        <v>376.4</v>
+      </c>
+      <c r="K412" t="n">
+        <v>371.27</v>
+      </c>
+      <c r="L412" t="n">
+        <v>380.7114285714285</v>
+      </c>
+      <c r="M412" t="n">
+        <v>377.16</v>
+      </c>
+      <c r="N412" t="n">
+        <v>380.1614285714285</v>
+      </c>
+      <c r="O412" t="n">
+        <v>380.34</v>
+      </c>
+      <c r="P412" t="n">
+        <v>378.87</v>
+      </c>
+      <c r="Q412" t="n">
+        <v>382.1866666666667</v>
+      </c>
+      <c r="R412" t="n">
+        <v>393.0266666666667</v>
+      </c>
+      <c r="S412" t="n">
+        <v>389.2057142857143</v>
+      </c>
+      <c r="T412" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:12:53+00:00</t>
+        </is>
+      </c>
+      <c r="B413" t="n">
+        <v>369.1892307692308</v>
+      </c>
+      <c r="C413" t="n">
+        <v>357.58</v>
+      </c>
+      <c r="D413" t="n">
+        <v>368.6742857142857</v>
+      </c>
+      <c r="E413" t="n">
+        <v>373.48</v>
+      </c>
+      <c r="F413" t="n">
+        <v>373.8892307692308</v>
+      </c>
+      <c r="G413" t="n">
+        <v>366.4892307692308</v>
+      </c>
+      <c r="H413" t="n">
+        <v>385.13</v>
+      </c>
+      <c r="I413" t="n">
+        <v>382.15</v>
+      </c>
+      <c r="J413" t="n">
+        <v>384.83</v>
+      </c>
+      <c r="K413" t="n">
+        <v>379.94</v>
+      </c>
+      <c r="L413" t="n">
+        <v>388.8985714285715</v>
+      </c>
+      <c r="M413" t="n">
+        <v>388.94</v>
+      </c>
+      <c r="N413" t="n">
+        <v>382.3085714285714</v>
+      </c>
+      <c r="O413" t="n">
+        <v>362.82</v>
+      </c>
+      <c r="P413" t="n">
+        <v>388.04</v>
+      </c>
+      <c r="Q413" t="n">
+        <v>391.0833333333333</v>
+      </c>
+      <c r="R413" t="n">
+        <v>401.7033333333333</v>
+      </c>
+      <c r="S413" t="n">
+        <v>398.8042857142857</v>
+      </c>
+      <c r="T413" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:18:46+00:00</t>
+        </is>
+      </c>
+      <c r="B414" t="n">
+        <v>353.78</v>
+      </c>
+      <c r="C414" t="inlineStr"/>
+      <c r="D414" t="n">
+        <v>367.6242857142857</v>
+      </c>
+      <c r="E414" t="n">
+        <v>367.58</v>
+      </c>
+      <c r="F414" t="n">
+        <v>357.96</v>
+      </c>
+      <c r="G414" t="n">
+        <v>353.71</v>
+      </c>
+      <c r="H414" t="n">
+        <v>365.1</v>
+      </c>
+      <c r="I414" t="n">
+        <v>380.55</v>
+      </c>
+      <c r="J414" t="n">
+        <v>381.06</v>
+      </c>
+      <c r="K414" t="n">
+        <v>376.14</v>
+      </c>
+      <c r="L414" t="n">
+        <v>383.3285714285714</v>
+      </c>
+      <c r="M414" t="n">
+        <v>356.84</v>
+      </c>
+      <c r="N414" t="inlineStr"/>
+      <c r="O414" t="inlineStr"/>
+      <c r="P414" t="n">
+        <v>366.24</v>
+      </c>
+      <c r="Q414" t="n">
+        <v>383.76</v>
+      </c>
+      <c r="R414" t="n">
+        <v>390.85</v>
+      </c>
+      <c r="S414" t="n">
+        <v>390.8342857142857</v>
+      </c>
+      <c r="T414" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:12:53+00:00</t>
+        </is>
+      </c>
+      <c r="B415" t="n">
+        <v>361.9030769230769</v>
+      </c>
+      <c r="C415" t="inlineStr"/>
+      <c r="D415" t="n">
+        <v>354.9885714285714</v>
+      </c>
+      <c r="E415" t="n">
+        <v>365.8966666666667</v>
+      </c>
+      <c r="F415" t="n">
+        <v>371.4730769230769</v>
+      </c>
+      <c r="G415" t="n">
+        <v>354.0030769230769</v>
+      </c>
+      <c r="H415" t="n">
+        <v>357.97</v>
+      </c>
+      <c r="I415" t="n">
+        <v>384.63</v>
+      </c>
+      <c r="J415" t="n">
+        <v>376.36</v>
+      </c>
+      <c r="K415" t="n">
+        <v>381.11</v>
+      </c>
+      <c r="L415" t="n">
+        <v>381.1971428571428</v>
+      </c>
+      <c r="M415" t="inlineStr"/>
+      <c r="N415" t="inlineStr"/>
+      <c r="O415" t="n">
+        <v>367.81</v>
+      </c>
+      <c r="P415" t="n">
+        <v>371.45</v>
+      </c>
+      <c r="Q415" t="n">
+        <v>393.2822222222222</v>
+      </c>
+      <c r="R415" t="n">
+        <v>405.9022222222222</v>
+      </c>
+      <c r="S415" t="n">
+        <v>401.3585714285715</v>
+      </c>
+      <c r="T415" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -23465,7 +23783,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B485"/>
+  <dimension ref="A1:B490"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28323,6 +28641,56 @@
       </c>
       <c r="B485" t="n">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B486" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B487" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B488" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B489" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B490" t="n">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>
@@ -28496,28 +28864,28 @@
         <v>0.0762</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.672756426860268</v>
+        <v>-1.700137557314645</v>
       </c>
       <c r="J2" t="n">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="K2" t="n">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="L2" t="n">
-        <v>0.370257531770261</v>
+        <v>0.3844210666633501</v>
       </c>
       <c r="M2" t="n">
-        <v>13.28799334853766</v>
+        <v>13.1931698310534</v>
       </c>
       <c r="N2" t="n">
-        <v>287.7480588198339</v>
+        <v>285.0469191898233</v>
       </c>
       <c r="O2" t="n">
-        <v>16.96313823618242</v>
+        <v>16.88333258541759</v>
       </c>
       <c r="P2" t="n">
-        <v>412.868311260579</v>
+        <v>413.1128900001544</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -28574,28 +28942,28 @@
         <v>0.0939</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.466035712751866</v>
+        <v>-1.481045321174699</v>
       </c>
       <c r="J3" t="n">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="K3" t="n">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3507224442635758</v>
+        <v>0.3598816813731965</v>
       </c>
       <c r="M3" t="n">
-        <v>11.75315414848424</v>
+        <v>11.70218717909396</v>
       </c>
       <c r="N3" t="n">
-        <v>234.7125176783773</v>
+        <v>233.0352007059715</v>
       </c>
       <c r="O3" t="n">
-        <v>15.32033020787663</v>
+        <v>15.26549051638929</v>
       </c>
       <c r="P3" t="n">
-        <v>406.9291802794325</v>
+        <v>407.0643306799559</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -28652,28 +29020,28 @@
         <v>0.0772</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.317255200313121</v>
+        <v>-1.331537341069858</v>
       </c>
       <c r="J4" t="n">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="K4" t="n">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3575790962121836</v>
+        <v>0.3698032080247849</v>
       </c>
       <c r="M4" t="n">
-        <v>10.58252484962798</v>
+        <v>10.49678349913559</v>
       </c>
       <c r="N4" t="n">
-        <v>186.4880848274484</v>
+        <v>184.3114188905986</v>
       </c>
       <c r="O4" t="n">
-        <v>13.65606403131768</v>
+        <v>13.57613416590299</v>
       </c>
       <c r="P4" t="n">
-        <v>402.5384487681091</v>
+        <v>402.6653584669616</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -28730,28 +29098,28 @@
         <v>0.06510000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.356570893422213</v>
+        <v>-1.351054153678612</v>
       </c>
       <c r="J5" t="n">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="K5" t="n">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3352136843923712</v>
+        <v>0.3411127403460777</v>
       </c>
       <c r="M5" t="n">
-        <v>11.29778691999984</v>
+        <v>11.16916079609934</v>
       </c>
       <c r="N5" t="n">
-        <v>219.5794333950577</v>
+        <v>216.2228790277091</v>
       </c>
       <c r="O5" t="n">
-        <v>14.81821289478113</v>
+        <v>14.70451900021586</v>
       </c>
       <c r="P5" t="n">
-        <v>400.7459353069734</v>
+        <v>400.6967680584278</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -28808,28 +29176,28 @@
         <v>0.0707</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.472353238849435</v>
+        <v>-1.454972428097965</v>
       </c>
       <c r="J6" t="n">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="K6" t="n">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3906020470338589</v>
+        <v>0.3917883937146286</v>
       </c>
       <c r="M6" t="n">
-        <v>11.24278090406323</v>
+        <v>11.17510741696296</v>
       </c>
       <c r="N6" t="n">
-        <v>206.285461366028</v>
+        <v>204.1274397047633</v>
       </c>
       <c r="O6" t="n">
-        <v>14.36264116957699</v>
+        <v>14.28731744256994</v>
       </c>
       <c r="P6" t="n">
-        <v>398.6060129419857</v>
+        <v>398.451690561133</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -28886,28 +29254,28 @@
         <v>0.0784</v>
       </c>
       <c r="I7" t="n">
-        <v>-1.541423332664097</v>
+        <v>-1.538329066950018</v>
       </c>
       <c r="J7" t="n">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="K7" t="n">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="L7" t="n">
-        <v>0.4120047023523961</v>
+        <v>0.4189274960857049</v>
       </c>
       <c r="M7" t="n">
-        <v>10.91380021314014</v>
+        <v>10.81162253098333</v>
       </c>
       <c r="N7" t="n">
-        <v>201.1725845108382</v>
+        <v>198.304785954583</v>
       </c>
       <c r="O7" t="n">
-        <v>14.18353215919216</v>
+        <v>14.08207321222919</v>
       </c>
       <c r="P7" t="n">
-        <v>398.167128647443</v>
+        <v>398.1391774835677</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -28964,28 +29332,28 @@
         <v>0.0551</v>
       </c>
       <c r="I8" t="n">
-        <v>-1.39119566905336</v>
+        <v>-1.364447925369068</v>
       </c>
       <c r="J8" t="n">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="K8" t="n">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3395645184056078</v>
+        <v>0.335451716356438</v>
       </c>
       <c r="M8" t="n">
-        <v>12.12461418552682</v>
+        <v>12.09667599383324</v>
       </c>
       <c r="N8" t="n">
-        <v>229.8612656407444</v>
+        <v>229.0382258779902</v>
       </c>
       <c r="O8" t="n">
-        <v>15.16117626177944</v>
+        <v>15.13400891627827</v>
       </c>
       <c r="P8" t="n">
-        <v>397.0640001663509</v>
+        <v>396.8260941565695</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29042,28 +29410,28 @@
         <v>0.0561</v>
       </c>
       <c r="I9" t="n">
-        <v>-1.372691906126717</v>
+        <v>-1.326439578471455</v>
       </c>
       <c r="J9" t="n">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="K9" t="n">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3341293261969553</v>
+        <v>0.3217090215235073</v>
       </c>
       <c r="M9" t="n">
-        <v>11.56607274526846</v>
+        <v>11.63428808464532</v>
       </c>
       <c r="N9" t="n">
-        <v>224.9386598322015</v>
+        <v>226.1085867217077</v>
       </c>
       <c r="O9" t="n">
-        <v>14.9979551883649</v>
+        <v>15.03690748530786</v>
       </c>
       <c r="P9" t="n">
-        <v>396.8137109328574</v>
+        <v>396.3993304829809</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29120,28 +29488,28 @@
         <v>0.0534</v>
       </c>
       <c r="I10" t="n">
-        <v>-1.486604984303961</v>
+        <v>-1.434325727581332</v>
       </c>
       <c r="J10" t="n">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="K10" t="n">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3763091800896822</v>
+        <v>0.3608214851457081</v>
       </c>
       <c r="M10" t="n">
-        <v>11.63131664657864</v>
+        <v>11.73674312783846</v>
       </c>
       <c r="N10" t="n">
-        <v>218.9780949042583</v>
+        <v>221.5004727189817</v>
       </c>
       <c r="O10" t="n">
-        <v>14.79790846384239</v>
+        <v>14.88289194743352</v>
       </c>
       <c r="P10" t="n">
-        <v>395.9285639250116</v>
+        <v>395.4531070181679</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -29198,28 +29566,28 @@
         <v>0.0596</v>
       </c>
       <c r="I11" t="n">
-        <v>-1.335896596326648</v>
+        <v>-1.290452045264567</v>
       </c>
       <c r="J11" t="n">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="K11" t="n">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="L11" t="n">
-        <v>0.3266794306191492</v>
+        <v>0.3140499806651564</v>
       </c>
       <c r="M11" t="n">
-        <v>11.68190157173298</v>
+        <v>11.75481452996396</v>
       </c>
       <c r="N11" t="n">
-        <v>217.1079849186228</v>
+        <v>218.2009124913839</v>
       </c>
       <c r="O11" t="n">
-        <v>14.73458465375332</v>
+        <v>14.77162524881348</v>
       </c>
       <c r="P11" t="n">
-        <v>392.5445165251476</v>
+        <v>392.1248668909051</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -29276,28 +29644,28 @@
         <v>0.0425</v>
       </c>
       <c r="I12" t="n">
-        <v>-1.168405709456112</v>
+        <v>-1.098077826685669</v>
       </c>
       <c r="J12" t="n">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="K12" t="n">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1878321912410718</v>
+        <v>0.1712404355336016</v>
       </c>
       <c r="M12" t="n">
-        <v>14.53466447641495</v>
+        <v>14.59667324751899</v>
       </c>
       <c r="N12" t="n">
-        <v>324.8255965105436</v>
+        <v>327.2323638140368</v>
       </c>
       <c r="O12" t="n">
-        <v>18.02291864572838</v>
+        <v>18.08956505320227</v>
       </c>
       <c r="P12" t="n">
-        <v>389.6708846232455</v>
+        <v>388.9877566639754</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -29354,28 +29722,28 @@
         <v>0.0428</v>
       </c>
       <c r="I13" t="n">
-        <v>-1.298350643491289</v>
+        <v>-1.26762045445562</v>
       </c>
       <c r="J13" t="n">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="K13" t="n">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2473905368404521</v>
+        <v>0.2414232046801471</v>
       </c>
       <c r="M13" t="n">
-        <v>13.4875569249759</v>
+        <v>13.45554484699436</v>
       </c>
       <c r="N13" t="n">
-        <v>300.4419618118608</v>
+        <v>300.4283084447286</v>
       </c>
       <c r="O13" t="n">
-        <v>17.33326171878394</v>
+        <v>17.33286786555325</v>
       </c>
       <c r="P13" t="n">
-        <v>392.3777116984465</v>
+        <v>392.096275113673</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -29432,28 +29800,28 @@
         <v>0.0403</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.9311020460416891</v>
+        <v>-0.904424814138685</v>
       </c>
       <c r="J14" t="n">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="K14" t="n">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="L14" t="n">
-        <v>0.12770354803192</v>
+        <v>0.1230993678025544</v>
       </c>
       <c r="M14" t="n">
-        <v>14.98995438730923</v>
+        <v>14.95257165621381</v>
       </c>
       <c r="N14" t="n">
-        <v>354.8676282615037</v>
+        <v>353.2578003813592</v>
       </c>
       <c r="O14" t="n">
-        <v>18.8379305726904</v>
+        <v>18.79515364080217</v>
       </c>
       <c r="P14" t="n">
-        <v>387.4055419544413</v>
+        <v>387.1635158288126</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -29510,28 +29878,28 @@
         <v>0.0453</v>
       </c>
       <c r="I15" t="n">
-        <v>-1.128001519138839</v>
+        <v>-1.114426383744964</v>
       </c>
       <c r="J15" t="n">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="K15" t="n">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1932130243537385</v>
+        <v>0.1938821377696319</v>
       </c>
       <c r="M15" t="n">
-        <v>14.25211940964043</v>
+        <v>14.1425674962794</v>
       </c>
       <c r="N15" t="n">
-        <v>328.1389145569271</v>
+        <v>324.5902043935081</v>
       </c>
       <c r="O15" t="n">
-        <v>18.11460500692541</v>
+        <v>18.01638710711746</v>
       </c>
       <c r="P15" t="n">
-        <v>391.1053714459547</v>
+        <v>390.9878385977193</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -29588,28 +29956,28 @@
         <v>0.0613</v>
       </c>
       <c r="I16" t="n">
-        <v>-1.051983797637581</v>
+        <v>-1.017980052156556</v>
       </c>
       <c r="J16" t="n">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="K16" t="n">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1881264005359986</v>
+        <v>0.1814674222637348</v>
       </c>
       <c r="M16" t="n">
-        <v>12.59049842487261</v>
+        <v>12.55110358095382</v>
       </c>
       <c r="N16" t="n">
-        <v>290.6989908409184</v>
+        <v>289.1354316379537</v>
       </c>
       <c r="O16" t="n">
-        <v>17.04989709179848</v>
+        <v>17.00398281691539</v>
       </c>
       <c r="P16" t="n">
-        <v>389.3258852043242</v>
+        <v>389.0166083906906</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -29666,28 +30034,28 @@
         <v>0.0503</v>
       </c>
       <c r="I17" t="n">
-        <v>-1.14296044952622</v>
+        <v>-1.101128662930702</v>
       </c>
       <c r="J17" t="n">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="K17" t="n">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1389677267345526</v>
+        <v>0.1330419914652222</v>
       </c>
       <c r="M17" t="n">
-        <v>14.21225631127229</v>
+        <v>14.25796594435545</v>
       </c>
       <c r="N17" t="n">
-        <v>495.7297388996464</v>
+        <v>491.7979544228692</v>
       </c>
       <c r="O17" t="n">
-        <v>22.26498908375314</v>
+        <v>22.17651808609434</v>
       </c>
       <c r="P17" t="n">
-        <v>399.6451760806752</v>
+        <v>399.2709102207982</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -29744,28 +30112,28 @@
         <v>0.0535</v>
       </c>
       <c r="I18" t="n">
-        <v>-1.079226928976091</v>
+        <v>-1.03722697990793</v>
       </c>
       <c r="J18" t="n">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="K18" t="n">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2236300431840537</v>
+        <v>0.2123660536534434</v>
       </c>
       <c r="M18" t="n">
-        <v>12.68431663510072</v>
+        <v>12.72760593533013</v>
       </c>
       <c r="N18" t="n">
-        <v>254.6598299266404</v>
+        <v>255.1265707546595</v>
       </c>
       <c r="O18" t="n">
-        <v>15.95806472999281</v>
+        <v>15.97268201507372</v>
       </c>
       <c r="P18" t="n">
-        <v>407.5085151227248</v>
+        <v>407.1393157185187</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -29822,28 +30190,28 @@
         <v>0.07820000000000001</v>
       </c>
       <c r="I19" t="n">
-        <v>-1.123001120309479</v>
+        <v>-1.079149687109931</v>
       </c>
       <c r="J19" t="n">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="K19" t="n">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="L19" t="n">
-        <v>0.2089818582252337</v>
+        <v>0.1984232265560387</v>
       </c>
       <c r="M19" t="n">
-        <v>12.72259479284067</v>
+        <v>12.77620177188684</v>
       </c>
       <c r="N19" t="n">
-        <v>297.0050636186295</v>
+        <v>297.0585799355073</v>
       </c>
       <c r="O19" t="n">
-        <v>17.23383484946486</v>
+        <v>17.23538743212659</v>
       </c>
       <c r="P19" t="n">
-        <v>404.994897910543</v>
+        <v>404.6042663746322</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -29881,7 +30249,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T410"/>
+  <dimension ref="A1:T415"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63553,6 +63921,492 @@
         </is>
       </c>
     </row>
+    <row r="411">
+      <c r="A411" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:12:42+00:00</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>-40.975148816735185,172.1038354673568</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>-40.974496082385514,172.10357148822877</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>-40.973829529253464,172.10340558399946</t>
+        </is>
+      </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>-40.97316636559676,172.10321556462972</t>
+        </is>
+      </c>
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>-40.97249579578884,172.10307808574373</t>
+        </is>
+      </c>
+      <c r="G411" t="inlineStr">
+        <is>
+          <t>-40.97183221511036,172.10289093211674</t>
+        </is>
+      </c>
+      <c r="H411" t="inlineStr">
+        <is>
+          <t>-40.971178294689956,172.1026351375556</t>
+        </is>
+      </c>
+      <c r="I411" t="inlineStr">
+        <is>
+          <t>-40.970508891664736,172.1024892307368</t>
+        </is>
+      </c>
+      <c r="J411" t="inlineStr">
+        <is>
+          <t>-40.969838264257895,172.10235196970672</t>
+        </is>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>-40.96917227057181,172.1021817590357</t>
+        </is>
+      </c>
+      <c r="L411" t="inlineStr">
+        <is>
+          <t>-40.96851926020246,172.10191043402486</t>
+        </is>
+      </c>
+      <c r="M411" t="inlineStr">
+        <is>
+          <t>-40.96783512318935,172.1018689126886</t>
+        </is>
+      </c>
+      <c r="N411" t="inlineStr">
+        <is>
+          <t>-40.96717797062722,172.10162934029069</t>
+        </is>
+      </c>
+      <c r="O411" t="inlineStr">
+        <is>
+          <t>-40.966494203559066,172.10159481529558</t>
+        </is>
+      </c>
+      <c r="P411" t="inlineStr">
+        <is>
+          <t>-40.96583651633409,172.1013593794976</t>
+        </is>
+      </c>
+      <c r="Q411" t="inlineStr">
+        <is>
+          <t>-40.96518590739583,172.10106937699533</t>
+        </is>
+      </c>
+      <c r="R411" t="inlineStr">
+        <is>
+          <t>-40.964532677294976,172.1007995097081</t>
+        </is>
+      </c>
+      <c r="S411" t="inlineStr">
+        <is>
+          <t>-40.96386102761444,172.10067145306232</t>
+        </is>
+      </c>
+      <c r="T411" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:18:51+00:00</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>-40.97517582142197,172.10364371529957</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>-40.97450914852043,172.1034787096429</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>-40.973846206210695,172.1032871664357</t>
+        </is>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>-40.97318164211843,172.10310709137644</t>
+        </is>
+      </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>-40.97251661233512,172.1029302753617</t>
+        </is>
+      </c>
+      <c r="G412" t="inlineStr">
+        <is>
+          <t>-40.971839504983606,172.1028391697886</t>
+        </is>
+      </c>
+      <c r="H412" t="inlineStr">
+        <is>
+          <t>-40.97119682354271,172.102503571333</t>
+        </is>
+      </c>
+      <c r="I412" t="inlineStr">
+        <is>
+          <t>-40.9705290495046,172.10234609839142</t>
+        </is>
+      </c>
+      <c r="J412" t="inlineStr">
+        <is>
+          <t>-40.96986140040778,172.10218769046236</t>
+        </is>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>-40.969186981543366,172.10207730371707</t>
+        </is>
+      </c>
+      <c r="L412" t="inlineStr">
+        <is>
+          <t>-40.968534725204215,172.10179627303216</t>
+        </is>
+      </c>
+      <c r="M412" t="inlineStr">
+        <is>
+          <t>-40.967859770717176,172.10167928208782</t>
+        </is>
+      </c>
+      <c r="N412" t="inlineStr">
+        <is>
+          <t>-40.96719655292465,172.10148622342805</t>
+        </is>
+      </c>
+      <c r="O412" t="inlineStr">
+        <is>
+          <t>-40.96652907597751,172.10132623755078</t>
+        </is>
+      </c>
+      <c r="P412" t="inlineStr">
+        <is>
+          <t>-40.96585908512552,172.10118556115262</t>
+        </is>
+      </c>
+      <c r="Q412" t="inlineStr">
+        <is>
+          <t>-40.96519636704981,172.10098881955076</t>
+        </is>
+      </c>
+      <c r="R412" t="inlineStr">
+        <is>
+          <t>-40.964545083382326,172.10070396089426</t>
+        </is>
+      </c>
+      <c r="S412" t="inlineStr">
+        <is>
+          <t>-40.96387149697622,172.1005908209668</t>
+        </is>
+      </c>
+      <c r="T412" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:12:53+00:00</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>-40.97517711132985,172.10363455599585</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>-40.9744920835408,172.10359988267555</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>-40.97384441016422,172.1032999196128</t>
+        </is>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>-40.97318638138473,172.10307343934122</t>
+        </is>
+      </c>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>-40.972521111063834,172.10289833140965</t>
+        </is>
+      </c>
+      <c r="G413" t="inlineStr">
+        <is>
+          <t>-40.971842983456305,172.10281447055266</t>
+        </is>
+      </c>
+      <c r="H413" t="inlineStr">
+        <is>
+          <t>-40.97120770053427,172.1024263374872</t>
+        </is>
+      </c>
+      <c r="I413" t="inlineStr">
+        <is>
+          <t>-40.97053683285129,172.10229083175722</t>
+        </is>
+      </c>
+      <c r="J413" t="inlineStr">
+        <is>
+          <t>-40.96987527211165,172.10208919296758</t>
+        </is>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>-40.96920124813295,172.10197600304653</t>
+        </is>
+      </c>
+      <c r="L413" t="inlineStr">
+        <is>
+          <t>-40.96854769977986,172.10170049541253</t>
+        </is>
+      </c>
+      <c r="M413" t="inlineStr">
+        <is>
+          <t>-40.96787770429887,172.10154130495025</t>
+        </is>
+      </c>
+      <c r="N413" t="inlineStr">
+        <is>
+          <t>-40.967199818332716,172.10146107380652</t>
+        </is>
+      </c>
+      <c r="O413" t="inlineStr">
+        <is>
+          <t>-40.96650243125569,172.10153144830747</t>
+        </is>
+      </c>
+      <c r="P413" t="inlineStr">
+        <is>
+          <t>-40.96587303080366,172.10107815447688</t>
+        </is>
+      </c>
+      <c r="Q413" t="inlineStr">
+        <is>
+          <t>-40.96520989692543,172.10088461540164</t>
+        </is>
+      </c>
+      <c r="R413" t="inlineStr">
+        <is>
+          <t>-40.96455827849197,172.10060233450307</t>
+        </is>
+      </c>
+      <c r="S413" t="inlineStr">
+        <is>
+          <t>-40.96388609402663,172.10047839779875</t>
+        </is>
+      </c>
+      <c r="T413" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:18:46+00:00</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>-40.97515175355629,172.10381461400203</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr"/>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>-40.97384268229095,172.10331218870272</t>
+        </is>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>-40.973176672460525,172.10314237926954</t>
+        </is>
+      </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>-40.97249489831228,172.10308445835105</t>
+        </is>
+      </c>
+      <c r="G414" t="inlineStr">
+        <is>
+          <t>-40.97182195431149,172.10296378943994</t>
+        </is>
+      </c>
+      <c r="H414" t="inlineStr">
+        <is>
+          <t>-40.97117474029241,172.1026603758282</t>
+        </is>
+      </c>
+      <c r="I414" t="inlineStr">
+        <is>
+          <t>-40.970534200009716,172.10230952660316</t>
+        </is>
+      </c>
+      <c r="J414" t="inlineStr">
+        <is>
+          <t>-40.969869068525014,172.1021332422673</t>
+        </is>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>-40.96919499519812,172.10202040242288</t>
+        </is>
+      </c>
+      <c r="L414" t="inlineStr">
+        <is>
+          <t>-40.96853887273038,172.10176565628524</t>
+        </is>
+      </c>
+      <c r="M414" t="inlineStr">
+        <is>
+          <t>-40.96782883565985,172.10191728662494</t>
+        </is>
+      </c>
+      <c r="N414" t="inlineStr"/>
+      <c r="O414" t="inlineStr"/>
+      <c r="P414" t="inlineStr">
+        <is>
+          <t>-40.96583987733658,172.1013334941583</t>
+        </is>
+      </c>
+      <c r="Q414" t="inlineStr">
+        <is>
+          <t>-40.96519875975108,172.10097039154385</t>
+        </is>
+      </c>
+      <c r="R414" t="inlineStr">
+        <is>
+          <t>-40.964541773185125,172.1007294553305</t>
+        </is>
+      </c>
+      <c r="S414" t="inlineStr">
+        <is>
+          <t>-40.96387397363786,172.10057174634423</t>
+        </is>
+      </c>
+      <c r="T414" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:12:53+00:00</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>-40.97516512110794,172.10371969526133</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr"/>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>-40.97382188893758,172.10345983504905</t>
+        </is>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>-40.97317390239263,172.10316204856755</t>
+        </is>
+      </c>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>-40.97251713511975,172.10292656324816</t>
+        </is>
+      </c>
+      <c r="G415" t="inlineStr">
+        <is>
+          <t>-40.97182243659287,172.10296036498445</t>
+        </is>
+      </c>
+      <c r="H415" t="inlineStr">
+        <is>
+          <t>-40.971163007449974,172.10274368547798</t>
+        </is>
+      </c>
+      <c r="I415" t="inlineStr">
+        <is>
+          <t>-40.970540913749666,172.10226185474315</t>
+        </is>
+      </c>
+      <c r="J415" t="inlineStr">
+        <is>
+          <t>-40.96986133458692,172.10218815782878</t>
+        </is>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>-40.969203173375206,172.10196233271057</t>
+        </is>
+      </c>
+      <c r="L415" t="inlineStr">
+        <is>
+          <t>-40.96853549494222,172.1017905908851</t>
+        </is>
+      </c>
+      <c r="M415" t="inlineStr"/>
+      <c r="N415" t="inlineStr"/>
+      <c r="O415" t="inlineStr">
+        <is>
+          <t>-40.966510020172194,172.1014730007394</t>
+        </is>
+      </c>
+      <c r="P415" t="inlineStr">
+        <is>
+          <t>-40.96584780076274,172.10127247033935</t>
+        </is>
+      </c>
+      <c r="Q415" t="inlineStr">
+        <is>
+          <t>-40.96521324093781,172.10085886042955</t>
+        </is>
+      </c>
+      <c r="R415" t="inlineStr">
+        <is>
+          <t>-40.964564663953205,172.1005531545515</t>
+        </is>
+      </c>
+      <c r="S415" t="inlineStr">
+        <is>
+          <t>-40.96388997844416,172.10044848074585</t>
+        </is>
+      </c>
+      <c r="T415" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0331/nzd0331.xlsx
+++ b/data/nzd0331/nzd0331.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T415"/>
+  <dimension ref="A1:T418"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23772,6 +23772,124 @@
         </is>
       </c>
     </row>
+    <row r="416">
+      <c r="A416" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-26 22:18:36+00:00</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr"/>
+      <c r="C416" t="inlineStr"/>
+      <c r="D416" t="inlineStr"/>
+      <c r="E416" t="inlineStr"/>
+      <c r="F416" t="inlineStr"/>
+      <c r="G416" t="inlineStr"/>
+      <c r="H416" t="inlineStr"/>
+      <c r="I416" t="n">
+        <v>374.57</v>
+      </c>
+      <c r="J416" t="n">
+        <v>366.52</v>
+      </c>
+      <c r="K416" t="n">
+        <v>379.74</v>
+      </c>
+      <c r="L416" t="inlineStr"/>
+      <c r="M416" t="inlineStr"/>
+      <c r="N416" t="inlineStr"/>
+      <c r="O416" t="inlineStr"/>
+      <c r="P416" t="inlineStr"/>
+      <c r="Q416" t="inlineStr"/>
+      <c r="R416" t="n">
+        <v>388.1177777777777</v>
+      </c>
+      <c r="S416" t="n">
+        <v>381.6457142857143</v>
+      </c>
+      <c r="T416" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:12:24+00:00</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr"/>
+      <c r="C417" t="inlineStr"/>
+      <c r="D417" t="inlineStr"/>
+      <c r="E417" t="inlineStr"/>
+      <c r="F417" t="inlineStr"/>
+      <c r="G417" t="inlineStr"/>
+      <c r="H417" t="inlineStr"/>
+      <c r="I417" t="inlineStr"/>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr"/>
+      <c r="L417" t="inlineStr"/>
+      <c r="M417" t="inlineStr"/>
+      <c r="N417" t="inlineStr"/>
+      <c r="O417" t="inlineStr"/>
+      <c r="P417" t="n">
+        <v>372.9</v>
+      </c>
+      <c r="Q417" t="n">
+        <v>360.8588888888889</v>
+      </c>
+      <c r="R417" t="n">
+        <v>412.9588888888889</v>
+      </c>
+      <c r="S417" t="n">
+        <v>403.9671428571429</v>
+      </c>
+      <c r="T417" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:12:51+00:00</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr"/>
+      <c r="C418" t="inlineStr"/>
+      <c r="D418" t="inlineStr"/>
+      <c r="E418" t="inlineStr"/>
+      <c r="F418" t="inlineStr"/>
+      <c r="G418" t="n">
+        <v>322.5869230769231</v>
+      </c>
+      <c r="H418" t="n">
+        <v>339.48</v>
+      </c>
+      <c r="I418" t="inlineStr"/>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr"/>
+      <c r="L418" t="inlineStr"/>
+      <c r="M418" t="inlineStr"/>
+      <c r="N418" t="n">
+        <v>351.6342857142857</v>
+      </c>
+      <c r="O418" t="n">
+        <v>354.09</v>
+      </c>
+      <c r="P418" t="n">
+        <v>339.88</v>
+      </c>
+      <c r="Q418" t="inlineStr"/>
+      <c r="R418" t="inlineStr"/>
+      <c r="S418" t="inlineStr"/>
+      <c r="T418" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -23783,7 +23901,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B490"/>
+  <dimension ref="A1:B493"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28691,6 +28809,36 @@
       </c>
       <c r="B490" t="n">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>2025-04-26 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B491" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B492" t="n">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B493" t="n">
+        <v>-0.71</v>
       </c>
     </row>
   </sheetData>
@@ -28867,7 +29015,7 @@
         <v>-1.700137557314645</v>
       </c>
       <c r="J2" t="n">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="K2" t="n">
         <v>297</v>
@@ -28945,7 +29093,7 @@
         <v>-1.481045321174699</v>
       </c>
       <c r="J3" t="n">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="K3" t="n">
         <v>286</v>
@@ -29023,7 +29171,7 @@
         <v>-1.331537341069858</v>
       </c>
       <c r="J4" t="n">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="K4" t="n">
         <v>304</v>
@@ -29101,7 +29249,7 @@
         <v>-1.351054153678612</v>
       </c>
       <c r="J5" t="n">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="K5" t="n">
         <v>297</v>
@@ -29179,7 +29327,7 @@
         <v>-1.454972428097965</v>
       </c>
       <c r="J6" t="n">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="K6" t="n">
         <v>296</v>
@@ -29254,28 +29402,28 @@
         <v>0.0784</v>
       </c>
       <c r="I7" t="n">
-        <v>-1.538329066950018</v>
+        <v>-1.560216027952604</v>
       </c>
       <c r="J7" t="n">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="K7" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L7" t="n">
-        <v>0.4189274960857049</v>
+        <v>0.4223425137973251</v>
       </c>
       <c r="M7" t="n">
-        <v>10.81162253098333</v>
+        <v>10.90533045373146</v>
       </c>
       <c r="N7" t="n">
-        <v>198.304785954583</v>
+        <v>201.8664540152622</v>
       </c>
       <c r="O7" t="n">
-        <v>14.08207321222919</v>
+        <v>14.20797149544094</v>
       </c>
       <c r="P7" t="n">
-        <v>398.1391774835677</v>
+        <v>398.3394620719962</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29332,28 +29480,28 @@
         <v>0.0551</v>
       </c>
       <c r="I8" t="n">
-        <v>-1.364447925369068</v>
+        <v>-1.37717149644655</v>
       </c>
       <c r="J8" t="n">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="K8" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L8" t="n">
-        <v>0.335451716356438</v>
+        <v>0.3395415301714224</v>
       </c>
       <c r="M8" t="n">
-        <v>12.09667599383324</v>
+        <v>12.13057839532485</v>
       </c>
       <c r="N8" t="n">
-        <v>229.0382258779902</v>
+        <v>229.8602613110681</v>
       </c>
       <c r="O8" t="n">
-        <v>15.13400891627827</v>
+        <v>15.16114313998348</v>
       </c>
       <c r="P8" t="n">
-        <v>396.8260941565695</v>
+        <v>396.9402504831881</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29410,28 +29558,28 @@
         <v>0.0561</v>
       </c>
       <c r="I9" t="n">
-        <v>-1.326439578471455</v>
+        <v>-1.319529741729755</v>
       </c>
       <c r="J9" t="n">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="K9" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3217090215235073</v>
+        <v>0.3203887367843778</v>
       </c>
       <c r="M9" t="n">
-        <v>11.63428808464532</v>
+        <v>11.63584471307635</v>
       </c>
       <c r="N9" t="n">
-        <v>226.1085867217077</v>
+        <v>225.8716725058556</v>
       </c>
       <c r="O9" t="n">
-        <v>15.03690748530786</v>
+        <v>15.02902766335386</v>
       </c>
       <c r="P9" t="n">
-        <v>396.3993304829809</v>
+        <v>396.337211123253</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29488,28 +29636,28 @@
         <v>0.0534</v>
       </c>
       <c r="I10" t="n">
-        <v>-1.434325727581332</v>
+        <v>-1.429830651522962</v>
       </c>
       <c r="J10" t="n">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="K10" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3608214851457081</v>
+        <v>0.360625415638457</v>
       </c>
       <c r="M10" t="n">
-        <v>11.73674312783846</v>
+        <v>11.72488321855158</v>
       </c>
       <c r="N10" t="n">
-        <v>221.5004727189817</v>
+        <v>221.0007800957291</v>
       </c>
       <c r="O10" t="n">
-        <v>14.88289194743352</v>
+        <v>14.86609498475404</v>
       </c>
       <c r="P10" t="n">
-        <v>395.4531070181679</v>
+        <v>395.4120756935512</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -29566,28 +29714,28 @@
         <v>0.0596</v>
       </c>
       <c r="I11" t="n">
-        <v>-1.290452045264567</v>
+        <v>-1.278575104844557</v>
       </c>
       <c r="J11" t="n">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="K11" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L11" t="n">
-        <v>0.3140499806651564</v>
+        <v>0.3101012522732062</v>
       </c>
       <c r="M11" t="n">
-        <v>11.75481452996396</v>
+        <v>11.78659098467873</v>
       </c>
       <c r="N11" t="n">
-        <v>218.2009124913839</v>
+        <v>218.8605845346382</v>
       </c>
       <c r="O11" t="n">
-        <v>14.77162524881348</v>
+        <v>14.793937424994</v>
       </c>
       <c r="P11" t="n">
-        <v>392.1248668909051</v>
+        <v>392.0148052125794</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -29647,7 +29795,7 @@
         <v>-1.098077826685669</v>
       </c>
       <c r="J12" t="n">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="K12" t="n">
         <v>287</v>
@@ -29725,7 +29873,7 @@
         <v>-1.26762045445562</v>
       </c>
       <c r="J13" t="n">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="K13" t="n">
         <v>287</v>
@@ -29800,28 +29948,28 @@
         <v>0.0403</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.904424814138685</v>
+        <v>-0.9126666923286955</v>
       </c>
       <c r="J14" t="n">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="K14" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1230993678025544</v>
+        <v>0.1257325672867956</v>
       </c>
       <c r="M14" t="n">
-        <v>14.95257165621381</v>
+        <v>14.9465611376007</v>
       </c>
       <c r="N14" t="n">
-        <v>353.2578003813592</v>
+        <v>352.5028791411495</v>
       </c>
       <c r="O14" t="n">
-        <v>18.79515364080217</v>
+        <v>18.77506003029417</v>
       </c>
       <c r="P14" t="n">
-        <v>387.1635158288126</v>
+        <v>387.2389234623768</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -29878,28 +30026,28 @@
         <v>0.0453</v>
       </c>
       <c r="I15" t="n">
-        <v>-1.114426383744964</v>
+        <v>-1.120121981465506</v>
       </c>
       <c r="J15" t="n">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="K15" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1938821377696319</v>
+        <v>0.1966388832882471</v>
       </c>
       <c r="M15" t="n">
-        <v>14.1425674962794</v>
+        <v>14.12123191248707</v>
       </c>
       <c r="N15" t="n">
-        <v>324.5902043935081</v>
+        <v>323.6117448779822</v>
       </c>
       <c r="O15" t="n">
-        <v>18.01638710711746</v>
+        <v>17.98921190263715</v>
       </c>
       <c r="P15" t="n">
-        <v>390.9878385977193</v>
+        <v>391.0375195428051</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -29956,28 +30104,28 @@
         <v>0.0613</v>
       </c>
       <c r="I16" t="n">
-        <v>-1.017980052156556</v>
+        <v>-1.025653243598244</v>
       </c>
       <c r="J16" t="n">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="K16" t="n">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1814674222637348</v>
+        <v>0.1845572993009781</v>
       </c>
       <c r="M16" t="n">
-        <v>12.55110358095382</v>
+        <v>12.58039137695561</v>
       </c>
       <c r="N16" t="n">
-        <v>289.1354316379537</v>
+        <v>289.2936203789583</v>
       </c>
       <c r="O16" t="n">
-        <v>17.00398281691539</v>
+        <v>17.00863370112245</v>
       </c>
       <c r="P16" t="n">
-        <v>389.0166083906906</v>
+        <v>389.0871227400107</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -30034,28 +30182,28 @@
         <v>0.0503</v>
       </c>
       <c r="I17" t="n">
-        <v>-1.101128662930702</v>
+        <v>-1.106842507400884</v>
       </c>
       <c r="J17" t="n">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="K17" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1330419914652222</v>
+        <v>0.1349003370192408</v>
       </c>
       <c r="M17" t="n">
-        <v>14.25796594435545</v>
+        <v>14.23893189928598</v>
       </c>
       <c r="N17" t="n">
-        <v>491.7979544228692</v>
+        <v>490.5531785842385</v>
       </c>
       <c r="O17" t="n">
-        <v>22.17651808609434</v>
+        <v>22.1484351272102</v>
       </c>
       <c r="P17" t="n">
-        <v>399.2709102207982</v>
+        <v>399.3222928248719</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -30112,28 +30260,28 @@
         <v>0.0535</v>
       </c>
       <c r="I18" t="n">
-        <v>-1.03722697990793</v>
+        <v>-1.015588676201628</v>
       </c>
       <c r="J18" t="n">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="K18" t="n">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2123660536534434</v>
+        <v>0.2051646186231464</v>
       </c>
       <c r="M18" t="n">
-        <v>12.72760593533013</v>
+        <v>12.777953000831</v>
       </c>
       <c r="N18" t="n">
-        <v>255.1265707546595</v>
+        <v>256.9732676551729</v>
       </c>
       <c r="O18" t="n">
-        <v>15.97268201507372</v>
+        <v>16.0303857612714</v>
       </c>
       <c r="P18" t="n">
-        <v>407.1393157185187</v>
+        <v>406.948135826611</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -30190,28 +30338,28 @@
         <v>0.07820000000000001</v>
       </c>
       <c r="I19" t="n">
-        <v>-1.079149687109931</v>
+        <v>-1.062147407740942</v>
       </c>
       <c r="J19" t="n">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="K19" t="n">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1984232265560387</v>
+        <v>0.1940490140096308</v>
       </c>
       <c r="M19" t="n">
-        <v>12.77620177188684</v>
+        <v>12.79651735728516</v>
       </c>
       <c r="N19" t="n">
-        <v>297.0585799355073</v>
+        <v>297.5361840091471</v>
       </c>
       <c r="O19" t="n">
-        <v>17.23538743212659</v>
+        <v>17.24923720079085</v>
       </c>
       <c r="P19" t="n">
-        <v>404.6042663746322</v>
+        <v>404.4520354391128</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -30249,7 +30397,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T415"/>
+  <dimension ref="A1:T418"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64407,6 +64555,152 @@
         </is>
       </c>
     </row>
+    <row r="416">
+      <c r="A416" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-26 22:18:36+00:00</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr"/>
+      <c r="C416" t="inlineStr"/>
+      <c r="D416" t="inlineStr"/>
+      <c r="E416" t="inlineStr"/>
+      <c r="F416" t="inlineStr"/>
+      <c r="G416" t="inlineStr"/>
+      <c r="H416" t="inlineStr"/>
+      <c r="I416" t="inlineStr">
+        <is>
+          <t>-40.9705243597374,172.10237939857723</t>
+        </is>
+      </c>
+      <c r="J416" t="inlineStr">
+        <is>
+          <t>-40.969845142597315,172.10230312994292</t>
+        </is>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>-40.96920091903154,172.101978339856</t>
+        </is>
+      </c>
+      <c r="L416" t="inlineStr"/>
+      <c r="M416" t="inlineStr"/>
+      <c r="N416" t="inlineStr"/>
+      <c r="O416" t="inlineStr"/>
+      <c r="P416" t="inlineStr"/>
+      <c r="Q416" t="inlineStr"/>
+      <c r="R416" t="inlineStr">
+        <is>
+          <t>-40.964537618110754,172.10076145676592</t>
+        </is>
+      </c>
+      <c r="S416" t="inlineStr">
+        <is>
+          <t>-40.96386000001061,172.10067936735467</t>
+        </is>
+      </c>
+      <c r="T416" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:12:24+00:00</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr"/>
+      <c r="C417" t="inlineStr"/>
+      <c r="D417" t="inlineStr"/>
+      <c r="E417" t="inlineStr"/>
+      <c r="F417" t="inlineStr"/>
+      <c r="G417" t="inlineStr"/>
+      <c r="H417" t="inlineStr"/>
+      <c r="I417" t="inlineStr"/>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr"/>
+      <c r="L417" t="inlineStr"/>
+      <c r="M417" t="inlineStr"/>
+      <c r="N417" t="inlineStr"/>
+      <c r="O417" t="inlineStr"/>
+      <c r="P417" t="inlineStr">
+        <is>
+          <t>-40.96585000593315,172.10125548674043</t>
+        </is>
+      </c>
+      <c r="Q417" t="inlineStr">
+        <is>
+          <t>-40.96516393179953,172.101238625634</t>
+        </is>
+      </c>
+      <c r="R417" t="inlineStr">
+        <is>
+          <t>-40.964575395333156,172.10047050254045</t>
+        </is>
+      </c>
+      <c r="S417" t="inlineStr">
+        <is>
+          <t>-40.96389394540837,172.10041792786845</t>
+        </is>
+      </c>
+      <c r="T417" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:12:51+00:00</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr"/>
+      <c r="C418" t="inlineStr"/>
+      <c r="D418" t="inlineStr"/>
+      <c r="E418" t="inlineStr"/>
+      <c r="F418" t="inlineStr"/>
+      <c r="G418" t="inlineStr">
+        <is>
+          <t>-40.97177073823286,172.1033274465653</t>
+        </is>
+      </c>
+      <c r="H418" t="inlineStr">
+        <is>
+          <t>-40.97113258076446,172.1029597295844</t>
+        </is>
+      </c>
+      <c r="I418" t="inlineStr"/>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr"/>
+      <c r="L418" t="inlineStr"/>
+      <c r="M418" t="inlineStr"/>
+      <c r="N418" t="inlineStr">
+        <is>
+          <t>-40.96715316788116,172.1018203634493</t>
+        </is>
+      </c>
+      <c r="O418" t="inlineStr">
+        <is>
+          <t>-40.966489154382245,172.10163370223825</t>
+        </is>
+      </c>
+      <c r="P418" t="inlineStr">
+        <is>
+          <t>-40.965799788256625,172.1016422440137</t>
+        </is>
+      </c>
+      <c r="Q418" t="inlineStr"/>
+      <c r="R418" t="inlineStr"/>
+      <c r="S418" t="inlineStr"/>
+      <c r="T418" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0331/nzd0331.xlsx
+++ b/data/nzd0331/nzd0331.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T418"/>
+  <dimension ref="A1:T419"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23883,10 +23883,62 @@
       </c>
       <c r="Q418" t="inlineStr"/>
       <c r="R418" t="inlineStr"/>
-      <c r="S418" t="inlineStr"/>
+      <c r="S418" t="n">
+        <v>355.9071428571428</v>
+      </c>
       <c r="T418" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:18:36+00:00</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr"/>
+      <c r="C419" t="inlineStr"/>
+      <c r="D419" t="inlineStr"/>
+      <c r="E419" t="inlineStr"/>
+      <c r="F419" t="n">
+        <v>360.5553846153846</v>
+      </c>
+      <c r="G419" t="n">
+        <v>356.2253846153847</v>
+      </c>
+      <c r="H419" t="n">
+        <v>360.73</v>
+      </c>
+      <c r="I419" t="n">
+        <v>356.27</v>
+      </c>
+      <c r="J419" t="n">
+        <v>346.25</v>
+      </c>
+      <c r="K419" t="n">
+        <v>341.65</v>
+      </c>
+      <c r="L419" t="n">
+        <v>393.5342857142857</v>
+      </c>
+      <c r="M419" t="inlineStr"/>
+      <c r="N419" t="inlineStr"/>
+      <c r="O419" t="inlineStr"/>
+      <c r="P419" t="inlineStr"/>
+      <c r="Q419" t="n">
+        <v>527.5111111111111</v>
+      </c>
+      <c r="R419" t="n">
+        <v>592.6011111111111</v>
+      </c>
+      <c r="S419" t="n">
+        <v>369.7271428571429</v>
+      </c>
+      <c r="T419" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -23901,7 +23953,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B493"/>
+  <dimension ref="A1:B494"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28839,6 +28891,16 @@
       </c>
       <c r="B493" t="n">
         <v>-0.71</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B494" t="n">
+        <v>-0.22</v>
       </c>
     </row>
   </sheetData>
@@ -29015,7 +29077,7 @@
         <v>-1.700137557314645</v>
       </c>
       <c r="J2" t="n">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="K2" t="n">
         <v>297</v>
@@ -29093,7 +29155,7 @@
         <v>-1.481045321174699</v>
       </c>
       <c r="J3" t="n">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="K3" t="n">
         <v>286</v>
@@ -29171,7 +29233,7 @@
         <v>-1.331537341069858</v>
       </c>
       <c r="J4" t="n">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="K4" t="n">
         <v>304</v>
@@ -29249,7 +29311,7 @@
         <v>-1.351054153678612</v>
       </c>
       <c r="J5" t="n">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="K5" t="n">
         <v>297</v>
@@ -29324,28 +29386,28 @@
         <v>0.0707</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.454972428097965</v>
+        <v>-1.455190250970301</v>
       </c>
       <c r="J6" t="n">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="K6" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3917883937146286</v>
+        <v>0.3935252894068029</v>
       </c>
       <c r="M6" t="n">
-        <v>11.17510741696296</v>
+        <v>11.13877546433412</v>
       </c>
       <c r="N6" t="n">
-        <v>204.1274397047633</v>
+        <v>203.440563839251</v>
       </c>
       <c r="O6" t="n">
-        <v>14.28731744256994</v>
+        <v>14.26325922919621</v>
       </c>
       <c r="P6" t="n">
-        <v>398.451690561133</v>
+        <v>398.4536438659128</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29402,28 +29464,28 @@
         <v>0.0784</v>
       </c>
       <c r="I7" t="n">
-        <v>-1.560216027952604</v>
+        <v>-1.561340830297125</v>
       </c>
       <c r="J7" t="n">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="K7" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L7" t="n">
-        <v>0.4223425137973251</v>
+        <v>0.4243464688339889</v>
       </c>
       <c r="M7" t="n">
-        <v>10.90533045373146</v>
+        <v>10.87606201188089</v>
       </c>
       <c r="N7" t="n">
-        <v>201.8664540152622</v>
+        <v>201.2136629786271</v>
       </c>
       <c r="O7" t="n">
-        <v>14.20797149544094</v>
+        <v>14.18498018957471</v>
       </c>
       <c r="P7" t="n">
-        <v>398.3394620719962</v>
+        <v>398.3497772594239</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29480,28 +29542,28 @@
         <v>0.0551</v>
       </c>
       <c r="I8" t="n">
-        <v>-1.37717149644655</v>
+        <v>-1.377557327911401</v>
       </c>
       <c r="J8" t="n">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="K8" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3395415301714224</v>
+        <v>0.3411149194936971</v>
       </c>
       <c r="M8" t="n">
-        <v>12.13057839532485</v>
+        <v>12.09436840136737</v>
       </c>
       <c r="N8" t="n">
-        <v>229.8602613110681</v>
+        <v>229.1342925830531</v>
       </c>
       <c r="O8" t="n">
-        <v>15.16114313998348</v>
+        <v>15.13718245193117</v>
       </c>
       <c r="P8" t="n">
-        <v>396.9402504831881</v>
+        <v>396.9437199488224</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29558,28 +29620,28 @@
         <v>0.0561</v>
       </c>
       <c r="I9" t="n">
-        <v>-1.319529741729755</v>
+        <v>-1.322926871434823</v>
       </c>
       <c r="J9" t="n">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="K9" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3203887367843778</v>
+        <v>0.3228111343187293</v>
       </c>
       <c r="M9" t="n">
-        <v>11.63584471307635</v>
+        <v>11.61866351800002</v>
       </c>
       <c r="N9" t="n">
-        <v>225.8716725058556</v>
+        <v>225.2925330134727</v>
       </c>
       <c r="O9" t="n">
-        <v>15.02902766335386</v>
+        <v>15.00974793304247</v>
       </c>
       <c r="P9" t="n">
-        <v>396.337211123253</v>
+        <v>396.3679283576068</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29636,28 +29698,28 @@
         <v>0.0534</v>
       </c>
       <c r="I10" t="n">
-        <v>-1.429830651522962</v>
+        <v>-1.43679959298756</v>
       </c>
       <c r="J10" t="n">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="K10" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L10" t="n">
-        <v>0.360625415638457</v>
+        <v>0.3638515898896931</v>
       </c>
       <c r="M10" t="n">
-        <v>11.72488321855158</v>
+        <v>11.72603426648157</v>
       </c>
       <c r="N10" t="n">
-        <v>221.0007800957291</v>
+        <v>220.7762118327338</v>
       </c>
       <c r="O10" t="n">
-        <v>14.86609498475404</v>
+        <v>14.85854003032377</v>
       </c>
       <c r="P10" t="n">
-        <v>395.4120756935512</v>
+        <v>395.4760664907117</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -29714,28 +29776,28 @@
         <v>0.0596</v>
       </c>
       <c r="I11" t="n">
-        <v>-1.278575104844557</v>
+        <v>-1.288516447587637</v>
       </c>
       <c r="J11" t="n">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="K11" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L11" t="n">
-        <v>0.3101012522732062</v>
+        <v>0.3138603814424712</v>
       </c>
       <c r="M11" t="n">
-        <v>11.78659098467873</v>
+        <v>11.80069636905828</v>
       </c>
       <c r="N11" t="n">
-        <v>218.8605845346382</v>
+        <v>219.1128036422516</v>
       </c>
       <c r="O11" t="n">
-        <v>14.793937424994</v>
+        <v>14.8024593781659</v>
       </c>
       <c r="P11" t="n">
-        <v>392.0148052125794</v>
+        <v>392.1074751065974</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -29792,28 +29854,28 @@
         <v>0.0425</v>
       </c>
       <c r="I12" t="n">
-        <v>-1.098077826685669</v>
+        <v>-1.076215165310212</v>
       </c>
       <c r="J12" t="n">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="K12" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1712404355336016</v>
+        <v>0.1650410686524788</v>
       </c>
       <c r="M12" t="n">
-        <v>14.59667324751899</v>
+        <v>14.64571691653616</v>
       </c>
       <c r="N12" t="n">
-        <v>327.2323638140368</v>
+        <v>329.8096827440436</v>
       </c>
       <c r="O12" t="n">
-        <v>18.08956505320227</v>
+        <v>18.16066305904175</v>
       </c>
       <c r="P12" t="n">
-        <v>388.9877566639754</v>
+        <v>388.7734842823727</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -29873,7 +29935,7 @@
         <v>-1.26762045445562</v>
       </c>
       <c r="J13" t="n">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="K13" t="n">
         <v>287</v>
@@ -29951,7 +30013,7 @@
         <v>-0.9126666923286955</v>
       </c>
       <c r="J14" t="n">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="K14" t="n">
         <v>272</v>
@@ -30029,7 +30091,7 @@
         <v>-1.120121981465506</v>
       </c>
       <c r="J15" t="n">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="K15" t="n">
         <v>264</v>
@@ -30107,7 +30169,7 @@
         <v>-1.025653243598244</v>
       </c>
       <c r="J16" t="n">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="K16" t="n">
         <v>293</v>
@@ -30182,28 +30244,28 @@
         <v>0.0503</v>
       </c>
       <c r="I17" t="n">
-        <v>-1.106842507400884</v>
+        <v>-1.018288167558517</v>
       </c>
       <c r="J17" t="n">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="K17" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1349003370192408</v>
+        <v>0.1028972224205787</v>
       </c>
       <c r="M17" t="n">
-        <v>14.23893189928598</v>
+        <v>14.78088635194395</v>
       </c>
       <c r="N17" t="n">
-        <v>490.5531785842385</v>
+        <v>566.2558798532201</v>
       </c>
       <c r="O17" t="n">
-        <v>22.1484351272102</v>
+        <v>23.79613161531135</v>
       </c>
       <c r="P17" t="n">
-        <v>399.3222928248719</v>
+        <v>398.5221729765354</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -30260,28 +30322,28 @@
         <v>0.0535</v>
       </c>
       <c r="I18" t="n">
-        <v>-1.015588676201628</v>
+        <v>-0.901452349872667</v>
       </c>
       <c r="J18" t="n">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="K18" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2051646186231464</v>
+        <v>0.1171028375430958</v>
       </c>
       <c r="M18" t="n">
-        <v>12.777953000831</v>
+        <v>13.45263194228454</v>
       </c>
       <c r="N18" t="n">
-        <v>256.9732676551729</v>
+        <v>395.1518929902157</v>
       </c>
       <c r="O18" t="n">
-        <v>16.0303857612714</v>
+        <v>19.87842782994208</v>
       </c>
       <c r="P18" t="n">
-        <v>406.948135826611</v>
+        <v>405.9343858711235</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -30338,28 +30400,28 @@
         <v>0.07820000000000001</v>
       </c>
       <c r="I19" t="n">
-        <v>-1.062147407740942</v>
+        <v>-1.077157777060242</v>
       </c>
       <c r="J19" t="n">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="K19" t="n">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1940490140096308</v>
+        <v>0.1995255357181147</v>
       </c>
       <c r="M19" t="n">
-        <v>12.79651735728516</v>
+        <v>12.80312843569243</v>
       </c>
       <c r="N19" t="n">
-        <v>297.5361840091471</v>
+        <v>297.2296417799419</v>
       </c>
       <c r="O19" t="n">
-        <v>17.24923720079085</v>
+        <v>17.24034923602019</v>
       </c>
       <c r="P19" t="n">
-        <v>404.4520354391128</v>
+        <v>404.5868873759084</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -30397,7 +30459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T418"/>
+  <dimension ref="A1:T419"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54610,7 +54672,7 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>-40.974488438497225,172.1036257648536</t>
+          <t>-40.97448843849722,172.1036257648536</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -64694,10 +64756,84 @@
       </c>
       <c r="Q418" t="inlineStr"/>
       <c r="R418" t="inlineStr"/>
-      <c r="S418" t="inlineStr"/>
+      <c r="S418" t="inlineStr">
+        <is>
+          <t>-40.963820857240066,172.10098082976924</t>
+        </is>
+      </c>
       <c r="T418" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:18:36+00:00</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr"/>
+      <c r="C419" t="inlineStr"/>
+      <c r="D419" t="inlineStr"/>
+      <c r="E419" t="inlineStr"/>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>-40.972499169234176,172.1030541322887</t>
+        </is>
+      </c>
+      <c r="G419" t="inlineStr">
+        <is>
+          <t>-40.97182609357346,172.10293439844244</t>
+        </is>
+      </c>
+      <c r="H419" t="inlineStr">
+        <is>
+          <t>-40.97116754920262,172.10271143658466</t>
+        </is>
+      </c>
+      <c r="I419" t="inlineStr">
+        <is>
+          <t>-40.97049424626491,172.1025932207146</t>
+        </is>
+      </c>
+      <c r="J419" t="inlineStr">
+        <is>
+          <t>-40.96981178739358,172.1025399676535</t>
+        </is>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>-40.96913824080086,172.10242338481376</t>
+        </is>
+      </c>
+      <c r="L419" t="inlineStr">
+        <is>
+          <t>-40.96855504619316,172.10164626430668</t>
+        </is>
+      </c>
+      <c r="M419" t="inlineStr"/>
+      <c r="N419" t="inlineStr"/>
+      <c r="O419" t="inlineStr"/>
+      <c r="P419" t="inlineStr"/>
+      <c r="Q419" t="inlineStr">
+        <is>
+          <t>-40.965417361748905,172.09928667016828</t>
+        </is>
+      </c>
+      <c r="R419" t="inlineStr">
+        <is>
+          <t>-40.964848565017824,172.09836641390967</t>
+        </is>
+      </c>
+      <c r="S419" t="inlineStr">
+        <is>
+          <t>-40.96384187455354,172.10081896338576</t>
+        </is>
+      </c>
+      <c r="T419" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>

--- a/data/nzd0331/nzd0331.xlsx
+++ b/data/nzd0331/nzd0331.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T419"/>
+  <dimension ref="A1:T420"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23883,9 +23883,7 @@
       </c>
       <c r="Q418" t="inlineStr"/>
       <c r="R418" t="inlineStr"/>
-      <c r="S418" t="n">
-        <v>355.9071428571428</v>
-      </c>
+      <c r="S418" t="inlineStr"/>
       <c r="T418" t="inlineStr">
         <is>
           <t>L8</t>
@@ -23926,7 +23924,9 @@
       <c r="M419" t="inlineStr"/>
       <c r="N419" t="inlineStr"/>
       <c r="O419" t="inlineStr"/>
-      <c r="P419" t="inlineStr"/>
+      <c r="P419" t="n">
+        <v>565.12</v>
+      </c>
       <c r="Q419" t="n">
         <v>527.5111111111111</v>
       </c>
@@ -23939,6 +23939,46 @@
       <c r="T419" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:12:30+00:00</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr"/>
+      <c r="C420" t="n">
+        <v>540.37</v>
+      </c>
+      <c r="D420" t="inlineStr"/>
+      <c r="E420" t="inlineStr"/>
+      <c r="F420" t="inlineStr"/>
+      <c r="G420" t="inlineStr"/>
+      <c r="H420" t="inlineStr"/>
+      <c r="I420" t="inlineStr"/>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr"/>
+      <c r="L420" t="inlineStr"/>
+      <c r="M420" t="inlineStr"/>
+      <c r="N420" t="inlineStr"/>
+      <c r="O420" t="n">
+        <v>539.67</v>
+      </c>
+      <c r="P420" t="n">
+        <v>543.97</v>
+      </c>
+      <c r="Q420" t="n">
+        <v>517.348888888889</v>
+      </c>
+      <c r="R420" t="n">
+        <v>555.1588888888889</v>
+      </c>
+      <c r="S420" t="inlineStr"/>
+      <c r="T420" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -23953,7 +23993,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B494"/>
+  <dimension ref="A1:B497"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28901,6 +28941,36 @@
       </c>
       <c r="B494" t="n">
         <v>-0.22</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B495" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B496" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B497" t="n">
+        <v>-0.07000000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -29077,7 +29147,7 @@
         <v>-1.700137557314645</v>
       </c>
       <c r="J2" t="n">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="K2" t="n">
         <v>297</v>
@@ -29152,28 +29222,28 @@
         <v>0.0939</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.481045321174699</v>
+        <v>-1.36665192670538</v>
       </c>
       <c r="J3" t="n">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="K3" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3598816813731965</v>
+        <v>0.2514023340769191</v>
       </c>
       <c r="M3" t="n">
-        <v>11.70218717909396</v>
+        <v>12.3216931071308</v>
       </c>
       <c r="N3" t="n">
-        <v>233.0352007059715</v>
+        <v>333.5902518180202</v>
       </c>
       <c r="O3" t="n">
-        <v>15.26549051638929</v>
+        <v>18.2644532307436</v>
       </c>
       <c r="P3" t="n">
-        <v>407.0643306799559</v>
+        <v>406.0234849742359</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -29233,7 +29303,7 @@
         <v>-1.331537341069858</v>
       </c>
       <c r="J4" t="n">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="K4" t="n">
         <v>304</v>
@@ -29311,7 +29381,7 @@
         <v>-1.351054153678612</v>
       </c>
       <c r="J5" t="n">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="K5" t="n">
         <v>297</v>
@@ -29389,7 +29459,7 @@
         <v>-1.455190250970301</v>
       </c>
       <c r="J6" t="n">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="K6" t="n">
         <v>297</v>
@@ -29467,7 +29537,7 @@
         <v>-1.561340830297125</v>
       </c>
       <c r="J7" t="n">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="K7" t="n">
         <v>304</v>
@@ -29545,7 +29615,7 @@
         <v>-1.377557327911401</v>
       </c>
       <c r="J8" t="n">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="K8" t="n">
         <v>316</v>
@@ -29623,7 +29693,7 @@
         <v>-1.322926871434823</v>
       </c>
       <c r="J9" t="n">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="K9" t="n">
         <v>328</v>
@@ -29701,7 +29771,7 @@
         <v>-1.43679959298756</v>
       </c>
       <c r="J10" t="n">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="K10" t="n">
         <v>320</v>
@@ -29779,7 +29849,7 @@
         <v>-1.288516447587637</v>
       </c>
       <c r="J11" t="n">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="K11" t="n">
         <v>318</v>
@@ -29857,7 +29927,7 @@
         <v>-1.076215165310212</v>
       </c>
       <c r="J12" t="n">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="K12" t="n">
         <v>288</v>
@@ -29935,7 +30005,7 @@
         <v>-1.26762045445562</v>
       </c>
       <c r="J13" t="n">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="K13" t="n">
         <v>287</v>
@@ -30013,7 +30083,7 @@
         <v>-0.9126666923286955</v>
       </c>
       <c r="J14" t="n">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="K14" t="n">
         <v>272</v>
@@ -30088,28 +30158,28 @@
         <v>0.0453</v>
       </c>
       <c r="I15" t="n">
-        <v>-1.120121981465506</v>
+        <v>-0.9976452598252342</v>
       </c>
       <c r="J15" t="n">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="K15" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1966388832882471</v>
+        <v>0.1254479875602228</v>
       </c>
       <c r="M15" t="n">
-        <v>14.12123191248707</v>
+        <v>14.73752238000539</v>
       </c>
       <c r="N15" t="n">
-        <v>323.6117448779822</v>
+        <v>439.9309079351876</v>
       </c>
       <c r="O15" t="n">
-        <v>17.98921190263715</v>
+        <v>20.97452998126985</v>
       </c>
       <c r="P15" t="n">
-        <v>391.0375195428051</v>
+        <v>389.9666812441746</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -30166,28 +30236,28 @@
         <v>0.0613</v>
       </c>
       <c r="I16" t="n">
-        <v>-1.025653243598244</v>
+        <v>-0.8007505504012163</v>
       </c>
       <c r="J16" t="n">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="K16" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1845572993009781</v>
+        <v>0.07005884277491514</v>
       </c>
       <c r="M16" t="n">
-        <v>12.58039137695561</v>
+        <v>13.91695840604029</v>
       </c>
       <c r="N16" t="n">
-        <v>289.2936203789583</v>
+        <v>532.9540824170921</v>
       </c>
       <c r="O16" t="n">
-        <v>17.00863370112245</v>
+        <v>23.08579828416362</v>
       </c>
       <c r="P16" t="n">
-        <v>389.0871227400107</v>
+        <v>387.0193831771109</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -30244,28 +30314,28 @@
         <v>0.0503</v>
       </c>
       <c r="I17" t="n">
-        <v>-1.018288167558517</v>
+        <v>-0.9370616961409606</v>
       </c>
       <c r="J17" t="n">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="K17" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1028972224205787</v>
+        <v>0.08046671583003095</v>
       </c>
       <c r="M17" t="n">
-        <v>14.78088635194395</v>
+        <v>15.27704077746674</v>
       </c>
       <c r="N17" t="n">
-        <v>566.2558798532201</v>
+        <v>630.4677862911963</v>
       </c>
       <c r="O17" t="n">
-        <v>23.79613161531135</v>
+        <v>25.10911759284257</v>
       </c>
       <c r="P17" t="n">
-        <v>398.5221729765354</v>
+        <v>397.7881509373829</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -30322,28 +30392,28 @@
         <v>0.0535</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.901452349872667</v>
+        <v>-0.8093438081595971</v>
       </c>
       <c r="J18" t="n">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="K18" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1171028375430958</v>
+        <v>0.08022125470798502</v>
       </c>
       <c r="M18" t="n">
-        <v>13.45263194228454</v>
+        <v>14.04946571951052</v>
       </c>
       <c r="N18" t="n">
-        <v>395.1518929902157</v>
+        <v>485.7667519754178</v>
       </c>
       <c r="O18" t="n">
-        <v>19.87842782994208</v>
+        <v>22.04011687753533</v>
       </c>
       <c r="P18" t="n">
-        <v>405.9343858711235</v>
+        <v>405.1161534583385</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -30400,28 +30470,28 @@
         <v>0.07820000000000001</v>
       </c>
       <c r="I19" t="n">
-        <v>-1.077157777060242</v>
+        <v>-1.066047306278362</v>
       </c>
       <c r="J19" t="n">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="K19" t="n">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1995255357181147</v>
+        <v>0.1960412851787083</v>
       </c>
       <c r="M19" t="n">
-        <v>12.80312843569243</v>
+        <v>12.77911545738215</v>
       </c>
       <c r="N19" t="n">
-        <v>297.2296417799419</v>
+        <v>296.7840762366158</v>
       </c>
       <c r="O19" t="n">
-        <v>17.24034923602019</v>
+        <v>17.22742221682094</v>
       </c>
       <c r="P19" t="n">
-        <v>404.5868873759084</v>
+        <v>404.4871341335789</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -30459,7 +30529,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T419"/>
+  <dimension ref="A1:T420"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64756,11 +64826,7 @@
       </c>
       <c r="Q418" t="inlineStr"/>
       <c r="R418" t="inlineStr"/>
-      <c r="S418" t="inlineStr">
-        <is>
-          <t>-40.963820857240066,172.10098082976924</t>
-        </is>
-      </c>
+      <c r="S418" t="inlineStr"/>
       <c r="T418" t="inlineStr">
         <is>
           <t>L8</t>
@@ -64815,7 +64881,11 @@
       <c r="M419" t="inlineStr"/>
       <c r="N419" t="inlineStr"/>
       <c r="O419" t="inlineStr"/>
-      <c r="P419" t="inlineStr"/>
+      <c r="P419" t="inlineStr">
+        <is>
+          <t>-40.96614231322615,172.09900403753966</t>
+        </is>
+      </c>
       <c r="Q419" t="inlineStr">
         <is>
           <t>-40.965417361748905,172.09928667016828</t>
@@ -64834,6 +64904,56 @@
       <c r="T419" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:12:30+00:00</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr"/>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>-40.97479286589453,172.10146398005492</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr"/>
+      <c r="E420" t="inlineStr"/>
+      <c r="F420" t="inlineStr"/>
+      <c r="G420" t="inlineStr"/>
+      <c r="H420" t="inlineStr"/>
+      <c r="I420" t="inlineStr"/>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr"/>
+      <c r="L420" t="inlineStr"/>
+      <c r="M420" t="inlineStr"/>
+      <c r="N420" t="inlineStr"/>
+      <c r="O420" t="inlineStr">
+        <is>
+          <t>-40.96677137097107,172.09946000710147</t>
+        </is>
+      </c>
+      <c r="P420" t="inlineStr">
+        <is>
+          <t>-40.966110152767705,172.0992517658216</t>
+        </is>
+      </c>
+      <c r="Q420" t="inlineStr">
+        <is>
+          <t>-40.96540190889183,172.0994056981263</t>
+        </is>
+      </c>
+      <c r="R420" t="inlineStr">
+        <is>
+          <t>-40.96479163236622,172.09880496337922</t>
+        </is>
+      </c>
+      <c r="S420" t="inlineStr"/>
+      <c r="T420" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>

--- a/data/nzd0331/nzd0331.xlsx
+++ b/data/nzd0331/nzd0331.xlsx
@@ -23993,7 +23993,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B497"/>
+  <dimension ref="A1:B499"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28971,6 +28971,26 @@
       </c>
       <c r="B497" t="n">
         <v>-0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B498" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B499" t="n">
+        <v>1.34</v>
       </c>
     </row>
   </sheetData>

--- a/data/nzd0331/nzd0331.xlsx
+++ b/data/nzd0331/nzd0331.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T420"/>
+  <dimension ref="A1:T422"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23930,9 +23930,7 @@
       <c r="Q419" t="n">
         <v>527.5111111111111</v>
       </c>
-      <c r="R419" t="n">
-        <v>592.6011111111111</v>
-      </c>
+      <c r="R419" t="inlineStr"/>
       <c r="S419" t="n">
         <v>369.7271428571429</v>
       </c>
@@ -23949,9 +23947,7 @@
         </is>
       </c>
       <c r="B420" t="inlineStr"/>
-      <c r="C420" t="n">
-        <v>540.37</v>
-      </c>
+      <c r="C420" t="inlineStr"/>
       <c r="D420" t="inlineStr"/>
       <c r="E420" t="inlineStr"/>
       <c r="F420" t="inlineStr"/>
@@ -23963,22 +23959,122 @@
       <c r="L420" t="inlineStr"/>
       <c r="M420" t="inlineStr"/>
       <c r="N420" t="inlineStr"/>
-      <c r="O420" t="n">
-        <v>539.67</v>
-      </c>
+      <c r="O420" t="inlineStr"/>
       <c r="P420" t="n">
         <v>543.97</v>
       </c>
       <c r="Q420" t="n">
         <v>517.348888888889</v>
       </c>
-      <c r="R420" t="n">
-        <v>555.1588888888889</v>
-      </c>
+      <c r="R420" t="inlineStr"/>
       <c r="S420" t="inlineStr"/>
       <c r="T420" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:19:12+00:00</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr"/>
+      <c r="C421" t="inlineStr"/>
+      <c r="D421" t="inlineStr"/>
+      <c r="E421" t="inlineStr"/>
+      <c r="F421" t="inlineStr"/>
+      <c r="G421" t="n">
+        <v>416.9869230769231</v>
+      </c>
+      <c r="H421" t="n">
+        <v>394.59</v>
+      </c>
+      <c r="I421" t="n">
+        <v>382.04</v>
+      </c>
+      <c r="J421" t="n">
+        <v>406.77</v>
+      </c>
+      <c r="K421" t="n">
+        <v>395.51</v>
+      </c>
+      <c r="L421" t="inlineStr"/>
+      <c r="M421" t="inlineStr"/>
+      <c r="N421" t="n">
+        <v>412.0828571428572</v>
+      </c>
+      <c r="O421" t="n">
+        <v>391.73</v>
+      </c>
+      <c r="P421" t="inlineStr"/>
+      <c r="Q421" t="inlineStr"/>
+      <c r="R421" t="inlineStr"/>
+      <c r="S421" t="inlineStr"/>
+      <c r="T421" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:19:18+00:00</t>
+        </is>
+      </c>
+      <c r="B422" t="n">
+        <v>404.1892307692308</v>
+      </c>
+      <c r="C422" t="n">
+        <v>369.87</v>
+      </c>
+      <c r="D422" t="n">
+        <v>371.9785714285715</v>
+      </c>
+      <c r="E422" t="n">
+        <v>380.3633333333333</v>
+      </c>
+      <c r="F422" t="n">
+        <v>385.9492307692308</v>
+      </c>
+      <c r="G422" t="n">
+        <v>380.1792307692308</v>
+      </c>
+      <c r="H422" t="n">
+        <v>379.78</v>
+      </c>
+      <c r="I422" t="n">
+        <v>384.82</v>
+      </c>
+      <c r="J422" t="n">
+        <v>369.9</v>
+      </c>
+      <c r="K422" t="n">
+        <v>385.31</v>
+      </c>
+      <c r="L422" t="n">
+        <v>385.2771428571429</v>
+      </c>
+      <c r="M422" t="n">
+        <v>365.01</v>
+      </c>
+      <c r="N422" t="inlineStr"/>
+      <c r="O422" t="inlineStr"/>
+      <c r="P422" t="inlineStr"/>
+      <c r="Q422" t="n">
+        <v>377.2911111111111</v>
+      </c>
+      <c r="R422" t="n">
+        <v>403.2511111111111</v>
+      </c>
+      <c r="S422" t="n">
+        <v>396.2785714285715</v>
+      </c>
+      <c r="T422" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -23993,7 +24089,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B499"/>
+  <dimension ref="A1:B502"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28991,6 +29087,36 @@
       </c>
       <c r="B499" t="n">
         <v>1.34</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B500" t="n">
+        <v>-0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B501" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B502" t="n">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>
@@ -29164,28 +29290,28 @@
         <v>0.0762</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.700137557314645</v>
+        <v>-1.678016450889404</v>
       </c>
       <c r="J2" t="n">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="K2" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3844210666633501</v>
+        <v>0.3765521838171484</v>
       </c>
       <c r="M2" t="n">
-        <v>13.1931698310534</v>
+        <v>13.28355173167832</v>
       </c>
       <c r="N2" t="n">
-        <v>285.0469191898233</v>
+        <v>288.2311115670325</v>
       </c>
       <c r="O2" t="n">
-        <v>16.88333258541759</v>
+        <v>16.97737057282524</v>
       </c>
       <c r="P2" t="n">
-        <v>413.1128900001544</v>
+        <v>412.9110905116397</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -29242,28 +29368,28 @@
         <v>0.0939</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.36665192670538</v>
+        <v>-1.480132911769015</v>
       </c>
       <c r="J3" t="n">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="K3" t="n">
         <v>287</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2514023340769191</v>
+        <v>0.3614370476961294</v>
       </c>
       <c r="M3" t="n">
-        <v>12.3216931071308</v>
+        <v>11.66645516745029</v>
       </c>
       <c r="N3" t="n">
-        <v>333.5902518180202</v>
+        <v>232.2294464292648</v>
       </c>
       <c r="O3" t="n">
-        <v>18.2644532307436</v>
+        <v>15.23907629842652</v>
       </c>
       <c r="P3" t="n">
-        <v>406.0234849742359</v>
+        <v>407.0559416593345</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -29320,28 +29446,28 @@
         <v>0.0772</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.331537341069858</v>
+        <v>-1.329049479432218</v>
       </c>
       <c r="J4" t="n">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="K4" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3698032080247849</v>
+        <v>0.3705974339961877</v>
       </c>
       <c r="M4" t="n">
-        <v>10.49678349913559</v>
+        <v>10.474139402265</v>
       </c>
       <c r="N4" t="n">
-        <v>184.3114188905986</v>
+        <v>183.7580001334423</v>
       </c>
       <c r="O4" t="n">
-        <v>13.57613416590299</v>
+        <v>13.55573679788164</v>
       </c>
       <c r="P4" t="n">
-        <v>402.6653584669616</v>
+        <v>402.6428052479411</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -29398,28 +29524,28 @@
         <v>0.06510000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.351054153678612</v>
+        <v>-1.341661549786997</v>
       </c>
       <c r="J5" t="n">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="K5" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3411127403460777</v>
+        <v>0.3388889250539515</v>
       </c>
       <c r="M5" t="n">
-        <v>11.16916079609934</v>
+        <v>11.1804595783054</v>
       </c>
       <c r="N5" t="n">
-        <v>216.2228790277091</v>
+        <v>216.226584999053</v>
       </c>
       <c r="O5" t="n">
-        <v>14.70451900021586</v>
+        <v>14.70464501438416</v>
       </c>
       <c r="P5" t="n">
-        <v>400.6967680584278</v>
+        <v>400.6113232109479</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -29476,28 +29602,28 @@
         <v>0.0707</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.455190250970301</v>
+        <v>-1.439531200650793</v>
       </c>
       <c r="J6" t="n">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="K6" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3935252894068029</v>
+        <v>0.3875850432999993</v>
       </c>
       <c r="M6" t="n">
-        <v>11.13877546433412</v>
+        <v>11.17880478084954</v>
       </c>
       <c r="N6" t="n">
-        <v>203.440563839251</v>
+        <v>204.893514546199</v>
       </c>
       <c r="O6" t="n">
-        <v>14.26325922919621</v>
+        <v>14.31410194689835</v>
       </c>
       <c r="P6" t="n">
-        <v>398.4536438659128</v>
+        <v>398.3115900337787</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29554,28 +29680,28 @@
         <v>0.0784</v>
       </c>
       <c r="I7" t="n">
-        <v>-1.561340830297125</v>
+        <v>-1.512102836031513</v>
       </c>
       <c r="J7" t="n">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="K7" t="n">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L7" t="n">
-        <v>0.4243464688339889</v>
+        <v>0.3970829904888636</v>
       </c>
       <c r="M7" t="n">
-        <v>10.87606201188089</v>
+        <v>11.04748387131523</v>
       </c>
       <c r="N7" t="n">
-        <v>201.2136629786271</v>
+        <v>212.7781494641387</v>
       </c>
       <c r="O7" t="n">
-        <v>14.18498018957471</v>
+        <v>14.58691706510114</v>
       </c>
       <c r="P7" t="n">
-        <v>398.3497772594239</v>
+        <v>397.8938351609189</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29632,28 +29758,28 @@
         <v>0.0551</v>
       </c>
       <c r="I8" t="n">
-        <v>-1.377557327911401</v>
+        <v>-1.347941941646852</v>
       </c>
       <c r="J8" t="n">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="K8" t="n">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3411149194936971</v>
+        <v>0.329955754823647</v>
       </c>
       <c r="M8" t="n">
-        <v>12.09436840136737</v>
+        <v>12.17726967957814</v>
       </c>
       <c r="N8" t="n">
-        <v>229.1342925830531</v>
+        <v>232.223072664348</v>
       </c>
       <c r="O8" t="n">
-        <v>15.13718245193117</v>
+        <v>15.2388671712942</v>
       </c>
       <c r="P8" t="n">
-        <v>396.9437199488224</v>
+        <v>396.6746712318582</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29710,28 +29836,28 @@
         <v>0.0561</v>
       </c>
       <c r="I9" t="n">
-        <v>-1.322926871434823</v>
+        <v>-1.298760820636013</v>
       </c>
       <c r="J9" t="n">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="K9" t="n">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3228111343187293</v>
+        <v>0.3149964574548226</v>
       </c>
       <c r="M9" t="n">
-        <v>11.61866351800002</v>
+        <v>11.67648022072242</v>
       </c>
       <c r="N9" t="n">
-        <v>225.2925330134727</v>
+        <v>226.6764815599464</v>
       </c>
       <c r="O9" t="n">
-        <v>15.00974793304247</v>
+        <v>15.05577900873769</v>
       </c>
       <c r="P9" t="n">
-        <v>396.3679283576068</v>
+        <v>396.1471714569092</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29788,28 +29914,28 @@
         <v>0.0534</v>
       </c>
       <c r="I10" t="n">
-        <v>-1.43679959298756</v>
+        <v>-1.402574099140894</v>
       </c>
       <c r="J10" t="n">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="K10" t="n">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3638515898896931</v>
+        <v>0.3478884319808931</v>
       </c>
       <c r="M10" t="n">
-        <v>11.72603426648157</v>
+        <v>11.84259438001436</v>
       </c>
       <c r="N10" t="n">
-        <v>220.7762118327338</v>
+        <v>227.0712522113883</v>
       </c>
       <c r="O10" t="n">
-        <v>14.85854003032377</v>
+        <v>15.06888357548058</v>
       </c>
       <c r="P10" t="n">
-        <v>395.4760664907117</v>
+        <v>395.1587399551815</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -29866,28 +29992,28 @@
         <v>0.0596</v>
       </c>
       <c r="I11" t="n">
-        <v>-1.288516447587637</v>
+        <v>-1.25218586004843</v>
       </c>
       <c r="J11" t="n">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="K11" t="n">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="L11" t="n">
-        <v>0.3138603814424712</v>
+        <v>0.2983274099177592</v>
       </c>
       <c r="M11" t="n">
-        <v>11.80069636905828</v>
+        <v>11.93769256428309</v>
       </c>
       <c r="N11" t="n">
-        <v>219.1128036422516</v>
+        <v>224.1055218124841</v>
       </c>
       <c r="O11" t="n">
-        <v>14.8024593781659</v>
+        <v>14.97015436835854</v>
       </c>
       <c r="P11" t="n">
-        <v>392.1074751065974</v>
+        <v>391.7653553518636</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -29944,28 +30070,28 @@
         <v>0.0425</v>
       </c>
       <c r="I12" t="n">
-        <v>-1.076215165310212</v>
+        <v>-1.059767665549671</v>
       </c>
       <c r="J12" t="n">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="K12" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1650410686524788</v>
+        <v>0.1609986165474269</v>
       </c>
       <c r="M12" t="n">
-        <v>14.64571691653616</v>
+        <v>14.66821923983689</v>
       </c>
       <c r="N12" t="n">
-        <v>329.8096827440436</v>
+        <v>330.7242315817865</v>
       </c>
       <c r="O12" t="n">
-        <v>18.16066305904175</v>
+        <v>18.185825017903</v>
       </c>
       <c r="P12" t="n">
-        <v>388.7734842823727</v>
+        <v>388.6105745827664</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -30022,28 +30148,28 @@
         <v>0.0428</v>
       </c>
       <c r="I13" t="n">
-        <v>-1.26762045445562</v>
+        <v>-1.263697335268637</v>
       </c>
       <c r="J13" t="n">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="K13" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2414232046801471</v>
+        <v>0.2416195590789098</v>
       </c>
       <c r="M13" t="n">
-        <v>13.45554484699436</v>
+        <v>13.42612074586471</v>
       </c>
       <c r="N13" t="n">
-        <v>300.4283084447286</v>
+        <v>299.5045970105643</v>
       </c>
       <c r="O13" t="n">
-        <v>17.33286786555325</v>
+        <v>17.3062011143568</v>
       </c>
       <c r="P13" t="n">
-        <v>392.096275113673</v>
+        <v>392.0595799937531</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -30100,28 +30226,28 @@
         <v>0.0403</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.9126666923286955</v>
+        <v>-0.8796938651414743</v>
       </c>
       <c r="J14" t="n">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="K14" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1257325672867956</v>
+        <v>0.1161827594879423</v>
       </c>
       <c r="M14" t="n">
-        <v>14.9465611376007</v>
+        <v>15.05201953049975</v>
       </c>
       <c r="N14" t="n">
-        <v>352.5028791411495</v>
+        <v>359.7483874088611</v>
       </c>
       <c r="O14" t="n">
-        <v>18.77506003029417</v>
+        <v>18.96703422807217</v>
       </c>
       <c r="P14" t="n">
-        <v>387.2389234623768</v>
+        <v>386.9338226634114</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -30178,28 +30304,28 @@
         <v>0.0453</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.9976452598252342</v>
+        <v>-1.099271429166969</v>
       </c>
       <c r="J15" t="n">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="K15" t="n">
         <v>265</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1254479875602228</v>
+        <v>0.1904749786633779</v>
       </c>
       <c r="M15" t="n">
-        <v>14.73752238000539</v>
+        <v>14.17456833344617</v>
       </c>
       <c r="N15" t="n">
-        <v>439.9309079351876</v>
+        <v>325.6991131849044</v>
       </c>
       <c r="O15" t="n">
-        <v>20.97452998126985</v>
+        <v>18.04713587206858</v>
       </c>
       <c r="P15" t="n">
-        <v>389.9666812441746</v>
+        <v>390.8535662986587</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -30259,7 +30385,7 @@
         <v>-0.8007505504012163</v>
       </c>
       <c r="J16" t="n">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="K16" t="n">
         <v>295</v>
@@ -30334,28 +30460,28 @@
         <v>0.0503</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.9370616961409606</v>
+        <v>-0.9348653008858487</v>
       </c>
       <c r="J17" t="n">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="K17" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L17" t="n">
-        <v>0.08046671583003095</v>
+        <v>0.08058938137934257</v>
       </c>
       <c r="M17" t="n">
-        <v>15.27704077746674</v>
+        <v>15.24321973929127</v>
       </c>
       <c r="N17" t="n">
-        <v>630.4677862911963</v>
+        <v>628.5261070122931</v>
       </c>
       <c r="O17" t="n">
-        <v>25.10911759284257</v>
+        <v>25.07042295240136</v>
       </c>
       <c r="P17" t="n">
-        <v>397.7881509373829</v>
+        <v>397.7680656774515</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -30412,28 +30538,28 @@
         <v>0.0535</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.8093438081595971</v>
+        <v>-1.003106029901095</v>
       </c>
       <c r="J18" t="n">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="K18" t="n">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L18" t="n">
-        <v>0.08022125470798502</v>
+        <v>0.2011672346210281</v>
       </c>
       <c r="M18" t="n">
-        <v>14.04946571951052</v>
+        <v>12.81104280632242</v>
       </c>
       <c r="N18" t="n">
-        <v>485.7667519754178</v>
+        <v>257.7695465442753</v>
       </c>
       <c r="O18" t="n">
-        <v>22.04011687753533</v>
+        <v>16.05520309881738</v>
       </c>
       <c r="P18" t="n">
-        <v>405.1161534583385</v>
+        <v>406.8358798660556</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -30490,28 +30616,28 @@
         <v>0.07820000000000001</v>
       </c>
       <c r="I19" t="n">
-        <v>-1.066047306278362</v>
+        <v>-1.055531710823844</v>
       </c>
       <c r="J19" t="n">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="K19" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1960412851787083</v>
+        <v>0.1932722222257974</v>
       </c>
       <c r="M19" t="n">
-        <v>12.77911545738215</v>
+        <v>12.80075970625995</v>
       </c>
       <c r="N19" t="n">
-        <v>296.7840762366158</v>
+        <v>297.0331132772453</v>
       </c>
       <c r="O19" t="n">
-        <v>17.22742221682094</v>
+        <v>17.23464862645146</v>
       </c>
       <c r="P19" t="n">
-        <v>404.4871341335789</v>
+        <v>404.3913119932277</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -30549,7 +30675,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T420"/>
+  <dimension ref="A1:T422"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64911,11 +65037,7 @@
           <t>-40.965417361748905,172.09928667016828</t>
         </is>
       </c>
-      <c r="R419" t="inlineStr">
-        <is>
-          <t>-40.964848565017824,172.09836641390967</t>
-        </is>
-      </c>
+      <c r="R419" t="inlineStr"/>
       <c r="S419" t="inlineStr">
         <is>
           <t>-40.96384187455354,172.10081896338576</t>
@@ -64934,11 +65056,7 @@
         </is>
       </c>
       <c r="B420" t="inlineStr"/>
-      <c r="C420" t="inlineStr">
-        <is>
-          <t>-40.97479286589453,172.10146398005492</t>
-        </is>
-      </c>
+      <c r="C420" t="inlineStr"/>
       <c r="D420" t="inlineStr"/>
       <c r="E420" t="inlineStr"/>
       <c r="F420" t="inlineStr"/>
@@ -64950,11 +65068,7 @@
       <c r="L420" t="inlineStr"/>
       <c r="M420" t="inlineStr"/>
       <c r="N420" t="inlineStr"/>
-      <c r="O420" t="inlineStr">
-        <is>
-          <t>-40.96677137097107,172.09946000710147</t>
-        </is>
-      </c>
+      <c r="O420" t="inlineStr"/>
       <c r="P420" t="inlineStr">
         <is>
           <t>-40.966110152767705,172.0992517658216</t>
@@ -64965,15 +65079,159 @@
           <t>-40.96540190889183,172.0994056981263</t>
         </is>
       </c>
-      <c r="R420" t="inlineStr">
-        <is>
-          <t>-40.96479163236622,172.09880496337922</t>
-        </is>
-      </c>
+      <c r="R420" t="inlineStr"/>
       <c r="S420" t="inlineStr"/>
       <c r="T420" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:19:12+00:00</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr"/>
+      <c r="C421" t="inlineStr"/>
+      <c r="D421" t="inlineStr"/>
+      <c r="E421" t="inlineStr"/>
+      <c r="F421" t="inlineStr"/>
+      <c r="G421" t="inlineStr">
+        <is>
+          <t>-40.97192607914409,172.10222442950882</t>
+        </is>
+      </c>
+      <c r="H421" t="inlineStr">
+        <is>
+          <t>-40.971223267212295,172.10231580307524</t>
+        </is>
+      </c>
+      <c r="I421" t="inlineStr">
+        <is>
+          <t>-40.97053665184351,172.1022921170279</t>
+        </is>
+      </c>
+      <c r="J421" t="inlineStr">
+        <is>
+          <t>-40.96991137434635,172.10183284224303</t>
+        </is>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>-40.96922686853105,172.10179408235948</t>
+        </is>
+      </c>
+      <c r="L421" t="inlineStr"/>
+      <c r="M421" t="inlineStr"/>
+      <c r="N421" t="inlineStr">
+        <is>
+          <t>-40.96724509895862,172.10111232544935</t>
+        </is>
+      </c>
+      <c r="O421" t="inlineStr">
+        <is>
+          <t>-40.966546397891385,172.10119282704795</t>
+        </is>
+      </c>
+      <c r="P421" t="inlineStr"/>
+      <c r="Q421" t="inlineStr"/>
+      <c r="R421" t="inlineStr"/>
+      <c r="S421" t="inlineStr"/>
+      <c r="T421" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:19:18+00:00</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>-40.97523470705917,172.10322557790167</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>-40.974512308078324,172.10345627451358</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>-40.97384984766705,172.10326130953405</t>
+        </is>
+      </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>-40.97319770841056,172.1029930094002</t>
+        </is>
+      </c>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>-40.972540956503124,172.10275741484864</t>
+        </is>
+      </c>
+      <c r="G422" t="inlineStr">
+        <is>
+          <t>-40.971865511121734,172.10265450968325</t>
+        </is>
+      </c>
+      <c r="H422" t="inlineStr">
+        <is>
+          <t>-40.97119889692183,172.10248884899815</t>
+        </is>
+      </c>
+      <c r="I422" t="inlineStr">
+        <is>
+          <t>-40.97054122639883,172.10225963472982</t>
+        </is>
+      </c>
+      <c r="J422" t="inlineStr">
+        <is>
+          <t>-40.96985070449291,172.10226363749518</t>
+        </is>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>-40.969210084487834,172.10191325970354</t>
+        </is>
+      </c>
+      <c r="L422" t="inlineStr">
+        <is>
+          <t>-40.968541960730356,172.10174286084464</t>
+        </is>
+      </c>
+      <c r="M422" t="inlineStr">
+        <is>
+          <t>-40.96784127368272,172.1018215928973</t>
+        </is>
+      </c>
+      <c r="N422" t="inlineStr"/>
+      <c r="O422" t="inlineStr"/>
+      <c r="P422" t="inlineStr"/>
+      <c r="Q422" t="inlineStr">
+        <is>
+          <t>-40.965188921944886,172.10104615979571</t>
+        </is>
+      </c>
+      <c r="R422" t="inlineStr">
+        <is>
+          <t>-40.96456063227783,172.1005842059853</t>
+        </is>
+      </c>
+      <c r="S422" t="inlineStr">
+        <is>
+          <t>-40.96388225305129,172.1005079802057</t>
+        </is>
+      </c>
+      <c r="T422" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>

--- a/data/nzd0331/nzd0331.xlsx
+++ b/data/nzd0331/nzd0331.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T422"/>
+  <dimension ref="A1:T423"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23924,12 +23924,8 @@
       <c r="M419" t="inlineStr"/>
       <c r="N419" t="inlineStr"/>
       <c r="O419" t="inlineStr"/>
-      <c r="P419" t="n">
-        <v>565.12</v>
-      </c>
-      <c r="Q419" t="n">
-        <v>527.5111111111111</v>
-      </c>
+      <c r="P419" t="inlineStr"/>
+      <c r="Q419" t="inlineStr"/>
       <c r="R419" t="inlineStr"/>
       <c r="S419" t="n">
         <v>369.7271428571429</v>
@@ -23943,7 +23939,7 @@
     <row r="420">
       <c r="A420" s="1" t="inlineStr">
         <is>
-          <t>2025-06-06 22:12:30+00:00</t>
+          <t>2025-08-08 22:19:12+00:00</t>
         </is>
       </c>
       <c r="B420" t="inlineStr"/>
@@ -23951,67 +23947,91 @@
       <c r="D420" t="inlineStr"/>
       <c r="E420" t="inlineStr"/>
       <c r="F420" t="inlineStr"/>
-      <c r="G420" t="inlineStr"/>
-      <c r="H420" t="inlineStr"/>
-      <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="G420" t="n">
+        <v>416.9869230769231</v>
+      </c>
+      <c r="H420" t="n">
+        <v>394.59</v>
+      </c>
+      <c r="I420" t="n">
+        <v>382.04</v>
+      </c>
+      <c r="J420" t="n">
+        <v>406.77</v>
+      </c>
+      <c r="K420" t="n">
+        <v>395.51</v>
+      </c>
       <c r="L420" t="inlineStr"/>
       <c r="M420" t="inlineStr"/>
       <c r="N420" t="inlineStr"/>
-      <c r="O420" t="inlineStr"/>
-      <c r="P420" t="n">
-        <v>543.97</v>
-      </c>
-      <c r="Q420" t="n">
-        <v>517.348888888889</v>
-      </c>
+      <c r="O420" t="n">
+        <v>391.73</v>
+      </c>
+      <c r="P420" t="inlineStr"/>
+      <c r="Q420" t="inlineStr"/>
       <c r="R420" t="inlineStr"/>
       <c r="S420" t="inlineStr"/>
       <c r="T420" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="1" t="inlineStr">
         <is>
-          <t>2025-08-08 22:19:12+00:00</t>
-        </is>
-      </c>
-      <c r="B421" t="inlineStr"/>
-      <c r="C421" t="inlineStr"/>
-      <c r="D421" t="inlineStr"/>
-      <c r="E421" t="inlineStr"/>
-      <c r="F421" t="inlineStr"/>
+          <t>2025-08-24 22:19:18+00:00</t>
+        </is>
+      </c>
+      <c r="B421" t="n">
+        <v>404.1892307692308</v>
+      </c>
+      <c r="C421" t="n">
+        <v>369.87</v>
+      </c>
+      <c r="D421" t="n">
+        <v>371.9785714285715</v>
+      </c>
+      <c r="E421" t="n">
+        <v>380.3633333333333</v>
+      </c>
+      <c r="F421" t="n">
+        <v>385.9492307692308</v>
+      </c>
       <c r="G421" t="n">
-        <v>416.9869230769231</v>
+        <v>380.1792307692308</v>
       </c>
       <c r="H421" t="n">
-        <v>394.59</v>
+        <v>379.78</v>
       </c>
       <c r="I421" t="n">
-        <v>382.04</v>
+        <v>384.82</v>
       </c>
       <c r="J421" t="n">
-        <v>406.77</v>
+        <v>369.9</v>
       </c>
       <c r="K421" t="n">
-        <v>395.51</v>
-      </c>
-      <c r="L421" t="inlineStr"/>
-      <c r="M421" t="inlineStr"/>
-      <c r="N421" t="n">
-        <v>412.0828571428572</v>
-      </c>
-      <c r="O421" t="n">
-        <v>391.73</v>
-      </c>
+        <v>385.31</v>
+      </c>
+      <c r="L421" t="n">
+        <v>385.2771428571429</v>
+      </c>
+      <c r="M421" t="n">
+        <v>365.01</v>
+      </c>
+      <c r="N421" t="inlineStr"/>
+      <c r="O421" t="inlineStr"/>
       <c r="P421" t="inlineStr"/>
-      <c r="Q421" t="inlineStr"/>
-      <c r="R421" t="inlineStr"/>
-      <c r="S421" t="inlineStr"/>
+      <c r="Q421" t="n">
+        <v>377.2911111111111</v>
+      </c>
+      <c r="R421" t="n">
+        <v>403.2511111111111</v>
+      </c>
+      <c r="S421" t="n">
+        <v>396.2785714285715</v>
+      </c>
       <c r="T421" t="inlineStr">
         <is>
           <t>L9</t>
@@ -24021,58 +24041,120 @@
     <row r="422">
       <c r="A422" s="1" t="inlineStr">
         <is>
-          <t>2025-08-24 22:19:18+00:00</t>
+          <t>2025-08-25 22:13:03+00:00</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>404.1892307692308</v>
-      </c>
-      <c r="C422" t="n">
-        <v>369.87</v>
-      </c>
+        <v>378.8984615384616</v>
+      </c>
+      <c r="C422" t="inlineStr"/>
       <c r="D422" t="n">
-        <v>371.9785714285715</v>
+        <v>364.9142857142857</v>
       </c>
       <c r="E422" t="n">
-        <v>380.3633333333333</v>
+        <v>383.36</v>
       </c>
       <c r="F422" t="n">
-        <v>385.9492307692308</v>
+        <v>378.6284615384615</v>
       </c>
       <c r="G422" t="n">
-        <v>380.1792307692308</v>
+        <v>381.2584615384616</v>
       </c>
       <c r="H422" t="n">
-        <v>379.78</v>
+        <v>373.15</v>
       </c>
       <c r="I422" t="n">
-        <v>384.82</v>
+        <v>375.78</v>
       </c>
       <c r="J422" t="n">
-        <v>369.9</v>
+        <v>371.66</v>
       </c>
       <c r="K422" t="n">
-        <v>385.31</v>
+        <v>378.2</v>
       </c>
       <c r="L422" t="n">
-        <v>385.2771428571429</v>
-      </c>
-      <c r="M422" t="n">
-        <v>365.01</v>
-      </c>
+        <v>384.9985714285714</v>
+      </c>
+      <c r="M422" t="inlineStr"/>
       <c r="N422" t="inlineStr"/>
       <c r="O422" t="inlineStr"/>
-      <c r="P422" t="inlineStr"/>
+      <c r="P422" t="n">
+        <v>369.04</v>
+      </c>
       <c r="Q422" t="n">
-        <v>377.2911111111111</v>
+        <v>371.7566666666667</v>
       </c>
       <c r="R422" t="n">
-        <v>403.2511111111111</v>
+        <v>400.1066666666667</v>
       </c>
       <c r="S422" t="n">
-        <v>396.2785714285715</v>
+        <v>390.3942857142857</v>
       </c>
       <c r="T422" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:13:37+00:00</t>
+        </is>
+      </c>
+      <c r="B423" t="n">
+        <v>379.2946153846154</v>
+      </c>
+      <c r="C423" t="n">
+        <v>374.68</v>
+      </c>
+      <c r="D423" t="n">
+        <v>376.4014285714285</v>
+      </c>
+      <c r="E423" t="n">
+        <v>379.2733333333333</v>
+      </c>
+      <c r="F423" t="n">
+        <v>370.0046153846154</v>
+      </c>
+      <c r="G423" t="n">
+        <v>347.6146153846154</v>
+      </c>
+      <c r="H423" t="n">
+        <v>361.92</v>
+      </c>
+      <c r="I423" t="n">
+        <v>364.33</v>
+      </c>
+      <c r="J423" t="n">
+        <v>360.4</v>
+      </c>
+      <c r="K423" t="n">
+        <v>350.03</v>
+      </c>
+      <c r="L423" t="n">
+        <v>366.9128571428572</v>
+      </c>
+      <c r="M423" t="n">
+        <v>357.5</v>
+      </c>
+      <c r="N423" t="n">
+        <v>355.5528571428572</v>
+      </c>
+      <c r="O423" t="inlineStr"/>
+      <c r="P423" t="n">
+        <v>347.82</v>
+      </c>
+      <c r="Q423" t="n">
+        <v>347.4944444444445</v>
+      </c>
+      <c r="R423" t="n">
+        <v>363.8144444444445</v>
+      </c>
+      <c r="S423" t="n">
+        <v>355.2214285714285</v>
+      </c>
+      <c r="T423" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -24089,7 +24171,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B502"/>
+  <dimension ref="A1:B504"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29117,6 +29199,26 @@
       </c>
       <c r="B502" t="n">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B503" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B504" t="n">
+        <v>0.74</v>
       </c>
     </row>
   </sheetData>
@@ -29290,28 +29392,28 @@
         <v>0.0762</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.678016450889404</v>
+        <v>-1.665823713466148</v>
       </c>
       <c r="J2" t="n">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K2" t="n">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3765521838171484</v>
+        <v>0.3759712732005072</v>
       </c>
       <c r="M2" t="n">
-        <v>13.28355173167832</v>
+        <v>13.2685022284368</v>
       </c>
       <c r="N2" t="n">
-        <v>288.2311115670325</v>
+        <v>286.9508370311582</v>
       </c>
       <c r="O2" t="n">
-        <v>16.97737057282524</v>
+        <v>16.93962328480649</v>
       </c>
       <c r="P2" t="n">
-        <v>412.9110905116397</v>
+        <v>412.7996567951996</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -29368,28 +29470,28 @@
         <v>0.0939</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.480132911769015</v>
+        <v>-1.475918679614381</v>
       </c>
       <c r="J3" t="n">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K3" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3614370476961294</v>
+        <v>0.3618291624825328</v>
       </c>
       <c r="M3" t="n">
-        <v>11.66645516745029</v>
+        <v>11.64902696842443</v>
       </c>
       <c r="N3" t="n">
-        <v>232.2294464292648</v>
+        <v>231.5567205332017</v>
       </c>
       <c r="O3" t="n">
-        <v>15.23907629842652</v>
+        <v>15.21698789291763</v>
       </c>
       <c r="P3" t="n">
-        <v>407.0559416593345</v>
+        <v>407.017068724677</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -29446,28 +29548,28 @@
         <v>0.0772</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.329049479432218</v>
+        <v>-1.325766240334374</v>
       </c>
       <c r="J4" t="n">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K4" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3705974339961877</v>
+        <v>0.372522464952504</v>
       </c>
       <c r="M4" t="n">
-        <v>10.474139402265</v>
+        <v>10.44202457313499</v>
       </c>
       <c r="N4" t="n">
-        <v>183.7580001334423</v>
+        <v>182.8236810284179</v>
       </c>
       <c r="O4" t="n">
-        <v>13.55573679788164</v>
+        <v>13.52123075124517</v>
       </c>
       <c r="P4" t="n">
-        <v>402.6428052479411</v>
+        <v>402.6128839611987</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -29524,28 +29626,28 @@
         <v>0.06510000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.341661549786997</v>
+        <v>-1.322175185088563</v>
       </c>
       <c r="J5" t="n">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K5" t="n">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3388889250539515</v>
+        <v>0.3339353540000377</v>
       </c>
       <c r="M5" t="n">
-        <v>11.1804595783054</v>
+        <v>11.20954982508478</v>
       </c>
       <c r="N5" t="n">
-        <v>216.226584999053</v>
+        <v>216.4129561251494</v>
       </c>
       <c r="O5" t="n">
-        <v>14.70464501438416</v>
+        <v>14.71098080092382</v>
       </c>
       <c r="P5" t="n">
-        <v>400.6113232109479</v>
+        <v>400.433777995624</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -29602,28 +29704,28 @@
         <v>0.0707</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.439531200650793</v>
+        <v>-1.423150867059851</v>
       </c>
       <c r="J6" t="n">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K6" t="n">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3875850432999993</v>
+        <v>0.3839809332808963</v>
       </c>
       <c r="M6" t="n">
-        <v>11.17880478084954</v>
+        <v>11.1860908868141</v>
       </c>
       <c r="N6" t="n">
-        <v>204.893514546199</v>
+        <v>204.8412144412489</v>
       </c>
       <c r="O6" t="n">
-        <v>14.31410194689835</v>
+        <v>14.31227495687701</v>
       </c>
       <c r="P6" t="n">
-        <v>398.3115900337787</v>
+        <v>398.1628000476567</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29680,28 +29782,28 @@
         <v>0.0784</v>
       </c>
       <c r="I7" t="n">
-        <v>-1.512102836031513</v>
+        <v>-1.505095219446418</v>
       </c>
       <c r="J7" t="n">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K7" t="n">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3970829904888636</v>
+        <v>0.3958081928313543</v>
       </c>
       <c r="M7" t="n">
-        <v>11.04748387131523</v>
+        <v>11.08248815015717</v>
       </c>
       <c r="N7" t="n">
-        <v>212.7781494641387</v>
+        <v>213.4479170609292</v>
       </c>
       <c r="O7" t="n">
-        <v>14.58691706510114</v>
+        <v>14.60985684601082</v>
       </c>
       <c r="P7" t="n">
-        <v>397.8938351609189</v>
+        <v>397.8290366329124</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29758,28 +29860,28 @@
         <v>0.0551</v>
       </c>
       <c r="I8" t="n">
-        <v>-1.347941941646852</v>
+        <v>-1.341252061427704</v>
       </c>
       <c r="J8" t="n">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K8" t="n">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="L8" t="n">
-        <v>0.329955754823647</v>
+        <v>0.3302139124299117</v>
       </c>
       <c r="M8" t="n">
-        <v>12.17726967957814</v>
+        <v>12.13732207126978</v>
       </c>
       <c r="N8" t="n">
-        <v>232.223072664348</v>
+        <v>231.1850877015719</v>
       </c>
       <c r="O8" t="n">
-        <v>15.2388671712942</v>
+        <v>15.20477187272377</v>
       </c>
       <c r="P8" t="n">
-        <v>396.6746712318582</v>
+        <v>396.6137897678539</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29836,28 +29938,28 @@
         <v>0.0561</v>
       </c>
       <c r="I9" t="n">
-        <v>-1.298760820636013</v>
+        <v>-1.290173796363513</v>
       </c>
       <c r="J9" t="n">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K9" t="n">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3149964574548226</v>
+        <v>0.3143917190949499</v>
       </c>
       <c r="M9" t="n">
-        <v>11.67648022072242</v>
+        <v>11.65210840449893</v>
       </c>
       <c r="N9" t="n">
-        <v>226.6764815599464</v>
+        <v>225.8603876966521</v>
       </c>
       <c r="O9" t="n">
-        <v>15.05577900873769</v>
+        <v>15.0286522248887</v>
       </c>
       <c r="P9" t="n">
-        <v>396.1471714569092</v>
+        <v>396.0686026175865</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29914,28 +30016,28 @@
         <v>0.0534</v>
       </c>
       <c r="I10" t="n">
-        <v>-1.402574099140894</v>
+        <v>-1.394296071871974</v>
       </c>
       <c r="J10" t="n">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K10" t="n">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3478884319808931</v>
+        <v>0.3475609544647991</v>
       </c>
       <c r="M10" t="n">
-        <v>11.84259438001436</v>
+        <v>11.81506278505197</v>
       </c>
       <c r="N10" t="n">
-        <v>227.0712522113883</v>
+        <v>226.1952755363443</v>
       </c>
       <c r="O10" t="n">
-        <v>15.06888357548058</v>
+        <v>15.03978974375454</v>
       </c>
       <c r="P10" t="n">
-        <v>395.1587399551815</v>
+        <v>395.0818053800853</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -29992,28 +30094,28 @@
         <v>0.0596</v>
       </c>
       <c r="I11" t="n">
-        <v>-1.25218586004843</v>
+        <v>-1.24662311381699</v>
       </c>
       <c r="J11" t="n">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K11" t="n">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L11" t="n">
-        <v>0.2983274099177592</v>
+        <v>0.2978261862705216</v>
       </c>
       <c r="M11" t="n">
-        <v>11.93769256428309</v>
+        <v>11.95320965067592</v>
       </c>
       <c r="N11" t="n">
-        <v>224.1055218124841</v>
+        <v>224.0895843277581</v>
       </c>
       <c r="O11" t="n">
-        <v>14.97015436835854</v>
+        <v>14.96962205026426</v>
       </c>
       <c r="P11" t="n">
-        <v>391.7653553518636</v>
+        <v>391.7130638152809</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -30070,28 +30172,28 @@
         <v>0.0425</v>
       </c>
       <c r="I12" t="n">
-        <v>-1.059767665549671</v>
+        <v>-1.040088375293164</v>
       </c>
       <c r="J12" t="n">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K12" t="n">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1609986165474269</v>
+        <v>0.1570997222493348</v>
       </c>
       <c r="M12" t="n">
-        <v>14.66821923983689</v>
+        <v>14.65504474070407</v>
       </c>
       <c r="N12" t="n">
-        <v>330.7242315817865</v>
+        <v>330.5141495594345</v>
       </c>
       <c r="O12" t="n">
-        <v>18.185825017903</v>
+        <v>18.18004811763254</v>
       </c>
       <c r="P12" t="n">
-        <v>388.6105745827664</v>
+        <v>388.4155123940529</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -30148,28 +30250,28 @@
         <v>0.0428</v>
       </c>
       <c r="I13" t="n">
-        <v>-1.263697335268637</v>
+        <v>-1.264750189757675</v>
       </c>
       <c r="J13" t="n">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K13" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2416195590789098</v>
+        <v>0.2433252276912988</v>
       </c>
       <c r="M13" t="n">
-        <v>13.42612074586471</v>
+        <v>13.38595673845322</v>
       </c>
       <c r="N13" t="n">
-        <v>299.5045970105643</v>
+        <v>298.4769109183919</v>
       </c>
       <c r="O13" t="n">
-        <v>17.3062011143568</v>
+        <v>17.27648433328934</v>
       </c>
       <c r="P13" t="n">
-        <v>392.0595799937531</v>
+        <v>392.0694605956604</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -30226,28 +30328,28 @@
         <v>0.0403</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.8796938651414743</v>
+        <v>-0.918067114390373</v>
       </c>
       <c r="J14" t="n">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K14" t="n">
         <v>273</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1161827594879423</v>
+        <v>0.1278433906748037</v>
       </c>
       <c r="M14" t="n">
-        <v>15.05201953049975</v>
+        <v>14.92337311686393</v>
       </c>
       <c r="N14" t="n">
-        <v>359.7483874088611</v>
+        <v>351.436238703667</v>
       </c>
       <c r="O14" t="n">
-        <v>18.96703422807217</v>
+        <v>18.74663272973755</v>
       </c>
       <c r="P14" t="n">
-        <v>386.9338226634114</v>
+        <v>387.2891766214984</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -30307,7 +30409,7 @@
         <v>-1.099271429166969</v>
       </c>
       <c r="J15" t="n">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K15" t="n">
         <v>265</v>
@@ -30382,28 +30484,28 @@
         <v>0.0613</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.8007505504012163</v>
+        <v>-1.030403487683372</v>
       </c>
       <c r="J16" t="n">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K16" t="n">
         <v>295</v>
       </c>
       <c r="L16" t="n">
-        <v>0.07005884277491514</v>
+        <v>0.1875407826133699</v>
       </c>
       <c r="M16" t="n">
-        <v>13.91695840604029</v>
+        <v>12.56934312762976</v>
       </c>
       <c r="N16" t="n">
-        <v>532.9540824170921</v>
+        <v>288.1933919348845</v>
       </c>
       <c r="O16" t="n">
-        <v>23.08579828416362</v>
+        <v>16.97625965679379</v>
       </c>
       <c r="P16" t="n">
-        <v>387.0193831771109</v>
+        <v>389.1316252533002</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -30460,28 +30562,28 @@
         <v>0.0503</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.9348653008858487</v>
+        <v>-1.115361779529112</v>
       </c>
       <c r="J17" t="n">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K17" t="n">
         <v>317</v>
       </c>
       <c r="L17" t="n">
-        <v>0.08058938137934257</v>
+        <v>0.1385854779751422</v>
       </c>
       <c r="M17" t="n">
-        <v>15.24321973929127</v>
+        <v>14.19394570988817</v>
       </c>
       <c r="N17" t="n">
-        <v>628.5261070122931</v>
+        <v>487.7150473574252</v>
       </c>
       <c r="O17" t="n">
-        <v>25.07042295240136</v>
+        <v>22.0842714925674</v>
       </c>
       <c r="P17" t="n">
-        <v>397.7680656774515</v>
+        <v>399.4006163038094</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -30538,28 +30640,28 @@
         <v>0.0535</v>
       </c>
       <c r="I18" t="n">
-        <v>-1.003106029901095</v>
+        <v>-1.001798386521729</v>
       </c>
       <c r="J18" t="n">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K18" t="n">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2011672346210281</v>
+        <v>0.2014576929310709</v>
       </c>
       <c r="M18" t="n">
-        <v>12.81104280632242</v>
+        <v>12.84418663673949</v>
       </c>
       <c r="N18" t="n">
-        <v>257.7695465442753</v>
+        <v>258.2160126575837</v>
       </c>
       <c r="O18" t="n">
-        <v>16.05520309881738</v>
+        <v>16.06910117765097</v>
       </c>
       <c r="P18" t="n">
-        <v>406.8358798660556</v>
+        <v>406.8244240264191</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -30616,28 +30718,28 @@
         <v>0.07820000000000001</v>
       </c>
       <c r="I19" t="n">
-        <v>-1.055531710823844</v>
+        <v>-1.059915146115709</v>
       </c>
       <c r="J19" t="n">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K19" t="n">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1932722222257974</v>
+        <v>0.1954036307244396</v>
       </c>
       <c r="M19" t="n">
-        <v>12.80075970625995</v>
+        <v>12.82934613400052</v>
       </c>
       <c r="N19" t="n">
-        <v>297.0331132772453</v>
+        <v>297.2000425193321</v>
       </c>
       <c r="O19" t="n">
-        <v>17.23464862645146</v>
+        <v>17.23949078480371</v>
       </c>
       <c r="P19" t="n">
-        <v>404.3913119932277</v>
+        <v>404.4316491301997</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -30675,7 +30777,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T422"/>
+  <dimension ref="A1:T423"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65027,16 +65129,8 @@
       <c r="M419" t="inlineStr"/>
       <c r="N419" t="inlineStr"/>
       <c r="O419" t="inlineStr"/>
-      <c r="P419" t="inlineStr">
-        <is>
-          <t>-40.96614231322615,172.09900403753966</t>
-        </is>
-      </c>
-      <c r="Q419" t="inlineStr">
-        <is>
-          <t>-40.965417361748905,172.09928667016828</t>
-        </is>
-      </c>
+      <c r="P419" t="inlineStr"/>
+      <c r="Q419" t="inlineStr"/>
       <c r="R419" t="inlineStr"/>
       <c r="S419" t="inlineStr">
         <is>
@@ -65052,7 +65146,7 @@
     <row r="420">
       <c r="A420" s="1" t="inlineStr">
         <is>
-          <t>2025-06-06 22:12:30+00:00</t>
+          <t>2025-08-08 22:19:12+00:00</t>
         </is>
       </c>
       <c r="B420" t="inlineStr"/>
@@ -65060,85 +65154,133 @@
       <c r="D420" t="inlineStr"/>
       <c r="E420" t="inlineStr"/>
       <c r="F420" t="inlineStr"/>
-      <c r="G420" t="inlineStr"/>
-      <c r="H420" t="inlineStr"/>
-      <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="G420" t="inlineStr">
+        <is>
+          <t>-40.97192607914409,172.10222442950882</t>
+        </is>
+      </c>
+      <c r="H420" t="inlineStr">
+        <is>
+          <t>-40.971223267212295,172.10231580307524</t>
+        </is>
+      </c>
+      <c r="I420" t="inlineStr">
+        <is>
+          <t>-40.97053665184351,172.1022921170279</t>
+        </is>
+      </c>
+      <c r="J420" t="inlineStr">
+        <is>
+          <t>-40.96991137434635,172.10183284224303</t>
+        </is>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>-40.96922686853105,172.10179408235948</t>
+        </is>
+      </c>
       <c r="L420" t="inlineStr"/>
       <c r="M420" t="inlineStr"/>
       <c r="N420" t="inlineStr"/>
-      <c r="O420" t="inlineStr"/>
-      <c r="P420" t="inlineStr">
-        <is>
-          <t>-40.966110152767705,172.0992517658216</t>
-        </is>
-      </c>
-      <c r="Q420" t="inlineStr">
-        <is>
-          <t>-40.96540190889183,172.0994056981263</t>
-        </is>
-      </c>
+      <c r="O420" t="inlineStr">
+        <is>
+          <t>-40.966546397891385,172.10119282704795</t>
+        </is>
+      </c>
+      <c r="P420" t="inlineStr"/>
+      <c r="Q420" t="inlineStr"/>
       <c r="R420" t="inlineStr"/>
       <c r="S420" t="inlineStr"/>
       <c r="T420" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="1" t="inlineStr">
         <is>
-          <t>2025-08-08 22:19:12+00:00</t>
-        </is>
-      </c>
-      <c r="B421" t="inlineStr"/>
-      <c r="C421" t="inlineStr"/>
-      <c r="D421" t="inlineStr"/>
-      <c r="E421" t="inlineStr"/>
-      <c r="F421" t="inlineStr"/>
+          <t>2025-08-24 22:19:18+00:00</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>-40.97523470705917,172.10322557790167</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>-40.974512308078324,172.10345627451358</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>-40.97384984766705,172.10326130953405</t>
+        </is>
+      </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>-40.97319770841056,172.1029930094002</t>
+        </is>
+      </c>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>-40.972540956503124,172.10275741484864</t>
+        </is>
+      </c>
       <c r="G421" t="inlineStr">
         <is>
-          <t>-40.97192607914409,172.10222442950882</t>
+          <t>-40.971865511121734,172.10265450968325</t>
         </is>
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>-40.971223267212295,172.10231580307524</t>
+          <t>-40.97119889692183,172.10248884899815</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>-40.97053665184351,172.1022921170279</t>
+          <t>-40.97054122639883,172.10225963472982</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
         <is>
-          <t>-40.96991137434635,172.10183284224303</t>
+          <t>-40.96985070449291,172.10226363749518</t>
         </is>
       </c>
       <c r="K421" t="inlineStr">
         <is>
-          <t>-40.96922686853105,172.10179408235948</t>
-        </is>
-      </c>
-      <c r="L421" t="inlineStr"/>
-      <c r="M421" t="inlineStr"/>
-      <c r="N421" t="inlineStr">
-        <is>
-          <t>-40.96724509895862,172.10111232544935</t>
-        </is>
-      </c>
-      <c r="O421" t="inlineStr">
-        <is>
-          <t>-40.966546397891385,172.10119282704795</t>
-        </is>
-      </c>
+          <t>-40.969210084487834,172.10191325970354</t>
+        </is>
+      </c>
+      <c r="L421" t="inlineStr">
+        <is>
+          <t>-40.968541960730356,172.10174286084464</t>
+        </is>
+      </c>
+      <c r="M421" t="inlineStr">
+        <is>
+          <t>-40.96784127368272,172.1018215928973</t>
+        </is>
+      </c>
+      <c r="N421" t="inlineStr"/>
+      <c r="O421" t="inlineStr"/>
       <c r="P421" t="inlineStr"/>
-      <c r="Q421" t="inlineStr"/>
-      <c r="R421" t="inlineStr"/>
-      <c r="S421" t="inlineStr"/>
+      <c r="Q421" t="inlineStr">
+        <is>
+          <t>-40.965188921944886,172.10104615979571</t>
+        </is>
+      </c>
+      <c r="R421" t="inlineStr">
+        <is>
+          <t>-40.96456063227783,172.1005842059853</t>
+        </is>
+      </c>
+      <c r="S421" t="inlineStr">
+        <is>
+          <t>-40.96388225305129,172.1005079802057</t>
+        </is>
+      </c>
       <c r="T421" t="inlineStr">
         <is>
           <t>L9</t>
@@ -65148,88 +65290,182 @@
     <row r="422">
       <c r="A422" s="1" t="inlineStr">
         <is>
-          <t>2025-08-24 22:19:18+00:00</t>
+          <t>2025-08-25 22:13:03+00:00</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>-40.97523470705917,172.10322557790167</t>
-        </is>
-      </c>
-      <c r="C422" t="inlineStr">
-        <is>
-          <t>-40.974512308078324,172.10345627451358</t>
-        </is>
-      </c>
+          <t>-40.975193088911126,172.10352110284475</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr"/>
       <c r="D422" t="inlineStr">
         <is>
-          <t>-40.97384984766705,172.10326130953405</t>
+          <t>-40.973838222726265,172.10334385463665</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>-40.97319770841056,172.1029930094002</t>
+          <t>-40.97320263962598,172.10295799412947</t>
         </is>
       </c>
       <c r="F422" t="inlineStr">
         <is>
-          <t>-40.972540956503124,172.10275741484864</t>
+          <t>-40.972528909767455,172.10284295529152</t>
         </is>
       </c>
       <c r="G422" t="inlineStr">
         <is>
-          <t>-40.971865511121734,172.10265450968325</t>
+          <t>-40.9718672870472,172.10264189940176</t>
         </is>
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>-40.97119889692183,172.10248884899815</t>
+          <t>-40.97118798697724,172.10256631651197</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>-40.97054122639883,172.10225963472982</t>
+          <t>-40.97052635083271,172.10236526060416</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>-40.96985070449291,172.10226363749518</t>
+          <t>-40.96985360062253,172.10224307337785</t>
         </is>
       </c>
       <c r="K422" t="inlineStr">
         <is>
-          <t>-40.969210084487834,172.10191325970354</t>
+          <t>-40.969198384949145,172.10199633328827</t>
         </is>
       </c>
       <c r="L422" t="inlineStr">
         <is>
-          <t>-40.968541960730356,172.10174286084464</t>
-        </is>
-      </c>
-      <c r="M422" t="inlineStr">
-        <is>
-          <t>-40.96784127368272,172.1018215928973</t>
-        </is>
-      </c>
+          <t>-40.96854151926436,172.1017461197237</t>
+        </is>
+      </c>
+      <c r="M422" t="inlineStr"/>
       <c r="N422" t="inlineStr"/>
       <c r="O422" t="inlineStr"/>
-      <c r="P422" t="inlineStr"/>
+      <c r="P422" t="inlineStr">
+        <is>
+          <t>-40.96584413561187,172.10130069824967</t>
+        </is>
+      </c>
       <c r="Q422" t="inlineStr">
         <is>
-          <t>-40.965188921944886,172.10104615979571</t>
+          <t>-40.965180505190496,172.10111098314897</t>
         </is>
       </c>
       <c r="R422" t="inlineStr">
         <is>
-          <t>-40.96456063227783,172.1005842059853</t>
+          <t>-40.96455585035523,172.10062103563598</t>
         </is>
       </c>
       <c r="S422" t="inlineStr">
         <is>
-          <t>-40.96388225305129,172.1005079802057</t>
+          <t>-40.963873304505036,172.1005768998389</t>
         </is>
       </c>
       <c r="T422" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:13:37+00:00</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>-40.97519374082243,172.1035164737537</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>-40.97452022340977,172.10340006983154</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>-40.973857125860576,172.10320962910774</t>
+        </is>
+      </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>-40.97319591474001,172.1030057457655</t>
+        </is>
+      </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t>-40.972514718663874,172.10294372166103</t>
+        </is>
+      </c>
+      <c r="G423" t="inlineStr">
+        <is>
+          <t>-40.97181192384853,172.10303501091275</t>
+        </is>
+      </c>
+      <c r="H423" t="inlineStr">
+        <is>
+          <t>-40.97116950741926,172.1026975321692</t>
+        </is>
+      </c>
+      <c r="I423" t="inlineStr">
+        <is>
+          <t>-40.970507509406296,172.1024990455231</t>
+        </is>
+      </c>
+      <c r="J423" t="inlineStr">
+        <is>
+          <t>-40.96983507191148,172.1023746369622</t>
+        </is>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>-40.96915203048895,172.10232547265596</t>
+        </is>
+      </c>
+      <c r="L423" t="inlineStr">
+        <is>
+          <t>-40.96851285773544,172.1019576960926</t>
+        </is>
+      </c>
+      <c r="M423" t="inlineStr">
+        <is>
+          <t>-40.96782984044803,172.10190955616596</t>
+        </is>
+      </c>
+      <c r="N423" t="inlineStr">
+        <is>
+          <t>-40.967159127434755,172.10177446502772</t>
+        </is>
+      </c>
+      <c r="O423" t="inlineStr"/>
+      <c r="P423" t="inlineStr">
+        <is>
+          <t>-40.965811863734636,172.10154924428474</t>
+        </is>
+      </c>
+      <c r="Q423" t="inlineStr">
+        <is>
+          <t>-40.965143606896554,172.10139515938076</t>
+        </is>
+      </c>
+      <c r="R423" t="inlineStr">
+        <is>
+          <t>-40.96450065800188,172.10104611190175</t>
+        </is>
+      </c>
+      <c r="S423" t="inlineStr">
+        <is>
+          <t>-40.9638198144069,172.1009888611771</t>
+        </is>
+      </c>
+      <c r="T423" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0331/nzd0331.xlsx
+++ b/data/nzd0331/nzd0331.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T423"/>
+  <dimension ref="A1:T425"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24141,7 +24141,9 @@
       <c r="N423" t="n">
         <v>355.5528571428572</v>
       </c>
-      <c r="O423" t="inlineStr"/>
+      <c r="O423" t="n">
+        <v>348.9</v>
+      </c>
       <c r="P423" t="n">
         <v>347.82</v>
       </c>
@@ -24155,6 +24157,138 @@
         <v>355.2214285714285</v>
       </c>
       <c r="T423" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-26 22:13:38+00:00</t>
+        </is>
+      </c>
+      <c r="B424" t="n">
+        <v>382.8784615384615</v>
+      </c>
+      <c r="C424" t="n">
+        <v>376.53</v>
+      </c>
+      <c r="D424" t="n">
+        <v>367.6842857142857</v>
+      </c>
+      <c r="E424" t="n">
+        <v>376.8733333333333</v>
+      </c>
+      <c r="F424" t="n">
+        <v>371.1384615384616</v>
+      </c>
+      <c r="G424" t="n">
+        <v>355.8384615384616</v>
+      </c>
+      <c r="H424" t="n">
+        <v>353.81</v>
+      </c>
+      <c r="I424" t="n">
+        <v>355.88</v>
+      </c>
+      <c r="J424" t="n">
+        <v>346.76</v>
+      </c>
+      <c r="K424" t="n">
+        <v>348.24</v>
+      </c>
+      <c r="L424" t="n">
+        <v>345.1785714285714</v>
+      </c>
+      <c r="M424" t="n">
+        <v>352.11</v>
+      </c>
+      <c r="N424" t="n">
+        <v>355.4885714285714</v>
+      </c>
+      <c r="O424" t="n">
+        <v>350.83</v>
+      </c>
+      <c r="P424" t="n">
+        <v>346.8</v>
+      </c>
+      <c r="Q424" t="n">
+        <v>353.4144444444445</v>
+      </c>
+      <c r="R424" t="n">
+        <v>357.5844444444444</v>
+      </c>
+      <c r="S424" t="n">
+        <v>356.4942857142857</v>
+      </c>
+      <c r="T424" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:13:41+00:00</t>
+        </is>
+      </c>
+      <c r="B425" t="n">
+        <v>380.5223076923077</v>
+      </c>
+      <c r="C425" t="n">
+        <v>378.265</v>
+      </c>
+      <c r="D425" t="n">
+        <v>369.2242857142857</v>
+      </c>
+      <c r="E425" t="n">
+        <v>368.4533333333333</v>
+      </c>
+      <c r="F425" t="n">
+        <v>380.4723076923077</v>
+      </c>
+      <c r="G425" t="n">
+        <v>364.4823076923077</v>
+      </c>
+      <c r="H425" t="n">
+        <v>355.5</v>
+      </c>
+      <c r="I425" t="n">
+        <v>352.37</v>
+      </c>
+      <c r="J425" t="n">
+        <v>355.59</v>
+      </c>
+      <c r="K425" t="n">
+        <v>345.59</v>
+      </c>
+      <c r="L425" t="n">
+        <v>367.9085714285715</v>
+      </c>
+      <c r="M425" t="n">
+        <v>350.45</v>
+      </c>
+      <c r="N425" t="n">
+        <v>359.8885714285714</v>
+      </c>
+      <c r="O425" t="n">
+        <v>346.8</v>
+      </c>
+      <c r="P425" t="n">
+        <v>353.82</v>
+      </c>
+      <c r="Q425" t="n">
+        <v>351.1177777777777</v>
+      </c>
+      <c r="R425" t="n">
+        <v>362.3677777777777</v>
+      </c>
+      <c r="S425" t="n">
+        <v>360.0842857142857</v>
+      </c>
+      <c r="T425" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -24171,7 +24305,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B504"/>
+  <dimension ref="A1:B506"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29219,6 +29353,26 @@
       </c>
       <c r="B504" t="n">
         <v>0.74</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>2025-09-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B505" t="n">
+        <v>-0.16</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B506" t="n">
+        <v>0.89</v>
       </c>
     </row>
   </sheetData>
@@ -30777,7 +30931,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T423"/>
+  <dimension ref="A1:T425"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65444,7 +65598,11 @@
           <t>-40.967159127434755,172.10177446502772</t>
         </is>
       </c>
-      <c r="O423" t="inlineStr"/>
+      <c r="O423" t="inlineStr">
+        <is>
+          <t>-40.96648126121497,172.10169449235713</t>
+        </is>
+      </c>
       <c r="P423" t="inlineStr">
         <is>
           <t>-40.965811863734636,172.10154924428474</t>
@@ -65466,6 +65624,210 @@
         </is>
       </c>
       <c r="T423" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-26 22:13:38+00:00</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>-40.97519963839585,172.1034745962058</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>-40.974523267760674,172.1033784526427</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>-40.97384278102661,172.10331148761188</t>
+        </is>
+      </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>-40.973191965368684,172.1030337891363</t>
+        </is>
+      </c>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>-40.97251658448702,172.1029304731014</t>
+        </is>
+      </c>
+      <c r="G424" t="inlineStr">
+        <is>
+          <t>-40.971825456861794,172.1029389194432</t>
+        </is>
+      </c>
+      <c r="H424" t="inlineStr">
+        <is>
+          <t>-40.97115616189262,172.10279229249753</t>
+        </is>
+      </c>
+      <c r="I424" t="inlineStr">
+        <is>
+          <t>-40.97049360449804,172.10259777757778</t>
+        </is>
+      </c>
+      <c r="J424" t="inlineStr">
+        <is>
+          <t>-40.969812626627686,172.1025340087401</t>
+        </is>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>-40.96914908496593,172.10234638707004</t>
+        </is>
+      </c>
+      <c r="L424" t="inlineStr">
+        <is>
+          <t>-40.96847841357756,172.10221195517025</t>
+        </is>
+      </c>
+      <c r="M424" t="inlineStr">
+        <is>
+          <t>-40.96782163466276,172.10197268824092</t>
+        </is>
+      </c>
+      <c r="N424" t="inlineStr">
+        <is>
+          <t>-40.96715902966608,172.10177521800955</t>
+        </is>
+      </c>
+      <c r="O424" t="inlineStr">
+        <is>
+          <t>-40.9664841964428,172.10167188639934</t>
+        </is>
+      </c>
+      <c r="P424" t="inlineStr">
+        <is>
+          <t>-40.965810312480976,172.10156119135502</t>
+        </is>
+      </c>
+      <c r="Q424" t="inlineStr">
+        <is>
+          <t>-40.96515261017224,172.10132582020006</t>
+        </is>
+      </c>
+      <c r="R424" t="inlineStr">
+        <is>
+          <t>-40.96449118340678,172.1011190813285</t>
+        </is>
+      </c>
+      <c r="S424" t="inlineStr">
+        <is>
+          <t>-40.9638217501655,172.10097395287613</t>
+        </is>
+      </c>
+      <c r="T424" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:13:41+00:00</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>-40.97519576111331,172.10350212806523</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>-40.974526122864454,172.10335817922328</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>-40.97384531524017,172.10329349294645</t>
+        </is>
+      </c>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>-40.97317810960334,172.10313217460342</t>
+        </is>
+      </c>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>-40.972531943925546,172.10282141064357</t>
+        </is>
+      </c>
+      <c r="G425" t="inlineStr">
+        <is>
+          <t>-40.971839680932675,172.10283792044595</t>
+        </is>
+      </c>
+      <c r="H425" t="inlineStr">
+        <is>
+          <t>-40.97115894290279,172.102772545897</t>
+        </is>
+      </c>
+      <c r="I425" t="inlineStr">
+        <is>
+          <t>-40.97048782858808,172.1026387893426</t>
+        </is>
+      </c>
+      <c r="J425" t="inlineStr">
+        <is>
+          <t>-40.969827156847686,172.10243083772565</t>
+        </is>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>-40.96914472426844,172.10237734974683</t>
+        </is>
+      </c>
+      <c r="L425" t="inlineStr">
+        <is>
+          <t>-40.96851443571445,172.10194604769836</t>
+        </is>
+      </c>
+      <c r="M425" t="inlineStr">
+        <is>
+          <t>-40.9678191074566,172.10199213151145</t>
+        </is>
+      </c>
+      <c r="N425" t="inlineStr">
+        <is>
+          <t>-40.96716572137806,172.1017236805819</t>
+        </is>
+      </c>
+      <c r="O425" t="inlineStr">
+        <is>
+          <t>-40.96647806743872,172.10171908951114</t>
+        </is>
+      </c>
+      <c r="P425" t="inlineStr">
+        <is>
+          <t>-40.96582098873097,172.10147896738985</t>
+        </is>
+      </c>
+      <c r="Q425" t="inlineStr">
+        <is>
+          <t>-40.96514911735236,172.10135272036857</t>
+        </is>
+      </c>
+      <c r="R425" t="inlineStr">
+        <is>
+          <t>-40.964498457912775,172.101063056115</t>
+        </is>
+      </c>
+      <c r="S425" t="inlineStr">
+        <is>
+          <t>-40.96382720981993,172.10093190510472</t>
+        </is>
+      </c>
+      <c r="T425" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0331/nzd0331.xlsx
+++ b/data/nzd0331/nzd0331.xlsx
@@ -29546,28 +29546,28 @@
         <v>0.0762</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.665823713466148</v>
+        <v>-1.650776696133326</v>
       </c>
       <c r="J2" t="n">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="K2" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3759712732005072</v>
+        <v>0.3741985631661323</v>
       </c>
       <c r="M2" t="n">
-        <v>13.2685022284368</v>
+        <v>13.27027519904061</v>
       </c>
       <c r="N2" t="n">
-        <v>286.9508370311582</v>
+        <v>286.0591968636786</v>
       </c>
       <c r="O2" t="n">
-        <v>16.93962328480649</v>
+        <v>16.9132846266974</v>
       </c>
       <c r="P2" t="n">
-        <v>412.7996567951996</v>
+        <v>412.6616869023141</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -29624,28 +29624,28 @@
         <v>0.0939</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.475918679614381</v>
+        <v>-1.464085389799126</v>
       </c>
       <c r="J3" t="n">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="K3" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3618291624825328</v>
+        <v>0.3611903778148302</v>
       </c>
       <c r="M3" t="n">
-        <v>11.64902696842443</v>
+        <v>11.63287303748737</v>
       </c>
       <c r="N3" t="n">
-        <v>231.5567205332017</v>
+        <v>230.5033269809109</v>
       </c>
       <c r="O3" t="n">
-        <v>15.21698789291763</v>
+        <v>15.18233601857471</v>
       </c>
       <c r="P3" t="n">
-        <v>407.017068724677</v>
+        <v>406.9077403482407</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -29702,28 +29702,28 @@
         <v>0.0772</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.325766240334374</v>
+        <v>-1.325190819633178</v>
       </c>
       <c r="J4" t="n">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="K4" t="n">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L4" t="n">
-        <v>0.372522464952504</v>
+        <v>0.3756821577284051</v>
       </c>
       <c r="M4" t="n">
-        <v>10.44202457313499</v>
+        <v>10.37924128356878</v>
       </c>
       <c r="N4" t="n">
-        <v>182.8236810284179</v>
+        <v>181.6457570344439</v>
       </c>
       <c r="O4" t="n">
-        <v>13.52123075124517</v>
+        <v>13.47760205060395</v>
       </c>
       <c r="P4" t="n">
-        <v>402.6128839611987</v>
+        <v>402.6076367816835</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -29780,28 +29780,28 @@
         <v>0.06510000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.322175185088563</v>
+        <v>-1.313886837811305</v>
       </c>
       <c r="J5" t="n">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="K5" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3339353540000377</v>
+        <v>0.3339094171124078</v>
       </c>
       <c r="M5" t="n">
-        <v>11.20954982508478</v>
+        <v>11.17957422215409</v>
       </c>
       <c r="N5" t="n">
-        <v>216.4129561251494</v>
+        <v>215.3933023849109</v>
       </c>
       <c r="O5" t="n">
-        <v>14.71098080092382</v>
+        <v>14.67628367077003</v>
       </c>
       <c r="P5" t="n">
-        <v>400.433777995624</v>
+        <v>400.3580205818741</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -29858,28 +29858,28 @@
         <v>0.0707</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.423150867059851</v>
+        <v>-1.405432401478858</v>
       </c>
       <c r="J6" t="n">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="K6" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3839809332808963</v>
+        <v>0.3795314589415558</v>
       </c>
       <c r="M6" t="n">
-        <v>11.1860908868141</v>
+        <v>11.20324946356684</v>
       </c>
       <c r="N6" t="n">
-        <v>204.8412144412489</v>
+        <v>205.0543954035509</v>
       </c>
       <c r="O6" t="n">
-        <v>14.31227495687701</v>
+        <v>14.319720507173</v>
       </c>
       <c r="P6" t="n">
-        <v>398.1628000476567</v>
+        <v>398.0011830587518</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29936,28 +29936,28 @@
         <v>0.0784</v>
       </c>
       <c r="I7" t="n">
-        <v>-1.505095219446418</v>
+        <v>-1.503159112437603</v>
       </c>
       <c r="J7" t="n">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="K7" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3958081928313543</v>
+        <v>0.3982477826409009</v>
       </c>
       <c r="M7" t="n">
-        <v>11.08248815015717</v>
+        <v>11.03838907502945</v>
       </c>
       <c r="N7" t="n">
-        <v>213.4479170609292</v>
+        <v>212.2094234142167</v>
       </c>
       <c r="O7" t="n">
-        <v>14.60985684601082</v>
+        <v>14.56740963295179</v>
       </c>
       <c r="P7" t="n">
-        <v>397.8290366329124</v>
+        <v>397.8109579881626</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -30014,28 +30014,28 @@
         <v>0.0551</v>
       </c>
       <c r="I8" t="n">
-        <v>-1.341252061427704</v>
+        <v>-1.348911692171663</v>
       </c>
       <c r="J8" t="n">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="K8" t="n">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3302139124299117</v>
+        <v>0.3352826729952494</v>
       </c>
       <c r="M8" t="n">
-        <v>12.13732207126978</v>
+        <v>12.10556236628362</v>
       </c>
       <c r="N8" t="n">
-        <v>231.1850877015719</v>
+        <v>230.0458296104765</v>
       </c>
       <c r="O8" t="n">
-        <v>15.20477187272377</v>
+        <v>15.16726177035514</v>
       </c>
       <c r="P8" t="n">
-        <v>396.6137897678539</v>
+        <v>396.6838519519248</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -30092,28 +30092,28 @@
         <v>0.0561</v>
       </c>
       <c r="I9" t="n">
-        <v>-1.290173796363513</v>
+        <v>-1.299210250370501</v>
       </c>
       <c r="J9" t="n">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="K9" t="n">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3143917190949499</v>
+        <v>0.3197680035404827</v>
       </c>
       <c r="M9" t="n">
-        <v>11.65210840449893</v>
+        <v>11.6315185065535</v>
       </c>
       <c r="N9" t="n">
-        <v>225.8603876966521</v>
+        <v>224.9252866183392</v>
       </c>
       <c r="O9" t="n">
-        <v>15.0286522248887</v>
+        <v>14.99750934716626</v>
       </c>
       <c r="P9" t="n">
-        <v>396.0686026175865</v>
+        <v>396.1516759377764</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -30170,28 +30170,28 @@
         <v>0.0534</v>
       </c>
       <c r="I10" t="n">
-        <v>-1.394296071871974</v>
+        <v>-1.402556925021929</v>
       </c>
       <c r="J10" t="n">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="K10" t="n">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3475609544647991</v>
+        <v>0.3526425252113676</v>
       </c>
       <c r="M10" t="n">
-        <v>11.81506278505197</v>
+        <v>11.78784268934977</v>
       </c>
       <c r="N10" t="n">
-        <v>226.1952755363443</v>
+        <v>225.2653561236509</v>
       </c>
       <c r="O10" t="n">
-        <v>15.03978974375454</v>
+        <v>15.00884259773721</v>
       </c>
       <c r="P10" t="n">
-        <v>395.0818053800853</v>
+        <v>395.1589196005124</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -30248,28 +30248,28 @@
         <v>0.0596</v>
       </c>
       <c r="I11" t="n">
-        <v>-1.24662311381699</v>
+        <v>-1.260238948740904</v>
       </c>
       <c r="J11" t="n">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="K11" t="n">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="L11" t="n">
-        <v>0.2978261862705216</v>
+        <v>0.304162596682546</v>
       </c>
       <c r="M11" t="n">
-        <v>11.95320965067592</v>
+        <v>11.9481755982993</v>
       </c>
       <c r="N11" t="n">
-        <v>224.0895843277581</v>
+        <v>223.6237076708975</v>
       </c>
       <c r="O11" t="n">
-        <v>14.96962205026426</v>
+        <v>14.95405321880651</v>
       </c>
       <c r="P11" t="n">
-        <v>391.7130638152809</v>
+        <v>391.8421384587406</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -30326,28 +30326,28 @@
         <v>0.0425</v>
       </c>
       <c r="I12" t="n">
-        <v>-1.040088375293164</v>
+        <v>-1.046178301696172</v>
       </c>
       <c r="J12" t="n">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="K12" t="n">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1570997222493348</v>
+        <v>0.160156317394299</v>
       </c>
       <c r="M12" t="n">
-        <v>14.65504474070407</v>
+        <v>14.6372978880864</v>
       </c>
       <c r="N12" t="n">
-        <v>330.5141495594345</v>
+        <v>329.2893230154006</v>
       </c>
       <c r="O12" t="n">
-        <v>18.18004811763254</v>
+        <v>18.14633084167156</v>
       </c>
       <c r="P12" t="n">
-        <v>388.4155123940529</v>
+        <v>388.4760457209867</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -30404,28 +30404,28 @@
         <v>0.0428</v>
       </c>
       <c r="I13" t="n">
-        <v>-1.264750189757675</v>
+        <v>-1.274816826479081</v>
       </c>
       <c r="J13" t="n">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="K13" t="n">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2433252276912988</v>
+        <v>0.2488041902112225</v>
       </c>
       <c r="M13" t="n">
-        <v>13.38595673845322</v>
+        <v>13.35354940240587</v>
       </c>
       <c r="N13" t="n">
-        <v>298.4769109183919</v>
+        <v>296.834131750243</v>
       </c>
       <c r="O13" t="n">
-        <v>17.27648433328934</v>
+        <v>17.2288749415115</v>
       </c>
       <c r="P13" t="n">
-        <v>392.0694605956604</v>
+        <v>392.1640874401675</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -30482,28 +30482,28 @@
         <v>0.0403</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.918067114390373</v>
+        <v>-0.9256179928061458</v>
       </c>
       <c r="J14" t="n">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="K14" t="n">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1278433906748037</v>
+        <v>0.1313608267461092</v>
       </c>
       <c r="M14" t="n">
-        <v>14.92337311686393</v>
+        <v>14.8594016342514</v>
       </c>
       <c r="N14" t="n">
-        <v>351.436238703667</v>
+        <v>349.1403012692707</v>
       </c>
       <c r="O14" t="n">
-        <v>18.74663272973755</v>
+        <v>18.68529639233134</v>
       </c>
       <c r="P14" t="n">
-        <v>387.2891766214984</v>
+        <v>387.3595407013116</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -30560,28 +30560,28 @@
         <v>0.0453</v>
       </c>
       <c r="I15" t="n">
-        <v>-1.099271429166969</v>
+        <v>-1.126537637413032</v>
       </c>
       <c r="J15" t="n">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="K15" t="n">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1904749786633779</v>
+        <v>0.2011277592477604</v>
       </c>
       <c r="M15" t="n">
-        <v>14.17456833344617</v>
+        <v>14.16709423063199</v>
       </c>
       <c r="N15" t="n">
-        <v>325.6991131849044</v>
+        <v>323.9954798368736</v>
       </c>
       <c r="O15" t="n">
-        <v>18.04713587206858</v>
+        <v>17.99987443947522</v>
       </c>
       <c r="P15" t="n">
-        <v>390.8535662986587</v>
+        <v>391.0957933334479</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -30638,28 +30638,28 @@
         <v>0.0613</v>
       </c>
       <c r="I16" t="n">
-        <v>-1.030403487683372</v>
+        <v>-1.044466933780786</v>
       </c>
       <c r="J16" t="n">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="K16" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1875407826133699</v>
+        <v>0.1932140677399644</v>
       </c>
       <c r="M16" t="n">
-        <v>12.56934312762976</v>
+        <v>12.57079591965089</v>
       </c>
       <c r="N16" t="n">
-        <v>288.1933919348845</v>
+        <v>287.2717928946887</v>
       </c>
       <c r="O16" t="n">
-        <v>16.97625965679379</v>
+        <v>16.94909416147921</v>
       </c>
       <c r="P16" t="n">
-        <v>389.1316252533002</v>
+        <v>389.2631942616259</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -30716,28 +30716,28 @@
         <v>0.0503</v>
       </c>
       <c r="I17" t="n">
-        <v>-1.115361779529112</v>
+        <v>-1.135490162105289</v>
       </c>
       <c r="J17" t="n">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="K17" t="n">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1385854779751422</v>
+        <v>0.1439807175307268</v>
       </c>
       <c r="M17" t="n">
-        <v>14.19394570988817</v>
+        <v>14.19935184488976</v>
       </c>
       <c r="N17" t="n">
-        <v>487.7150473574252</v>
+        <v>486.6580788211733</v>
       </c>
       <c r="O17" t="n">
-        <v>22.0842714925674</v>
+        <v>22.06032816666999</v>
       </c>
       <c r="P17" t="n">
-        <v>399.4006163038094</v>
+        <v>399.5856420013116</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -30794,28 +30794,28 @@
         <v>0.0535</v>
       </c>
       <c r="I18" t="n">
-        <v>-1.001798386521729</v>
+        <v>-1.023880912243283</v>
       </c>
       <c r="J18" t="n">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="K18" t="n">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2014576929310709</v>
+        <v>0.2088993838061833</v>
       </c>
       <c r="M18" t="n">
-        <v>12.84418663673949</v>
+        <v>12.8867529294555</v>
       </c>
       <c r="N18" t="n">
-        <v>258.2160126575837</v>
+        <v>259.2493460644685</v>
       </c>
       <c r="O18" t="n">
-        <v>16.06910117765097</v>
+        <v>16.10122188110171</v>
       </c>
       <c r="P18" t="n">
-        <v>406.8244240264191</v>
+        <v>407.0241232144845</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -30872,28 +30872,28 @@
         <v>0.07820000000000001</v>
       </c>
       <c r="I19" t="n">
-        <v>-1.059915146115709</v>
+        <v>-1.079256924117007</v>
       </c>
       <c r="J19" t="n">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="K19" t="n">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1954036307244396</v>
+        <v>0.2019489326287902</v>
       </c>
       <c r="M19" t="n">
-        <v>12.82934613400052</v>
+        <v>12.86067383859388</v>
       </c>
       <c r="N19" t="n">
-        <v>297.2000425193321</v>
+        <v>297.446186704091</v>
       </c>
       <c r="O19" t="n">
-        <v>17.23949078480371</v>
+        <v>17.24662827059512</v>
       </c>
       <c r="P19" t="n">
-        <v>404.4316491301997</v>
+        <v>404.6088865189886</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">

--- a/data/nzd0331/nzd0331.xlsx
+++ b/data/nzd0331/nzd0331.xlsx
@@ -29540,10 +29540,10 @@
         <v>0.065</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0554</v>
+        <v>0.05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0762</v>
+        <v>0.0982</v>
       </c>
       <c r="I2" t="n">
         <v>-1.650767879757731</v>
@@ -29615,13 +29615,13 @@
         <v>0.9411764622734768</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0669</v>
+        <v>0.0383</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0939</v>
+        <v>0.06859999999999999</v>
       </c>
       <c r="I3" t="n">
         <v>-1.464086606352473</v>
@@ -29693,13 +29693,13 @@
         <v>0.8823529245469536</v>
       </c>
       <c r="F4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.055</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0617</v>
+        <v>0.0419</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0772</v>
+        <v>0.0881</v>
       </c>
       <c r="I4" t="n">
         <v>-1.32521574048543</v>
@@ -29771,13 +29771,13 @@
         <v>0.8235293868204304</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06</v>
+        <v>0.165</v>
       </c>
       <c r="G5" t="n">
-        <v>0.055</v>
+        <v>0.08359999999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>0.06510000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="I5" t="n">
         <v>-1.313875379916624</v>
@@ -29849,13 +29849,13 @@
         <v>0.7647058490939073</v>
       </c>
       <c r="F6" t="n">
-        <v>0.065</v>
+        <v>0.115</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0565</v>
+        <v>0.0711</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0707</v>
+        <v>0.2</v>
       </c>
       <c r="I6" t="n">
         <v>-1.405420267482075</v>
@@ -29930,10 +29930,10 @@
         <v>0.065</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0592</v>
+        <v>0.0469</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0784</v>
+        <v>0.1047</v>
       </c>
       <c r="I7" t="n">
         <v>-1.503136916077098</v>
@@ -30005,13 +30005,13 @@
         <v>0.6470587736408608</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0445</v>
+        <v>0.0472</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0551</v>
+        <v>0.09279999999999999</v>
       </c>
       <c r="I8" t="n">
         <v>-1.348911692171662</v>
@@ -30083,13 +30083,13 @@
         <v>0.5882352359143377</v>
       </c>
       <c r="F9" t="n">
-        <v>0.05</v>
+        <v>0.065</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0449</v>
+        <v>0.0546</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0561</v>
+        <v>0.083</v>
       </c>
       <c r="I9" t="n">
         <v>-1.299210250370501</v>
@@ -30164,10 +30164,10 @@
         <v>0.05</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0443</v>
+        <v>0.0383</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0534</v>
+        <v>0.065</v>
       </c>
       <c r="I10" t="n">
         <v>-1.402556925021929</v>
@@ -30239,13 +30239,13 @@
         <v>0.4705881604602155</v>
       </c>
       <c r="F11" t="n">
-        <v>0.05</v>
+        <v>0.055</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0472</v>
+        <v>0.041</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0596</v>
+        <v>0.0759</v>
       </c>
       <c r="I11" t="n">
         <v>-1.260238948740904</v>
@@ -30317,13 +30317,13 @@
         <v>0.41176462273357</v>
       </c>
       <c r="F12" t="n">
-        <v>0.035</v>
+        <v>0.055</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0333</v>
+        <v>0.044</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0425</v>
+        <v>0.08160000000000001</v>
       </c>
       <c r="I12" t="n">
         <v>-1.046165187839126</v>
@@ -30395,13 +30395,13 @@
         <v>0.352941226358837</v>
       </c>
       <c r="F13" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0346</v>
+        <v>0.0436</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0428</v>
+        <v>0.0872</v>
       </c>
       <c r="I13" t="n">
         <v>-1.274816826479081</v>
@@ -30473,13 +30473,13 @@
         <v>0.2941176886319147</v>
       </c>
       <c r="F14" t="n">
-        <v>0.035</v>
+        <v>0.075</v>
       </c>
       <c r="G14" t="n">
-        <v>0.034</v>
+        <v>0.0491</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0403</v>
+        <v>0.1613</v>
       </c>
       <c r="I14" t="n">
         <v>-0.9255971350269357</v>
@@ -30551,13 +30551,13 @@
         <v>0.2352941509055317</v>
       </c>
       <c r="F15" t="n">
-        <v>0.04</v>
+        <v>0.055</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0355</v>
+        <v>0.0414</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0453</v>
+        <v>0.08749999999999999</v>
       </c>
       <c r="I15" t="n">
         <v>-1.126537637413032</v>
@@ -30632,10 +30632,10 @@
         <v>0.05</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0406</v>
+        <v>0.0378</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0613</v>
+        <v>0.0737</v>
       </c>
       <c r="I16" t="n">
         <v>-1.044466933780786</v>
@@ -30707,13 +30707,13 @@
         <v>0.1176470754527659</v>
       </c>
       <c r="F17" t="n">
-        <v>0.045</v>
+        <v>0.06</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0417</v>
+        <v>0.0445</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0503</v>
+        <v>0.09229999999999999</v>
       </c>
       <c r="I17" t="n">
         <v>-1.13549011024143</v>
@@ -30785,13 +30785,13 @@
         <v>0.05882353772638294</v>
       </c>
       <c r="F18" t="n">
-        <v>0.045</v>
+        <v>0.05</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0429</v>
+        <v>0.0397</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0535</v>
+        <v>0.07439999999999999</v>
       </c>
       <c r="I18" t="n">
         <v>-1.0238909807037</v>
@@ -30863,13 +30863,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0596</v>
+        <v>0.0535</v>
       </c>
       <c r="H19" t="n">
-        <v>0.07820000000000001</v>
+        <v>0.1453</v>
       </c>
       <c r="I19" t="n">
         <v>-1.079289413425633</v>

--- a/data/nzd0331/nzd0331.xlsx
+++ b/data/nzd0331/nzd0331.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T426"/>
+  <dimension ref="A1:T427"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24395,11 +24395,15 @@
       <c r="N426" t="n">
         <v>372.68</v>
       </c>
-      <c r="O426" t="inlineStr"/>
+      <c r="O426" t="n">
+        <v>383.61</v>
+      </c>
       <c r="P426" t="n">
         <v>384.59</v>
       </c>
-      <c r="Q426" t="inlineStr"/>
+      <c r="Q426" t="n">
+        <v>386.24</v>
+      </c>
       <c r="R426" t="n">
         <v>393.63</v>
       </c>
@@ -24409,6 +24413,72 @@
       <c r="T426" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-28 22:19:33+00:00</t>
+        </is>
+      </c>
+      <c r="B427" t="n">
+        <v>383.62</v>
+      </c>
+      <c r="C427" t="n">
+        <v>382.85</v>
+      </c>
+      <c r="D427" t="n">
+        <v>373.79</v>
+      </c>
+      <c r="E427" t="n">
+        <v>378</v>
+      </c>
+      <c r="F427" t="n">
+        <v>368.91</v>
+      </c>
+      <c r="G427" t="n">
+        <v>343.07</v>
+      </c>
+      <c r="H427" t="n">
+        <v>348.3</v>
+      </c>
+      <c r="I427" t="n">
+        <v>347.53</v>
+      </c>
+      <c r="J427" t="n">
+        <v>348.6</v>
+      </c>
+      <c r="K427" t="n">
+        <v>352.76</v>
+      </c>
+      <c r="L427" t="n">
+        <v>351.94</v>
+      </c>
+      <c r="M427" t="n">
+        <v>345.22</v>
+      </c>
+      <c r="N427" t="n">
+        <v>351.96</v>
+      </c>
+      <c r="O427" t="n">
+        <v>347.19</v>
+      </c>
+      <c r="P427" t="n">
+        <v>362.68</v>
+      </c>
+      <c r="Q427" t="n">
+        <v>366.24</v>
+      </c>
+      <c r="R427" t="n">
+        <v>376.21</v>
+      </c>
+      <c r="S427" t="n">
+        <v>365.01</v>
+      </c>
+      <c r="T427" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -24423,7 +24493,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B507"/>
+  <dimension ref="A1:B508"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29501,6 +29571,16 @@
       </c>
       <c r="B507" t="n">
         <v>1.54</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>2025-11-28 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B508" t="n">
+        <v>-0.99</v>
       </c>
     </row>
   </sheetData>
@@ -29668,34 +29748,34 @@
         <v>0.065</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05</v>
+        <v>0.0506</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0979</v>
+        <v>0.0999</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.626485524094619</v>
+        <v>-1.61809812667422</v>
       </c>
       <c r="J2" t="n">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="K2" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3646712919538414</v>
+        <v>0.3633965356554743</v>
       </c>
       <c r="M2" t="n">
-        <v>13.36950200865788</v>
+        <v>13.37564114039939</v>
       </c>
       <c r="N2" t="n">
-        <v>290.3755141389379</v>
+        <v>290.0522704515431</v>
       </c>
       <c r="O2" t="n">
-        <v>17.04040827383364</v>
+        <v>17.03092101007879</v>
       </c>
       <c r="P2" t="n">
-        <v>412.437527591242</v>
+        <v>412.3599792892185</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -29746,34 +29826,34 @@
         <v>0.05</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0384</v>
+        <v>0.0385</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0687</v>
+        <v>0.0688</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.37847080964334</v>
+        <v>-1.370920475128644</v>
       </c>
       <c r="J3" t="n">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="K3" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3035095185051422</v>
+        <v>0.3024633298369938</v>
       </c>
       <c r="M3" t="n">
-        <v>12.80446597802209</v>
+        <v>12.79592712506697</v>
       </c>
       <c r="N3" t="n">
-        <v>269.2111296070076</v>
+        <v>268.7542048354636</v>
       </c>
       <c r="O3" t="n">
-        <v>16.40765460408671</v>
+        <v>16.39372455653271</v>
       </c>
       <c r="P3" t="n">
-        <v>407.4223023199621</v>
+        <v>407.3528175861207</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -29824,34 +29904,34 @@
         <v>0.055</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0418</v>
+        <v>0.0419</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0878</v>
+        <v>0.0873</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.298766367285293</v>
+        <v>-1.295940263169235</v>
       </c>
       <c r="J4" t="n">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="K4" t="n">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3350150524597985</v>
+        <v>0.3355602393919661</v>
       </c>
       <c r="M4" t="n">
-        <v>11.17513992581322</v>
+        <v>11.15467858942397</v>
       </c>
       <c r="N4" t="n">
-        <v>210.1140435656204</v>
+        <v>209.5108411950368</v>
       </c>
       <c r="O4" t="n">
-        <v>14.49531108895633</v>
+        <v>14.47448932415361</v>
       </c>
       <c r="P4" t="n">
-        <v>403.2203328633276</v>
+        <v>403.194498470845</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -29902,34 +29982,34 @@
         <v>0.165</v>
       </c>
       <c r="G5" t="n">
-        <v>0.08309999999999999</v>
+        <v>0.0837</v>
       </c>
       <c r="H5" t="n">
         <v>0.2</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.462944580572346</v>
+        <v>-1.4530689272383</v>
       </c>
       <c r="J5" t="n">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="K5" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3614100831120364</v>
+        <v>0.3591019695449271</v>
       </c>
       <c r="M5" t="n">
-        <v>11.62792409258718</v>
+        <v>11.64026440934028</v>
       </c>
       <c r="N5" t="n">
-        <v>235.6881774066416</v>
+        <v>235.7636127278871</v>
       </c>
       <c r="O5" t="n">
-        <v>15.3521391801482</v>
+        <v>15.35459581779628</v>
       </c>
       <c r="P5" t="n">
-        <v>400.2852464982849</v>
+        <v>400.1936047797757</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -29980,34 +30060,34 @@
         <v>0.115</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0712</v>
+        <v>0.0717</v>
       </c>
       <c r="H6" t="n">
         <v>0.2</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.480441216148332</v>
+        <v>-1.474491293714876</v>
       </c>
       <c r="J6" t="n">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="K6" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3989528087498869</v>
+        <v>0.3983005963623704</v>
       </c>
       <c r="M6" t="n">
-        <v>11.0220646002188</v>
+        <v>11.01713627967804</v>
       </c>
       <c r="N6" t="n">
-        <v>207.8581543832013</v>
+        <v>207.4977593852854</v>
       </c>
       <c r="O6" t="n">
-        <v>14.4172866512115</v>
+        <v>14.40478251780586</v>
       </c>
       <c r="P6" t="n">
-        <v>397.8558086250766</v>
+        <v>397.8004342296636</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -30058,34 +30138,34 @@
         <v>0.065</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0469</v>
+        <v>0.0474</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1044</v>
+        <v>0.1061</v>
       </c>
       <c r="I7" t="n">
-        <v>-1.492244608455538</v>
+        <v>-1.501231798362206</v>
       </c>
       <c r="J7" t="n">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="K7" t="n">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3951140860373152</v>
+        <v>0.398737254839689</v>
       </c>
       <c r="M7" t="n">
-        <v>11.05917263486345</v>
+        <v>11.07573521927123</v>
       </c>
       <c r="N7" t="n">
-        <v>212.6317845072734</v>
+        <v>212.7045895788784</v>
       </c>
       <c r="O7" t="n">
-        <v>14.58189920782863</v>
+        <v>14.58439541355343</v>
       </c>
       <c r="P7" t="n">
-        <v>397.7082836797495</v>
+        <v>397.7927768201453</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -30136,34 +30216,34 @@
         <v>0.06</v>
       </c>
       <c r="G8" t="n">
-        <v>0.047</v>
+        <v>0.0473</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09180000000000001</v>
+        <v>0.0926</v>
       </c>
       <c r="I8" t="n">
-        <v>-1.42264740433085</v>
+        <v>-1.428855982233468</v>
       </c>
       <c r="J8" t="n">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="K8" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3871307658899429</v>
+        <v>0.3902692537127141</v>
       </c>
       <c r="M8" t="n">
-        <v>11.33595538869111</v>
+        <v>11.33534212305425</v>
       </c>
       <c r="N8" t="n">
-        <v>206.0357194911393</v>
+        <v>205.7859524489093</v>
       </c>
       <c r="O8" t="n">
-        <v>14.35394438790743</v>
+        <v>14.34524145662628</v>
       </c>
       <c r="P8" t="n">
-        <v>396.9416771273185</v>
+        <v>396.9986286237205</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -30214,34 +30294,34 @@
         <v>0.065</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0543</v>
+        <v>0.0546</v>
       </c>
       <c r="H9" t="n">
-        <v>0.082</v>
+        <v>0.08210000000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>-1.312060496900253</v>
+        <v>-1.319235066762282</v>
       </c>
       <c r="J9" t="n">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="K9" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3586857293703195</v>
+        <v>0.3620509489297047</v>
       </c>
       <c r="M9" t="n">
-        <v>10.75371187153334</v>
+        <v>10.75962400389037</v>
       </c>
       <c r="N9" t="n">
-        <v>192.0560326696585</v>
+        <v>191.9896677713348</v>
       </c>
       <c r="O9" t="n">
-        <v>13.8584282178629</v>
+        <v>13.85603362334744</v>
       </c>
       <c r="P9" t="n">
-        <v>395.1079255603418</v>
+        <v>395.174957831841</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -30289,37 +30369,37 @@
         <v>0.5294116981872766</v>
       </c>
       <c r="F10" t="n">
-        <v>0.045</v>
+        <v>0.05</v>
       </c>
       <c r="G10" t="n">
-        <v>0.038</v>
+        <v>0.0383</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0644</v>
+        <v>0.0649</v>
       </c>
       <c r="I10" t="n">
-        <v>-1.397568262035533</v>
+        <v>-1.402944296425497</v>
       </c>
       <c r="J10" t="n">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="K10" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3521946847665766</v>
+        <v>0.3550867583231393</v>
       </c>
       <c r="M10" t="n">
-        <v>11.7795642895454</v>
+        <v>11.77305685546092</v>
       </c>
       <c r="N10" t="n">
-        <v>224.8242192768651</v>
+        <v>224.4276454088356</v>
       </c>
       <c r="O10" t="n">
-        <v>14.9941394977126</v>
+        <v>14.98090936521664</v>
       </c>
       <c r="P10" t="n">
-        <v>395.1121003947588</v>
+        <v>395.1627275819353</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -30370,34 +30450,34 @@
         <v>0.055</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0406</v>
+        <v>0.0409</v>
       </c>
       <c r="H11" t="n">
-        <v>0.075</v>
+        <v>0.0755</v>
       </c>
       <c r="I11" t="n">
-        <v>-1.278893191913727</v>
+        <v>-1.281914216759888</v>
       </c>
       <c r="J11" t="n">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="K11" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L11" t="n">
-        <v>0.3261287100537755</v>
+        <v>0.3284600412365444</v>
       </c>
       <c r="M11" t="n">
-        <v>11.51210324913879</v>
+        <v>11.49194165784674</v>
       </c>
       <c r="N11" t="n">
-        <v>208.3554856519615</v>
+        <v>207.8056821354682</v>
       </c>
       <c r="O11" t="n">
-        <v>14.43452408817005</v>
+        <v>14.41546676786666</v>
       </c>
       <c r="P11" t="n">
-        <v>391.7952181992686</v>
+        <v>391.824047329485</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -30451,31 +30531,31 @@
         <v>0.0441</v>
       </c>
       <c r="H12" t="n">
-        <v>0.082</v>
+        <v>0.0822</v>
       </c>
       <c r="I12" t="n">
-        <v>-1.179017398035539</v>
+        <v>-1.182008627650908</v>
       </c>
       <c r="J12" t="n">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="K12" t="n">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L12" t="n">
-        <v>0.268884772562649</v>
+        <v>0.2711680705573396</v>
       </c>
       <c r="M12" t="n">
-        <v>11.69812791812712</v>
+        <v>11.67842882394974</v>
       </c>
       <c r="N12" t="n">
-        <v>230.2914459934474</v>
+        <v>229.6327922993316</v>
       </c>
       <c r="O12" t="n">
-        <v>15.17535653595814</v>
+        <v>15.15363957270106</v>
       </c>
       <c r="P12" t="n">
-        <v>387.9327925580141</v>
+        <v>387.9612599459809</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -30526,34 +30606,34 @@
         <v>0.06</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0436</v>
+        <v>0.0438</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0867</v>
+        <v>0.0873</v>
       </c>
       <c r="I13" t="n">
-        <v>-1.316531436584445</v>
+        <v>-1.323190429731381</v>
       </c>
       <c r="J13" t="n">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="K13" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L13" t="n">
-        <v>0.3072657963330588</v>
+        <v>0.3106668454278907</v>
       </c>
       <c r="M13" t="n">
-        <v>11.97617674920211</v>
+        <v>11.97111039869142</v>
       </c>
       <c r="N13" t="n">
-        <v>236.3123297046867</v>
+        <v>235.8800842442722</v>
       </c>
       <c r="O13" t="n">
-        <v>15.37245360066787</v>
+        <v>15.35838807441302</v>
       </c>
       <c r="P13" t="n">
-        <v>390.2680890877306</v>
+        <v>390.3313866456971</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -30604,34 +30684,34 @@
         <v>0.075</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0489</v>
+        <v>0.0491</v>
       </c>
       <c r="H14" t="n">
         <v>0.1585</v>
       </c>
       <c r="I14" t="n">
-        <v>-1.049451407645077</v>
+        <v>-1.053640705708913</v>
       </c>
       <c r="J14" t="n">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="K14" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1817635725269385</v>
+        <v>0.1840328815712159</v>
       </c>
       <c r="M14" t="n">
-        <v>13.48488565152985</v>
+        <v>13.45740469463854</v>
       </c>
       <c r="N14" t="n">
-        <v>303.889522394246</v>
+        <v>302.9443141524619</v>
       </c>
       <c r="O14" t="n">
-        <v>17.43242732364733</v>
+        <v>17.40529557785394</v>
       </c>
       <c r="P14" t="n">
-        <v>385.8419545639286</v>
+        <v>385.881552166426</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -30682,34 +30762,34 @@
         <v>0.055</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0412</v>
+        <v>0.0413</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0862</v>
+        <v>0.0861</v>
       </c>
       <c r="I15" t="n">
-        <v>-1.222617883799699</v>
+        <v>-1.214111832974248</v>
       </c>
       <c r="J15" t="n">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="K15" t="n">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="L15" t="n">
-        <v>0.2580372637040605</v>
+        <v>0.2565999579023533</v>
       </c>
       <c r="M15" t="n">
-        <v>13.34710946128027</v>
+        <v>13.38239224072392</v>
       </c>
       <c r="N15" t="n">
-        <v>276.7448284273029</v>
+        <v>277.432034682511</v>
       </c>
       <c r="O15" t="n">
-        <v>16.63564932388583</v>
+        <v>16.65629114426471</v>
       </c>
       <c r="P15" t="n">
-        <v>391.2004498083393</v>
+        <v>391.1250101617494</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -30763,31 +30843,31 @@
         <v>0.0378</v>
       </c>
       <c r="H16" t="n">
-        <v>0.07340000000000001</v>
+        <v>0.0731</v>
       </c>
       <c r="I16" t="n">
-        <v>-1.031067830824507</v>
+        <v>-1.03069012982115</v>
       </c>
       <c r="J16" t="n">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="K16" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1893187191186126</v>
+        <v>0.1902196428218845</v>
       </c>
       <c r="M16" t="n">
-        <v>12.59847389246902</v>
+        <v>12.55829030258076</v>
       </c>
       <c r="N16" t="n">
-        <v>288.0213548005011</v>
+        <v>287.0594407941517</v>
       </c>
       <c r="O16" t="n">
-        <v>16.97119190865807</v>
+        <v>16.9428285948407</v>
       </c>
       <c r="P16" t="n">
-        <v>389.1371624866395</v>
+        <v>389.1335972215277</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -30838,34 +30918,34 @@
         <v>0.06</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0446</v>
+        <v>0.0448</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0927</v>
+        <v>0.0936</v>
       </c>
       <c r="I17" t="n">
-        <v>-1.206848477185076</v>
+        <v>-1.197221212225916</v>
       </c>
       <c r="J17" t="n">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="K17" t="n">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1608944723447181</v>
+        <v>0.160146426831298</v>
       </c>
       <c r="M17" t="n">
-        <v>14.1002161828588</v>
+        <v>14.07933089528649</v>
       </c>
       <c r="N17" t="n">
-        <v>479.850433875358</v>
+        <v>477.9568268007937</v>
       </c>
       <c r="O17" t="n">
-        <v>21.9054886700881</v>
+        <v>21.86222373869579</v>
       </c>
       <c r="P17" t="n">
-        <v>399.1883696563957</v>
+        <v>399.0990756840232</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -30916,34 +30996,34 @@
         <v>0.05</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0399</v>
+        <v>0.04</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0747</v>
+        <v>0.0752</v>
       </c>
       <c r="I18" t="n">
-        <v>-1.02939934745799</v>
+        <v>-1.031096012752148</v>
       </c>
       <c r="J18" t="n">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="K18" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1995783356152111</v>
+        <v>0.2010675425234585</v>
       </c>
       <c r="M18" t="n">
-        <v>13.1512310374007</v>
+        <v>13.11996789513225</v>
       </c>
       <c r="N18" t="n">
-        <v>275.9250804143737</v>
+        <v>275.11184312115</v>
       </c>
       <c r="O18" t="n">
-        <v>16.61099275824217</v>
+        <v>16.58649580596064</v>
       </c>
       <c r="P18" t="n">
-        <v>406.4423434968291</v>
+        <v>406.4579238150552</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -30994,34 +31074,34 @@
         <v>0.08</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0538</v>
+        <v>0.0541</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1466</v>
+        <v>0.1483</v>
       </c>
       <c r="I19" t="n">
-        <v>-1.097263428872439</v>
+        <v>-1.102893314891223</v>
       </c>
       <c r="J19" t="n">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="K19" t="n">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L19" t="n">
-        <v>0.2050765394328524</v>
+        <v>0.2075349772165318</v>
       </c>
       <c r="M19" t="n">
-        <v>13.04572615188803</v>
+        <v>13.03698507857084</v>
       </c>
       <c r="N19" t="n">
-        <v>302.5491336038891</v>
+        <v>301.9872305403688</v>
       </c>
       <c r="O19" t="n">
-        <v>17.39393956537418</v>
+        <v>17.37777979318327</v>
       </c>
       <c r="P19" t="n">
-        <v>404.6419704514757</v>
+        <v>404.6939470935308</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -31059,7 +31139,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T426"/>
+  <dimension ref="A1:T427"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66144,13 +66224,21 @@
           <t>-40.967185175009256,172.1015738538604</t>
         </is>
       </c>
-      <c r="O426" t="inlineStr"/>
+      <c r="O426" t="inlineStr">
+        <is>
+          <t>-40.96653404900992,172.10128793621047</t>
+        </is>
+      </c>
       <c r="P426" t="inlineStr">
         <is>
           <t>-40.96586778407723,172.10111856375477</t>
         </is>
       </c>
-      <c r="Q426" t="inlineStr"/>
+      <c r="Q426" t="inlineStr">
+        <is>
+          <t>-40.96520253129115,172.10094134400495</t>
+        </is>
+      </c>
       <c r="R426" t="inlineStr">
         <is>
           <t>-40.9645460009092,172.100696894289</t>
@@ -66164,6 +66252,108 @@
       <c r="T426" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-28 22:19:33+00:00</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>-40.97520085866885,172.10346593126476</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>-40.974533667890896,172.1033046036371</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>-40.97385282853207,172.10324014326258</t>
+        </is>
+      </c>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>-40.97319381937997,172.1030206243321</t>
+        </is>
+      </c>
+      <c r="F427" t="inlineStr">
+        <is>
+          <t>-40.97251291739624,172.1029565118234</t>
+        </is>
+      </c>
+      <c r="G427" t="inlineStr">
+        <is>
+          <t>-40.97180444527666,172.10308811242135</t>
+        </is>
+      </c>
+      <c r="H427" t="inlineStr">
+        <is>
+          <t>-40.971147094788535,172.10285667341472</t>
+        </is>
+      </c>
+      <c r="I427" t="inlineStr">
+        <is>
+          <t>-40.970479864061396,172.10269534116648</t>
+        </is>
+      </c>
+      <c r="J427" t="inlineStr">
+        <is>
+          <t>-40.96981565445016,172.10251250991394</t>
+        </is>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>-40.969156522815574,172.10229357525</t>
+        </is>
+      </c>
+      <c r="L427" t="inlineStr">
+        <is>
+          <t>-40.96848912904478,172.10213285645855</t>
+        </is>
+      </c>
+      <c r="M427" t="inlineStr">
+        <is>
+          <t>-40.96781114521319,172.1020533895171</t>
+        </is>
+      </c>
+      <c r="N427" t="inlineStr">
+        <is>
+          <t>-40.96715366324395,172.101816548342</t>
+        </is>
+      </c>
+      <c r="O427" t="inlineStr">
+        <is>
+          <t>-40.96647866056899,172.10171452146838</t>
+        </is>
+      </c>
+      <c r="P427" t="inlineStr">
+        <is>
+          <t>-40.965834463230166,172.1013751918077</t>
+        </is>
+      </c>
+      <c r="Q427" t="inlineStr">
+        <is>
+          <t>-40.965172115436005,172.10117559826045</t>
+        </is>
+      </c>
+      <c r="R427" t="inlineStr">
+        <is>
+          <t>-40.9645195090468,172.10090092779987</t>
+        </is>
+      </c>
+      <c r="S427" t="inlineStr">
+        <is>
+          <t>-40.963834700797015,172.10087421280747</t>
+        </is>
+      </c>
+      <c r="T427" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
